--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Archivos Compu DELL\UTILIDADES DESCARGA\Para MASIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F7BCB1-3115-413A-8C50-392714B2C18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C568D55-EE53-40F2-8C8D-4E42A34FB2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Año</t>
   </si>
@@ -216,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -239,11 +239,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -277,6 +316,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
-  <dimension ref="A1:J310"/>
+  <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +710,7 @@
       <c r="G2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="17" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="1"/>
@@ -689,13 +740,13 @@
         <f t="shared" ref="F3:F66" si="2">VLOOKUP(G3,Tabla_Iniciativa,2,)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="13">
         <v>7000</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="16">
         <f t="shared" ref="I3:I66" si="3">VLOOKUP(J3,Tabla_Mes,2,)</f>
         <v>6</v>
       </c>
@@ -725,13 +776,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="13">
         <v>2000</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="16">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
@@ -740,76 +791,112 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="e">
+      <c r="A5" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="10">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="e">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>150</v>
+      </c>
+      <c r="D5" s="10">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="e">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="e">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="18">
+        <v>58493</v>
+      </c>
+      <c r="I5" s="10">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="e">
+      <c r="A6" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="10">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="e">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>50</v>
+      </c>
+      <c r="D6" s="10">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="e">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="e">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="e">
+      <c r="A7" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="10">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="e">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="e">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="e">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="18">
+        <v>40000</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -828,7 +915,7 @@
         <v>#N/A</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -852,7 +939,7 @@
         <v>#N/A</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -876,7 +963,7 @@
         <v>#N/A</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -900,7 +987,7 @@
         <v>#N/A</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -924,7 +1011,7 @@
         <v>#N/A</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -948,7 +1035,7 @@
         <v>#N/A</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -972,7 +1059,7 @@
         <v>#N/A</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -996,7 +1083,7 @@
         <v>#N/A</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1020,7 +1107,7 @@
         <v>#N/A</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1044,7 +1131,7 @@
         <v>#N/A</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1068,7 +1155,7 @@
         <v>#N/A</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1092,7 +1179,7 @@
         <v>#N/A</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1116,7 +1203,7 @@
         <v>#N/A</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1140,7 +1227,7 @@
         <v>#N/A</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1164,7 +1251,7 @@
         <v>#N/A</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1188,7 +1275,7 @@
         <v>#N/A</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1212,7 +1299,7 @@
         <v>#N/A</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1236,7 +1323,7 @@
         <v>#N/A</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1260,7 +1347,7 @@
         <v>#N/A</v>
       </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1284,7 +1371,7 @@
         <v>#N/A</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1308,7 +1395,7 @@
         <v>#N/A</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1332,7 +1419,7 @@
         <v>#N/A</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1356,7 +1443,7 @@
         <v>#N/A</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1380,7 +1467,7 @@
         <v>#N/A</v>
       </c>
       <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1404,7 +1491,7 @@
         <v>#N/A</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1428,7 +1515,7 @@
         <v>#N/A</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1452,7 +1539,7 @@
         <v>#N/A</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1476,7 +1563,7 @@
         <v>#N/A</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1500,7 +1587,7 @@
         <v>#N/A</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1524,7 +1611,7 @@
         <v>#N/A</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1548,7 +1635,7 @@
         <v>#N/A</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1572,7 +1659,7 @@
         <v>#N/A</v>
       </c>
       <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1596,7 +1683,7 @@
         <v>#N/A</v>
       </c>
       <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1620,7 +1707,7 @@
         <v>#N/A</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1644,7 +1731,7 @@
         <v>#N/A</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1668,7 +1755,7 @@
         <v>#N/A</v>
       </c>
       <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1692,7 +1779,7 @@
         <v>#N/A</v>
       </c>
       <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1716,7 +1803,7 @@
         <v>#N/A</v>
       </c>
       <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1740,7 +1827,7 @@
         <v>#N/A</v>
       </c>
       <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1764,7 +1851,7 @@
         <v>#N/A</v>
       </c>
       <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1788,7 +1875,7 @@
         <v>#N/A</v>
       </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1812,7 +1899,7 @@
         <v>#N/A</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1836,7 +1923,7 @@
         <v>#N/A</v>
       </c>
       <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1860,7 +1947,7 @@
         <v>#N/A</v>
       </c>
       <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1884,7 +1971,7 @@
         <v>#N/A</v>
       </c>
       <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1908,7 +1995,7 @@
         <v>#N/A</v>
       </c>
       <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1932,7 +2019,7 @@
         <v>#N/A</v>
       </c>
       <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1956,7 +2043,7 @@
         <v>#N/A</v>
       </c>
       <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1980,7 +2067,7 @@
         <v>#N/A</v>
       </c>
       <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2004,7 +2091,7 @@
         <v>#N/A</v>
       </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2028,7 +2115,7 @@
         <v>#N/A</v>
       </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2052,7 +2139,7 @@
         <v>#N/A</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2076,7 +2163,7 @@
         <v>#N/A</v>
       </c>
       <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2100,7 +2187,7 @@
         <v>#N/A</v>
       </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2124,7 +2211,7 @@
         <v>#N/A</v>
       </c>
       <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
+      <c r="H62" s="18"/>
       <c r="I62" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2148,7 +2235,7 @@
         <v>#N/A</v>
       </c>
       <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
+      <c r="H63" s="18"/>
       <c r="I63" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2172,7 +2259,7 @@
         <v>#N/A</v>
       </c>
       <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2196,7 +2283,7 @@
         <v>#N/A</v>
       </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
+      <c r="H65" s="18"/>
       <c r="I65" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2220,7 +2307,7 @@
         <v>#N/A</v>
       </c>
       <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
+      <c r="H66" s="18"/>
       <c r="I66" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2244,7 +2331,7 @@
         <v>#N/A</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="10" t="e">
         <f t="shared" ref="I67:I130" si="7">VLOOKUP(J67,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -2268,7 +2355,7 @@
         <v>#N/A</v>
       </c>
       <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2292,7 +2379,7 @@
         <v>#N/A</v>
       </c>
       <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2316,7 +2403,7 @@
         <v>#N/A</v>
       </c>
       <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
+      <c r="H70" s="18"/>
       <c r="I70" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2340,7 +2427,7 @@
         <v>#N/A</v>
       </c>
       <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
+      <c r="H71" s="18"/>
       <c r="I71" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2364,7 +2451,7 @@
         <v>#N/A</v>
       </c>
       <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
+      <c r="H72" s="18"/>
       <c r="I72" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2388,7 +2475,7 @@
         <v>#N/A</v>
       </c>
       <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
+      <c r="H73" s="18"/>
       <c r="I73" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2412,7 +2499,7 @@
         <v>#N/A</v>
       </c>
       <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
+      <c r="H74" s="18"/>
       <c r="I74" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2436,7 +2523,7 @@
         <v>#N/A</v>
       </c>
       <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
+      <c r="H75" s="18"/>
       <c r="I75" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2460,7 +2547,7 @@
         <v>#N/A</v>
       </c>
       <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
+      <c r="H76" s="18"/>
       <c r="I76" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2484,7 +2571,7 @@
         <v>#N/A</v>
       </c>
       <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
+      <c r="H77" s="18"/>
       <c r="I77" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2508,7 +2595,7 @@
         <v>#N/A</v>
       </c>
       <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
+      <c r="H78" s="18"/>
       <c r="I78" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2532,7 +2619,7 @@
         <v>#N/A</v>
       </c>
       <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
+      <c r="H79" s="18"/>
       <c r="I79" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2556,7 +2643,7 @@
         <v>#N/A</v>
       </c>
       <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
+      <c r="H80" s="18"/>
       <c r="I80" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2580,7 +2667,7 @@
         <v>#N/A</v>
       </c>
       <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
+      <c r="H81" s="18"/>
       <c r="I81" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2604,7 +2691,7 @@
         <v>#N/A</v>
       </c>
       <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
+      <c r="H82" s="18"/>
       <c r="I82" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2628,7 +2715,7 @@
         <v>#N/A</v>
       </c>
       <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
+      <c r="H83" s="18"/>
       <c r="I83" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2652,7 +2739,7 @@
         <v>#N/A</v>
       </c>
       <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+      <c r="H84" s="18"/>
       <c r="I84" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2676,7 +2763,7 @@
         <v>#N/A</v>
       </c>
       <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
+      <c r="H85" s="18"/>
       <c r="I85" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2700,7 +2787,7 @@
         <v>#N/A</v>
       </c>
       <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
+      <c r="H86" s="18"/>
       <c r="I86" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2724,7 +2811,7 @@
         <v>#N/A</v>
       </c>
       <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
+      <c r="H87" s="18"/>
       <c r="I87" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2748,7 +2835,7 @@
         <v>#N/A</v>
       </c>
       <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
+      <c r="H88" s="18"/>
       <c r="I88" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2772,7 +2859,7 @@
         <v>#N/A</v>
       </c>
       <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
+      <c r="H89" s="18"/>
       <c r="I89" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2796,7 +2883,7 @@
         <v>#N/A</v>
       </c>
       <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
+      <c r="H90" s="18"/>
       <c r="I90" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2820,7 +2907,7 @@
         <v>#N/A</v>
       </c>
       <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
+      <c r="H91" s="18"/>
       <c r="I91" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2844,7 +2931,7 @@
         <v>#N/A</v>
       </c>
       <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
+      <c r="H92" s="18"/>
       <c r="I92" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2868,7 +2955,7 @@
         <v>#N/A</v>
       </c>
       <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
+      <c r="H93" s="18"/>
       <c r="I93" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2892,7 +2979,7 @@
         <v>#N/A</v>
       </c>
       <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
+      <c r="H94" s="18"/>
       <c r="I94" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2916,7 +3003,7 @@
         <v>#N/A</v>
       </c>
       <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
+      <c r="H95" s="18"/>
       <c r="I95" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2940,7 +3027,7 @@
         <v>#N/A</v>
       </c>
       <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
+      <c r="H96" s="18"/>
       <c r="I96" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2964,7 +3051,7 @@
         <v>#N/A</v>
       </c>
       <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
+      <c r="H97" s="18"/>
       <c r="I97" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2988,7 +3075,7 @@
         <v>#N/A</v>
       </c>
       <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
+      <c r="H98" s="18"/>
       <c r="I98" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3012,7 +3099,7 @@
         <v>#N/A</v>
       </c>
       <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
+      <c r="H99" s="18"/>
       <c r="I99" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3036,7 +3123,7 @@
         <v>#N/A</v>
       </c>
       <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
+      <c r="H100" s="18"/>
       <c r="I100" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3060,7 +3147,7 @@
         <v>#N/A</v>
       </c>
       <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
+      <c r="H101" s="18"/>
       <c r="I101" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3084,7 +3171,7 @@
         <v>#N/A</v>
       </c>
       <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
+      <c r="H102" s="18"/>
       <c r="I102" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3108,7 +3195,7 @@
         <v>#N/A</v>
       </c>
       <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
+      <c r="H103" s="18"/>
       <c r="I103" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3132,7 +3219,7 @@
         <v>#N/A</v>
       </c>
       <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
+      <c r="H104" s="18"/>
       <c r="I104" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3156,7 +3243,7 @@
         <v>#N/A</v>
       </c>
       <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
+      <c r="H105" s="18"/>
       <c r="I105" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3180,7 +3267,7 @@
         <v>#N/A</v>
       </c>
       <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
+      <c r="H106" s="18"/>
       <c r="I106" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3204,7 +3291,7 @@
         <v>#N/A</v>
       </c>
       <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
+      <c r="H107" s="18"/>
       <c r="I107" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3228,7 +3315,7 @@
         <v>#N/A</v>
       </c>
       <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
+      <c r="H108" s="18"/>
       <c r="I108" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3252,7 +3339,7 @@
         <v>#N/A</v>
       </c>
       <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
+      <c r="H109" s="18"/>
       <c r="I109" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3276,7 +3363,7 @@
         <v>#N/A</v>
       </c>
       <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
+      <c r="H110" s="18"/>
       <c r="I110" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3300,7 +3387,7 @@
         <v>#N/A</v>
       </c>
       <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
+      <c r="H111" s="18"/>
       <c r="I111" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3324,7 +3411,7 @@
         <v>#N/A</v>
       </c>
       <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
+      <c r="H112" s="18"/>
       <c r="I112" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3348,7 +3435,7 @@
         <v>#N/A</v>
       </c>
       <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
+      <c r="H113" s="18"/>
       <c r="I113" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3372,7 +3459,7 @@
         <v>#N/A</v>
       </c>
       <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
+      <c r="H114" s="18"/>
       <c r="I114" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3396,7 +3483,7 @@
         <v>#N/A</v>
       </c>
       <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
+      <c r="H115" s="18"/>
       <c r="I115" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3420,7 +3507,7 @@
         <v>#N/A</v>
       </c>
       <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
+      <c r="H116" s="18"/>
       <c r="I116" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3444,7 +3531,7 @@
         <v>#N/A</v>
       </c>
       <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
+      <c r="H117" s="18"/>
       <c r="I117" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3468,7 +3555,7 @@
         <v>#N/A</v>
       </c>
       <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
+      <c r="H118" s="18"/>
       <c r="I118" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3492,7 +3579,7 @@
         <v>#N/A</v>
       </c>
       <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
+      <c r="H119" s="18"/>
       <c r="I119" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3516,7 +3603,7 @@
         <v>#N/A</v>
       </c>
       <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
+      <c r="H120" s="18"/>
       <c r="I120" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3540,7 +3627,7 @@
         <v>#N/A</v>
       </c>
       <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
+      <c r="H121" s="18"/>
       <c r="I121" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3564,7 +3651,7 @@
         <v>#N/A</v>
       </c>
       <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
+      <c r="H122" s="18"/>
       <c r="I122" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3588,7 +3675,7 @@
         <v>#N/A</v>
       </c>
       <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
+      <c r="H123" s="18"/>
       <c r="I123" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3612,7 +3699,7 @@
         <v>#N/A</v>
       </c>
       <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
+      <c r="H124" s="18"/>
       <c r="I124" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3636,7 +3723,7 @@
         <v>#N/A</v>
       </c>
       <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
+      <c r="H125" s="18"/>
       <c r="I125" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3660,7 +3747,7 @@
         <v>#N/A</v>
       </c>
       <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
+      <c r="H126" s="18"/>
       <c r="I126" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3684,7 +3771,7 @@
         <v>#N/A</v>
       </c>
       <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
+      <c r="H127" s="18"/>
       <c r="I127" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3708,7 +3795,7 @@
         <v>#N/A</v>
       </c>
       <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
+      <c r="H128" s="18"/>
       <c r="I128" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3732,7 +3819,7 @@
         <v>#N/A</v>
       </c>
       <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
+      <c r="H129" s="18"/>
       <c r="I129" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3756,7 +3843,7 @@
         <v>#N/A</v>
       </c>
       <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
+      <c r="H130" s="18"/>
       <c r="I130" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3780,7 +3867,7 @@
         <v>#N/A</v>
       </c>
       <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
+      <c r="H131" s="18"/>
       <c r="I131" s="10" t="e">
         <f t="shared" ref="I131:I194" si="11">VLOOKUP(J131,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -3804,7 +3891,7 @@
         <v>#N/A</v>
       </c>
       <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
+      <c r="H132" s="18"/>
       <c r="I132" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3828,7 +3915,7 @@
         <v>#N/A</v>
       </c>
       <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
+      <c r="H133" s="18"/>
       <c r="I133" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3852,7 +3939,7 @@
         <v>#N/A</v>
       </c>
       <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
+      <c r="H134" s="18"/>
       <c r="I134" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3876,7 +3963,7 @@
         <v>#N/A</v>
       </c>
       <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
+      <c r="H135" s="18"/>
       <c r="I135" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3900,7 +3987,7 @@
         <v>#N/A</v>
       </c>
       <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
+      <c r="H136" s="18"/>
       <c r="I136" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3924,7 +4011,7 @@
         <v>#N/A</v>
       </c>
       <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
+      <c r="H137" s="18"/>
       <c r="I137" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3948,7 +4035,7 @@
         <v>#N/A</v>
       </c>
       <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
+      <c r="H138" s="18"/>
       <c r="I138" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3972,7 +4059,7 @@
         <v>#N/A</v>
       </c>
       <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
+      <c r="H139" s="18"/>
       <c r="I139" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3996,7 +4083,7 @@
         <v>#N/A</v>
       </c>
       <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
+      <c r="H140" s="18"/>
       <c r="I140" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4020,7 +4107,7 @@
         <v>#N/A</v>
       </c>
       <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
+      <c r="H141" s="18"/>
       <c r="I141" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4044,7 +4131,7 @@
         <v>#N/A</v>
       </c>
       <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
+      <c r="H142" s="18"/>
       <c r="I142" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4068,7 +4155,7 @@
         <v>#N/A</v>
       </c>
       <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
+      <c r="H143" s="18"/>
       <c r="I143" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4092,7 +4179,7 @@
         <v>#N/A</v>
       </c>
       <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
+      <c r="H144" s="18"/>
       <c r="I144" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4116,7 +4203,7 @@
         <v>#N/A</v>
       </c>
       <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
+      <c r="H145" s="18"/>
       <c r="I145" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4140,7 +4227,7 @@
         <v>#N/A</v>
       </c>
       <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
+      <c r="H146" s="18"/>
       <c r="I146" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4164,7 +4251,7 @@
         <v>#N/A</v>
       </c>
       <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
+      <c r="H147" s="18"/>
       <c r="I147" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4188,7 +4275,7 @@
         <v>#N/A</v>
       </c>
       <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
+      <c r="H148" s="18"/>
       <c r="I148" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4212,7 +4299,7 @@
         <v>#N/A</v>
       </c>
       <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
+      <c r="H149" s="18"/>
       <c r="I149" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4236,7 +4323,7 @@
         <v>#N/A</v>
       </c>
       <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
+      <c r="H150" s="18"/>
       <c r="I150" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4260,7 +4347,7 @@
         <v>#N/A</v>
       </c>
       <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
+      <c r="H151" s="18"/>
       <c r="I151" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4284,7 +4371,7 @@
         <v>#N/A</v>
       </c>
       <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
+      <c r="H152" s="18"/>
       <c r="I152" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4308,7 +4395,7 @@
         <v>#N/A</v>
       </c>
       <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
+      <c r="H153" s="18"/>
       <c r="I153" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4332,7 +4419,7 @@
         <v>#N/A</v>
       </c>
       <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
+      <c r="H154" s="18"/>
       <c r="I154" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4356,7 +4443,7 @@
         <v>#N/A</v>
       </c>
       <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
+      <c r="H155" s="18"/>
       <c r="I155" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4380,7 +4467,7 @@
         <v>#N/A</v>
       </c>
       <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
+      <c r="H156" s="18"/>
       <c r="I156" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4404,7 +4491,7 @@
         <v>#N/A</v>
       </c>
       <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
+      <c r="H157" s="18"/>
       <c r="I157" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4428,7 +4515,7 @@
         <v>#N/A</v>
       </c>
       <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
+      <c r="H158" s="18"/>
       <c r="I158" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4452,7 +4539,7 @@
         <v>#N/A</v>
       </c>
       <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
+      <c r="H159" s="18"/>
       <c r="I159" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4476,7 +4563,7 @@
         <v>#N/A</v>
       </c>
       <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
+      <c r="H160" s="18"/>
       <c r="I160" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4500,7 +4587,7 @@
         <v>#N/A</v>
       </c>
       <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
+      <c r="H161" s="18"/>
       <c r="I161" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4524,7 +4611,7 @@
         <v>#N/A</v>
       </c>
       <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
+      <c r="H162" s="18"/>
       <c r="I162" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4548,7 +4635,7 @@
         <v>#N/A</v>
       </c>
       <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
+      <c r="H163" s="18"/>
       <c r="I163" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4572,7 +4659,7 @@
         <v>#N/A</v>
       </c>
       <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
+      <c r="H164" s="18"/>
       <c r="I164" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4596,7 +4683,7 @@
         <v>#N/A</v>
       </c>
       <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
+      <c r="H165" s="18"/>
       <c r="I165" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4620,7 +4707,7 @@
         <v>#N/A</v>
       </c>
       <c r="G166" s="10"/>
-      <c r="H166" s="10"/>
+      <c r="H166" s="18"/>
       <c r="I166" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4644,7 +4731,7 @@
         <v>#N/A</v>
       </c>
       <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
+      <c r="H167" s="18"/>
       <c r="I167" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4668,7 +4755,7 @@
         <v>#N/A</v>
       </c>
       <c r="G168" s="10"/>
-      <c r="H168" s="10"/>
+      <c r="H168" s="18"/>
       <c r="I168" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4692,7 +4779,7 @@
         <v>#N/A</v>
       </c>
       <c r="G169" s="10"/>
-      <c r="H169" s="10"/>
+      <c r="H169" s="18"/>
       <c r="I169" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4716,7 +4803,7 @@
         <v>#N/A</v>
       </c>
       <c r="G170" s="10"/>
-      <c r="H170" s="10"/>
+      <c r="H170" s="18"/>
       <c r="I170" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4740,7 +4827,7 @@
         <v>#N/A</v>
       </c>
       <c r="G171" s="10"/>
-      <c r="H171" s="10"/>
+      <c r="H171" s="18"/>
       <c r="I171" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4764,7 +4851,7 @@
         <v>#N/A</v>
       </c>
       <c r="G172" s="10"/>
-      <c r="H172" s="10"/>
+      <c r="H172" s="18"/>
       <c r="I172" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4788,7 +4875,7 @@
         <v>#N/A</v>
       </c>
       <c r="G173" s="10"/>
-      <c r="H173" s="10"/>
+      <c r="H173" s="18"/>
       <c r="I173" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4812,7 +4899,7 @@
         <v>#N/A</v>
       </c>
       <c r="G174" s="10"/>
-      <c r="H174" s="10"/>
+      <c r="H174" s="18"/>
       <c r="I174" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4836,7 +4923,7 @@
         <v>#N/A</v>
       </c>
       <c r="G175" s="10"/>
-      <c r="H175" s="10"/>
+      <c r="H175" s="18"/>
       <c r="I175" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4860,7 +4947,7 @@
         <v>#N/A</v>
       </c>
       <c r="G176" s="10"/>
-      <c r="H176" s="10"/>
+      <c r="H176" s="18"/>
       <c r="I176" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4884,7 +4971,7 @@
         <v>#N/A</v>
       </c>
       <c r="G177" s="10"/>
-      <c r="H177" s="10"/>
+      <c r="H177" s="18"/>
       <c r="I177" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4908,7 +4995,7 @@
         <v>#N/A</v>
       </c>
       <c r="G178" s="10"/>
-      <c r="H178" s="10"/>
+      <c r="H178" s="18"/>
       <c r="I178" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4932,7 +5019,7 @@
         <v>#N/A</v>
       </c>
       <c r="G179" s="10"/>
-      <c r="H179" s="10"/>
+      <c r="H179" s="18"/>
       <c r="I179" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4956,7 +5043,7 @@
         <v>#N/A</v>
       </c>
       <c r="G180" s="10"/>
-      <c r="H180" s="10"/>
+      <c r="H180" s="18"/>
       <c r="I180" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4980,7 +5067,7 @@
         <v>#N/A</v>
       </c>
       <c r="G181" s="10"/>
-      <c r="H181" s="10"/>
+      <c r="H181" s="18"/>
       <c r="I181" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5004,7 +5091,7 @@
         <v>#N/A</v>
       </c>
       <c r="G182" s="10"/>
-      <c r="H182" s="10"/>
+      <c r="H182" s="18"/>
       <c r="I182" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5028,7 +5115,7 @@
         <v>#N/A</v>
       </c>
       <c r="G183" s="10"/>
-      <c r="H183" s="10"/>
+      <c r="H183" s="18"/>
       <c r="I183" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5052,7 +5139,7 @@
         <v>#N/A</v>
       </c>
       <c r="G184" s="10"/>
-      <c r="H184" s="10"/>
+      <c r="H184" s="18"/>
       <c r="I184" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5076,7 +5163,7 @@
         <v>#N/A</v>
       </c>
       <c r="G185" s="10"/>
-      <c r="H185" s="10"/>
+      <c r="H185" s="18"/>
       <c r="I185" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5100,7 +5187,7 @@
         <v>#N/A</v>
       </c>
       <c r="G186" s="10"/>
-      <c r="H186" s="10"/>
+      <c r="H186" s="18"/>
       <c r="I186" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5124,7 +5211,7 @@
         <v>#N/A</v>
       </c>
       <c r="G187" s="10"/>
-      <c r="H187" s="10"/>
+      <c r="H187" s="18"/>
       <c r="I187" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5148,7 +5235,7 @@
         <v>#N/A</v>
       </c>
       <c r="G188" s="10"/>
-      <c r="H188" s="10"/>
+      <c r="H188" s="18"/>
       <c r="I188" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5172,7 +5259,7 @@
         <v>#N/A</v>
       </c>
       <c r="G189" s="10"/>
-      <c r="H189" s="10"/>
+      <c r="H189" s="18"/>
       <c r="I189" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5196,7 +5283,7 @@
         <v>#N/A</v>
       </c>
       <c r="G190" s="10"/>
-      <c r="H190" s="10"/>
+      <c r="H190" s="18"/>
       <c r="I190" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5220,7 +5307,7 @@
         <v>#N/A</v>
       </c>
       <c r="G191" s="10"/>
-      <c r="H191" s="10"/>
+      <c r="H191" s="18"/>
       <c r="I191" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5244,7 +5331,7 @@
         <v>#N/A</v>
       </c>
       <c r="G192" s="10"/>
-      <c r="H192" s="10"/>
+      <c r="H192" s="18"/>
       <c r="I192" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5268,7 +5355,7 @@
         <v>#N/A</v>
       </c>
       <c r="G193" s="10"/>
-      <c r="H193" s="10"/>
+      <c r="H193" s="18"/>
       <c r="I193" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5292,7 +5379,7 @@
         <v>#N/A</v>
       </c>
       <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
+      <c r="H194" s="18"/>
       <c r="I194" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5316,7 +5403,7 @@
         <v>#N/A</v>
       </c>
       <c r="G195" s="10"/>
-      <c r="H195" s="10"/>
+      <c r="H195" s="18"/>
       <c r="I195" s="10" t="e">
         <f t="shared" ref="I195:I258" si="15">VLOOKUP(J195,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -5340,7 +5427,7 @@
         <v>#N/A</v>
       </c>
       <c r="G196" s="10"/>
-      <c r="H196" s="10"/>
+      <c r="H196" s="18"/>
       <c r="I196" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5364,7 +5451,7 @@
         <v>#N/A</v>
       </c>
       <c r="G197" s="10"/>
-      <c r="H197" s="10"/>
+      <c r="H197" s="18"/>
       <c r="I197" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5388,7 +5475,7 @@
         <v>#N/A</v>
       </c>
       <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
+      <c r="H198" s="18"/>
       <c r="I198" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5412,7 +5499,7 @@
         <v>#N/A</v>
       </c>
       <c r="G199" s="10"/>
-      <c r="H199" s="10"/>
+      <c r="H199" s="18"/>
       <c r="I199" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5436,7 +5523,7 @@
         <v>#N/A</v>
       </c>
       <c r="G200" s="10"/>
-      <c r="H200" s="10"/>
+      <c r="H200" s="18"/>
       <c r="I200" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5460,7 +5547,7 @@
         <v>#N/A</v>
       </c>
       <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
+      <c r="H201" s="18"/>
       <c r="I201" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5484,7 +5571,7 @@
         <v>#N/A</v>
       </c>
       <c r="G202" s="10"/>
-      <c r="H202" s="10"/>
+      <c r="H202" s="18"/>
       <c r="I202" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5508,7 +5595,7 @@
         <v>#N/A</v>
       </c>
       <c r="G203" s="10"/>
-      <c r="H203" s="10"/>
+      <c r="H203" s="18"/>
       <c r="I203" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5532,7 +5619,7 @@
         <v>#N/A</v>
       </c>
       <c r="G204" s="10"/>
-      <c r="H204" s="10"/>
+      <c r="H204" s="18"/>
       <c r="I204" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5556,7 +5643,7 @@
         <v>#N/A</v>
       </c>
       <c r="G205" s="10"/>
-      <c r="H205" s="10"/>
+      <c r="H205" s="18"/>
       <c r="I205" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5580,7 +5667,7 @@
         <v>#N/A</v>
       </c>
       <c r="G206" s="10"/>
-      <c r="H206" s="10"/>
+      <c r="H206" s="18"/>
       <c r="I206" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5604,7 +5691,7 @@
         <v>#N/A</v>
       </c>
       <c r="G207" s="10"/>
-      <c r="H207" s="10"/>
+      <c r="H207" s="18"/>
       <c r="I207" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5628,7 +5715,7 @@
         <v>#N/A</v>
       </c>
       <c r="G208" s="10"/>
-      <c r="H208" s="10"/>
+      <c r="H208" s="18"/>
       <c r="I208" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5652,7 +5739,7 @@
         <v>#N/A</v>
       </c>
       <c r="G209" s="10"/>
-      <c r="H209" s="10"/>
+      <c r="H209" s="18"/>
       <c r="I209" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5676,7 +5763,7 @@
         <v>#N/A</v>
       </c>
       <c r="G210" s="10"/>
-      <c r="H210" s="10"/>
+      <c r="H210" s="18"/>
       <c r="I210" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5700,7 +5787,7 @@
         <v>#N/A</v>
       </c>
       <c r="G211" s="10"/>
-      <c r="H211" s="10"/>
+      <c r="H211" s="18"/>
       <c r="I211" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5724,7 +5811,7 @@
         <v>#N/A</v>
       </c>
       <c r="G212" s="10"/>
-      <c r="H212" s="10"/>
+      <c r="H212" s="18"/>
       <c r="I212" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5748,7 +5835,7 @@
         <v>#N/A</v>
       </c>
       <c r="G213" s="10"/>
-      <c r="H213" s="10"/>
+      <c r="H213" s="18"/>
       <c r="I213" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5772,7 +5859,7 @@
         <v>#N/A</v>
       </c>
       <c r="G214" s="10"/>
-      <c r="H214" s="10"/>
+      <c r="H214" s="18"/>
       <c r="I214" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5796,7 +5883,7 @@
         <v>#N/A</v>
       </c>
       <c r="G215" s="10"/>
-      <c r="H215" s="10"/>
+      <c r="H215" s="18"/>
       <c r="I215" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5820,7 +5907,7 @@
         <v>#N/A</v>
       </c>
       <c r="G216" s="10"/>
-      <c r="H216" s="10"/>
+      <c r="H216" s="18"/>
       <c r="I216" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5844,7 +5931,7 @@
         <v>#N/A</v>
       </c>
       <c r="G217" s="10"/>
-      <c r="H217" s="10"/>
+      <c r="H217" s="18"/>
       <c r="I217" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5868,7 +5955,7 @@
         <v>#N/A</v>
       </c>
       <c r="G218" s="10"/>
-      <c r="H218" s="10"/>
+      <c r="H218" s="18"/>
       <c r="I218" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5892,7 +5979,7 @@
         <v>#N/A</v>
       </c>
       <c r="G219" s="10"/>
-      <c r="H219" s="10"/>
+      <c r="H219" s="18"/>
       <c r="I219" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5916,7 +6003,7 @@
         <v>#N/A</v>
       </c>
       <c r="G220" s="10"/>
-      <c r="H220" s="10"/>
+      <c r="H220" s="18"/>
       <c r="I220" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5940,7 +6027,7 @@
         <v>#N/A</v>
       </c>
       <c r="G221" s="10"/>
-      <c r="H221" s="10"/>
+      <c r="H221" s="18"/>
       <c r="I221" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5964,7 +6051,7 @@
         <v>#N/A</v>
       </c>
       <c r="G222" s="10"/>
-      <c r="H222" s="10"/>
+      <c r="H222" s="18"/>
       <c r="I222" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5988,7 +6075,7 @@
         <v>#N/A</v>
       </c>
       <c r="G223" s="10"/>
-      <c r="H223" s="10"/>
+      <c r="H223" s="18"/>
       <c r="I223" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6012,7 +6099,7 @@
         <v>#N/A</v>
       </c>
       <c r="G224" s="10"/>
-      <c r="H224" s="10"/>
+      <c r="H224" s="18"/>
       <c r="I224" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6036,7 +6123,7 @@
         <v>#N/A</v>
       </c>
       <c r="G225" s="10"/>
-      <c r="H225" s="10"/>
+      <c r="H225" s="18"/>
       <c r="I225" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6060,7 +6147,7 @@
         <v>#N/A</v>
       </c>
       <c r="G226" s="10"/>
-      <c r="H226" s="10"/>
+      <c r="H226" s="18"/>
       <c r="I226" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6084,7 +6171,7 @@
         <v>#N/A</v>
       </c>
       <c r="G227" s="10"/>
-      <c r="H227" s="10"/>
+      <c r="H227" s="18"/>
       <c r="I227" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6108,7 +6195,7 @@
         <v>#N/A</v>
       </c>
       <c r="G228" s="10"/>
-      <c r="H228" s="10"/>
+      <c r="H228" s="18"/>
       <c r="I228" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6132,7 +6219,7 @@
         <v>#N/A</v>
       </c>
       <c r="G229" s="10"/>
-      <c r="H229" s="10"/>
+      <c r="H229" s="18"/>
       <c r="I229" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6156,7 +6243,7 @@
         <v>#N/A</v>
       </c>
       <c r="G230" s="10"/>
-      <c r="H230" s="10"/>
+      <c r="H230" s="18"/>
       <c r="I230" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6180,7 +6267,7 @@
         <v>#N/A</v>
       </c>
       <c r="G231" s="10"/>
-      <c r="H231" s="10"/>
+      <c r="H231" s="18"/>
       <c r="I231" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6204,7 +6291,7 @@
         <v>#N/A</v>
       </c>
       <c r="G232" s="10"/>
-      <c r="H232" s="10"/>
+      <c r="H232" s="18"/>
       <c r="I232" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6228,7 +6315,7 @@
         <v>#N/A</v>
       </c>
       <c r="G233" s="10"/>
-      <c r="H233" s="10"/>
+      <c r="H233" s="18"/>
       <c r="I233" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6252,7 +6339,7 @@
         <v>#N/A</v>
       </c>
       <c r="G234" s="10"/>
-      <c r="H234" s="10"/>
+      <c r="H234" s="18"/>
       <c r="I234" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6276,7 +6363,7 @@
         <v>#N/A</v>
       </c>
       <c r="G235" s="10"/>
-      <c r="H235" s="10"/>
+      <c r="H235" s="18"/>
       <c r="I235" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6300,7 +6387,7 @@
         <v>#N/A</v>
       </c>
       <c r="G236" s="10"/>
-      <c r="H236" s="10"/>
+      <c r="H236" s="18"/>
       <c r="I236" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6324,7 +6411,7 @@
         <v>#N/A</v>
       </c>
       <c r="G237" s="10"/>
-      <c r="H237" s="10"/>
+      <c r="H237" s="18"/>
       <c r="I237" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6348,7 +6435,7 @@
         <v>#N/A</v>
       </c>
       <c r="G238" s="10"/>
-      <c r="H238" s="10"/>
+      <c r="H238" s="18"/>
       <c r="I238" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6372,7 +6459,7 @@
         <v>#N/A</v>
       </c>
       <c r="G239" s="10"/>
-      <c r="H239" s="10"/>
+      <c r="H239" s="18"/>
       <c r="I239" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6396,7 +6483,7 @@
         <v>#N/A</v>
       </c>
       <c r="G240" s="10"/>
-      <c r="H240" s="10"/>
+      <c r="H240" s="18"/>
       <c r="I240" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6420,7 +6507,7 @@
         <v>#N/A</v>
       </c>
       <c r="G241" s="10"/>
-      <c r="H241" s="10"/>
+      <c r="H241" s="18"/>
       <c r="I241" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6444,7 +6531,7 @@
         <v>#N/A</v>
       </c>
       <c r="G242" s="10"/>
-      <c r="H242" s="10"/>
+      <c r="H242" s="18"/>
       <c r="I242" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6468,7 +6555,7 @@
         <v>#N/A</v>
       </c>
       <c r="G243" s="10"/>
-      <c r="H243" s="10"/>
+      <c r="H243" s="18"/>
       <c r="I243" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6492,7 +6579,7 @@
         <v>#N/A</v>
       </c>
       <c r="G244" s="10"/>
-      <c r="H244" s="10"/>
+      <c r="H244" s="18"/>
       <c r="I244" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6516,7 +6603,7 @@
         <v>#N/A</v>
       </c>
       <c r="G245" s="10"/>
-      <c r="H245" s="10"/>
+      <c r="H245" s="18"/>
       <c r="I245" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6540,7 +6627,7 @@
         <v>#N/A</v>
       </c>
       <c r="G246" s="10"/>
-      <c r="H246" s="10"/>
+      <c r="H246" s="18"/>
       <c r="I246" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6564,7 +6651,7 @@
         <v>#N/A</v>
       </c>
       <c r="G247" s="10"/>
-      <c r="H247" s="10"/>
+      <c r="H247" s="18"/>
       <c r="I247" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6588,7 +6675,7 @@
         <v>#N/A</v>
       </c>
       <c r="G248" s="10"/>
-      <c r="H248" s="10"/>
+      <c r="H248" s="18"/>
       <c r="I248" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6612,7 +6699,7 @@
         <v>#N/A</v>
       </c>
       <c r="G249" s="10"/>
-      <c r="H249" s="10"/>
+      <c r="H249" s="18"/>
       <c r="I249" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6636,7 +6723,7 @@
         <v>#N/A</v>
       </c>
       <c r="G250" s="10"/>
-      <c r="H250" s="10"/>
+      <c r="H250" s="18"/>
       <c r="I250" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6660,7 +6747,7 @@
         <v>#N/A</v>
       </c>
       <c r="G251" s="10"/>
-      <c r="H251" s="10"/>
+      <c r="H251" s="18"/>
       <c r="I251" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6684,7 +6771,7 @@
         <v>#N/A</v>
       </c>
       <c r="G252" s="10"/>
-      <c r="H252" s="10"/>
+      <c r="H252" s="18"/>
       <c r="I252" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6708,7 +6795,7 @@
         <v>#N/A</v>
       </c>
       <c r="G253" s="10"/>
-      <c r="H253" s="10"/>
+      <c r="H253" s="18"/>
       <c r="I253" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6732,7 +6819,7 @@
         <v>#N/A</v>
       </c>
       <c r="G254" s="10"/>
-      <c r="H254" s="10"/>
+      <c r="H254" s="18"/>
       <c r="I254" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6756,7 +6843,7 @@
         <v>#N/A</v>
       </c>
       <c r="G255" s="10"/>
-      <c r="H255" s="10"/>
+      <c r="H255" s="18"/>
       <c r="I255" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6780,7 +6867,7 @@
         <v>#N/A</v>
       </c>
       <c r="G256" s="10"/>
-      <c r="H256" s="10"/>
+      <c r="H256" s="18"/>
       <c r="I256" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6804,7 +6891,7 @@
         <v>#N/A</v>
       </c>
       <c r="G257" s="10"/>
-      <c r="H257" s="10"/>
+      <c r="H257" s="18"/>
       <c r="I257" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6828,7 +6915,7 @@
         <v>#N/A</v>
       </c>
       <c r="G258" s="10"/>
-      <c r="H258" s="10"/>
+      <c r="H258" s="18"/>
       <c r="I258" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6852,7 +6939,7 @@
         <v>#N/A</v>
       </c>
       <c r="G259" s="10"/>
-      <c r="H259" s="10"/>
+      <c r="H259" s="18"/>
       <c r="I259" s="10" t="e">
         <f t="shared" ref="I259:I310" si="19">VLOOKUP(J259,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -6876,7 +6963,7 @@
         <v>#N/A</v>
       </c>
       <c r="G260" s="10"/>
-      <c r="H260" s="10"/>
+      <c r="H260" s="18"/>
       <c r="I260" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -6900,7 +6987,7 @@
         <v>#N/A</v>
       </c>
       <c r="G261" s="10"/>
-      <c r="H261" s="10"/>
+      <c r="H261" s="18"/>
       <c r="I261" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -6924,7 +7011,7 @@
         <v>#N/A</v>
       </c>
       <c r="G262" s="10"/>
-      <c r="H262" s="10"/>
+      <c r="H262" s="18"/>
       <c r="I262" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -6948,7 +7035,7 @@
         <v>#N/A</v>
       </c>
       <c r="G263" s="10"/>
-      <c r="H263" s="10"/>
+      <c r="H263" s="18"/>
       <c r="I263" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -6972,7 +7059,7 @@
         <v>#N/A</v>
       </c>
       <c r="G264" s="10"/>
-      <c r="H264" s="10"/>
+      <c r="H264" s="18"/>
       <c r="I264" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -6996,7 +7083,7 @@
         <v>#N/A</v>
       </c>
       <c r="G265" s="10"/>
-      <c r="H265" s="10"/>
+      <c r="H265" s="18"/>
       <c r="I265" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7020,7 +7107,7 @@
         <v>#N/A</v>
       </c>
       <c r="G266" s="10"/>
-      <c r="H266" s="10"/>
+      <c r="H266" s="18"/>
       <c r="I266" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7044,7 +7131,7 @@
         <v>#N/A</v>
       </c>
       <c r="G267" s="10"/>
-      <c r="H267" s="10"/>
+      <c r="H267" s="18"/>
       <c r="I267" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7068,7 +7155,7 @@
         <v>#N/A</v>
       </c>
       <c r="G268" s="10"/>
-      <c r="H268" s="10"/>
+      <c r="H268" s="18"/>
       <c r="I268" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7092,7 +7179,7 @@
         <v>#N/A</v>
       </c>
       <c r="G269" s="10"/>
-      <c r="H269" s="10"/>
+      <c r="H269" s="18"/>
       <c r="I269" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7116,7 +7203,7 @@
         <v>#N/A</v>
       </c>
       <c r="G270" s="10"/>
-      <c r="H270" s="10"/>
+      <c r="H270" s="18"/>
       <c r="I270" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7140,7 +7227,7 @@
         <v>#N/A</v>
       </c>
       <c r="G271" s="10"/>
-      <c r="H271" s="10"/>
+      <c r="H271" s="18"/>
       <c r="I271" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7164,7 +7251,7 @@
         <v>#N/A</v>
       </c>
       <c r="G272" s="10"/>
-      <c r="H272" s="10"/>
+      <c r="H272" s="18"/>
       <c r="I272" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7188,7 +7275,7 @@
         <v>#N/A</v>
       </c>
       <c r="G273" s="10"/>
-      <c r="H273" s="10"/>
+      <c r="H273" s="18"/>
       <c r="I273" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7212,7 +7299,7 @@
         <v>#N/A</v>
       </c>
       <c r="G274" s="10"/>
-      <c r="H274" s="10"/>
+      <c r="H274" s="18"/>
       <c r="I274" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7236,7 +7323,7 @@
         <v>#N/A</v>
       </c>
       <c r="G275" s="10"/>
-      <c r="H275" s="10"/>
+      <c r="H275" s="18"/>
       <c r="I275" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7260,7 +7347,7 @@
         <v>#N/A</v>
       </c>
       <c r="G276" s="10"/>
-      <c r="H276" s="10"/>
+      <c r="H276" s="18"/>
       <c r="I276" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7284,7 +7371,7 @@
         <v>#N/A</v>
       </c>
       <c r="G277" s="10"/>
-      <c r="H277" s="10"/>
+      <c r="H277" s="18"/>
       <c r="I277" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7308,7 +7395,7 @@
         <v>#N/A</v>
       </c>
       <c r="G278" s="10"/>
-      <c r="H278" s="10"/>
+      <c r="H278" s="18"/>
       <c r="I278" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7332,7 +7419,7 @@
         <v>#N/A</v>
       </c>
       <c r="G279" s="10"/>
-      <c r="H279" s="10"/>
+      <c r="H279" s="18"/>
       <c r="I279" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7356,7 +7443,7 @@
         <v>#N/A</v>
       </c>
       <c r="G280" s="10"/>
-      <c r="H280" s="10"/>
+      <c r="H280" s="18"/>
       <c r="I280" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7380,7 +7467,7 @@
         <v>#N/A</v>
       </c>
       <c r="G281" s="10"/>
-      <c r="H281" s="10"/>
+      <c r="H281" s="18"/>
       <c r="I281" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7404,7 +7491,7 @@
         <v>#N/A</v>
       </c>
       <c r="G282" s="10"/>
-      <c r="H282" s="10"/>
+      <c r="H282" s="18"/>
       <c r="I282" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7428,7 +7515,7 @@
         <v>#N/A</v>
       </c>
       <c r="G283" s="10"/>
-      <c r="H283" s="10"/>
+      <c r="H283" s="18"/>
       <c r="I283" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7452,7 +7539,7 @@
         <v>#N/A</v>
       </c>
       <c r="G284" s="10"/>
-      <c r="H284" s="10"/>
+      <c r="H284" s="18"/>
       <c r="I284" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7476,7 +7563,7 @@
         <v>#N/A</v>
       </c>
       <c r="G285" s="10"/>
-      <c r="H285" s="10"/>
+      <c r="H285" s="18"/>
       <c r="I285" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7500,7 +7587,7 @@
         <v>#N/A</v>
       </c>
       <c r="G286" s="10"/>
-      <c r="H286" s="10"/>
+      <c r="H286" s="18"/>
       <c r="I286" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7524,7 +7611,7 @@
         <v>#N/A</v>
       </c>
       <c r="G287" s="10"/>
-      <c r="H287" s="10"/>
+      <c r="H287" s="18"/>
       <c r="I287" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7548,7 +7635,7 @@
         <v>#N/A</v>
       </c>
       <c r="G288" s="10"/>
-      <c r="H288" s="10"/>
+      <c r="H288" s="18"/>
       <c r="I288" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7572,7 +7659,7 @@
         <v>#N/A</v>
       </c>
       <c r="G289" s="10"/>
-      <c r="H289" s="10"/>
+      <c r="H289" s="18"/>
       <c r="I289" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7596,7 +7683,7 @@
         <v>#N/A</v>
       </c>
       <c r="G290" s="10"/>
-      <c r="H290" s="10"/>
+      <c r="H290" s="18"/>
       <c r="I290" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7620,7 +7707,7 @@
         <v>#N/A</v>
       </c>
       <c r="G291" s="10"/>
-      <c r="H291" s="10"/>
+      <c r="H291" s="18"/>
       <c r="I291" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7644,7 +7731,7 @@
         <v>#N/A</v>
       </c>
       <c r="G292" s="10"/>
-      <c r="H292" s="10"/>
+      <c r="H292" s="18"/>
       <c r="I292" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7668,7 +7755,7 @@
         <v>#N/A</v>
       </c>
       <c r="G293" s="10"/>
-      <c r="H293" s="10"/>
+      <c r="H293" s="18"/>
       <c r="I293" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7692,7 +7779,7 @@
         <v>#N/A</v>
       </c>
       <c r="G294" s="10"/>
-      <c r="H294" s="10"/>
+      <c r="H294" s="18"/>
       <c r="I294" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7716,7 +7803,7 @@
         <v>#N/A</v>
       </c>
       <c r="G295" s="10"/>
-      <c r="H295" s="10"/>
+      <c r="H295" s="18"/>
       <c r="I295" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7740,7 +7827,7 @@
         <v>#N/A</v>
       </c>
       <c r="G296" s="10"/>
-      <c r="H296" s="10"/>
+      <c r="H296" s="18"/>
       <c r="I296" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7764,7 +7851,7 @@
         <v>#N/A</v>
       </c>
       <c r="G297" s="10"/>
-      <c r="H297" s="10"/>
+      <c r="H297" s="18"/>
       <c r="I297" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7788,7 +7875,7 @@
         <v>#N/A</v>
       </c>
       <c r="G298" s="10"/>
-      <c r="H298" s="10"/>
+      <c r="H298" s="18"/>
       <c r="I298" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7812,7 +7899,7 @@
         <v>#N/A</v>
       </c>
       <c r="G299" s="10"/>
-      <c r="H299" s="10"/>
+      <c r="H299" s="18"/>
       <c r="I299" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7836,7 +7923,7 @@
         <v>#N/A</v>
       </c>
       <c r="G300" s="10"/>
-      <c r="H300" s="10"/>
+      <c r="H300" s="18"/>
       <c r="I300" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7860,7 +7947,7 @@
         <v>#N/A</v>
       </c>
       <c r="G301" s="10"/>
-      <c r="H301" s="10"/>
+      <c r="H301" s="18"/>
       <c r="I301" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7884,7 +7971,7 @@
         <v>#N/A</v>
       </c>
       <c r="G302" s="10"/>
-      <c r="H302" s="10"/>
+      <c r="H302" s="18"/>
       <c r="I302" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7908,7 +7995,7 @@
         <v>#N/A</v>
       </c>
       <c r="G303" s="10"/>
-      <c r="H303" s="10"/>
+      <c r="H303" s="18"/>
       <c r="I303" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7932,7 +8019,7 @@
         <v>#N/A</v>
       </c>
       <c r="G304" s="10"/>
-      <c r="H304" s="10"/>
+      <c r="H304" s="18"/>
       <c r="I304" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7956,7 +8043,7 @@
         <v>#N/A</v>
       </c>
       <c r="G305" s="10"/>
-      <c r="H305" s="10"/>
+      <c r="H305" s="18"/>
       <c r="I305" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7980,7 +8067,7 @@
         <v>#N/A</v>
       </c>
       <c r="G306" s="10"/>
-      <c r="H306" s="10"/>
+      <c r="H306" s="18"/>
       <c r="I306" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8004,7 +8091,7 @@
         <v>#N/A</v>
       </c>
       <c r="G307" s="10"/>
-      <c r="H307" s="10"/>
+      <c r="H307" s="18"/>
       <c r="I307" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8028,7 +8115,7 @@
         <v>#N/A</v>
       </c>
       <c r="G308" s="10"/>
-      <c r="H308" s="10"/>
+      <c r="H308" s="18"/>
       <c r="I308" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8052,7 +8139,7 @@
         <v>#N/A</v>
       </c>
       <c r="G309" s="10"/>
-      <c r="H309" s="10"/>
+      <c r="H309" s="18"/>
       <c r="I309" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8076,15 +8163,18 @@
         <v>#N/A</v>
       </c>
       <c r="G310" s="10"/>
-      <c r="H310" s="10"/>
+      <c r="H310" s="18"/>
       <c r="I310" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="J310" s="10"/>
     </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H311" s="18"/>
+    </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UloyharNfcBD3rCtC/DN+TO7y5ILq3AhnJnwvw5AGBkjYiORyf+I/k2L94aIfowRcWUsK+dTrbMmPUt5fIzyqQ==" saltValue="1wNomI38G/laPcH917GnhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A310" xr:uid="{ECE28117-C8FA-4388-B6C8-4DC009C7D8F9}">
       <formula1>Lista_Anno</formula1>
@@ -8101,11 +8191,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J310" xr:uid="{AC70920E-0E36-4EBF-8B0F-FBF435C41EAD}">
       <formula1>Lista_Mes</formula1>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{F90B27F8-5E72-4979-BAC3-E56B33C04772}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25 H27 H29 H31 H33 H35 H37 H39 H41 H43 H45 H47 H49 H51 H53 H55 H57 H59 H61 H63 H65 H67 H69 H71 H73 H75 H77 H79 H81 H83 H85 H87 H89 H91 H93 H95 H97 H99 H101 H103 H105 H107 H109 H111 H113 H115 H117 H119 H121 H123 H125 H127 H129 H131 H133 H135 H137 H139 H141 H143 H145 H147 H149 H151 H153 H155 H157 H159 H161 H163 H165 H167 H169 H171 H173 H175 H177 H179 H181 H183 H185 H187 H189 H191 H193 H195 H197 H199 H201 H203 H205 H207 H209 H211 H213 H215 H217 H219 H221 H223 H225 H227 H229 H231 H233 H235 H237 H239 H241 H243 H245 H247 H249 H251 H253 H255 H257 H259 H261 H263 H265 H267 H269 H271 H273 H275 H277 H279 H281 H283 H285 H287 H289 H291 H293 H295 H297 H299 H301 H303 H305 H307 H309 H311" xr:uid="{F90B27F8-5E72-4979-BAC3-E56B33C04772}">
       <formula1>0</formula1>
       <formula2>9999999999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{A8137F3D-1000-4328-89E7-8E1A6FDA1DF9}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26 H28 H30 H32 H34 H36 H38 H40 H42 H44 H46 H48 H50 H52 H54 H56 H58 H60 H62 H64 H66 H68 H70 H72 H74 H76 H78 H80 H82 H84 H86 H88 H90 H92 H94 H96 H98 H100 H102 H104 H106 H108 H110 H112 H114 H116 H118 H120 H122 H124 H126 H128 H130 H132 H134 H136 H138 H140 H142 H144 H146 H148 H150 H152 H154 H156 H158 H160 H162 H164 H166 H168 H170 H172 H174 H176 H178 H180 H182 H184 H186 H188 H190 H192 H194 H196 H198 H200 H202 H204 H206 H208 H210 H212 H214 H216 H218 H220 H222 H224 H226 H228 H230 H232 H234 H236 H238 H240 H242 H244 H246 H248 H250 H252 H254 H256 H258 H260 H262 H264 H266 H268 H270 H272 H274 H276 H278 H280 H282 H284 H286 H288 H290 H292 H294 H296 H298 H300 H302 H304 H306 H308 H310" xr:uid="{A8137F3D-1000-4328-89E7-8E1A6FDA1DF9}">
       <formula1>0</formula1>
       <formula2>999999999999</formula2>
     </dataValidation>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Archivos Compu DELL\UTILIDADES DESCARGA\Para MASIVOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Nuevas  Plantillas con alfonso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C568D55-EE53-40F2-8C8D-4E42A34FB2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286EA8FC-AF9D-481D-88A1-05F4F110F989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -42,8 +42,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dell</author>
+  </authors>
+  <commentList>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{B2FA7182-A5C5-44D1-8ACD-33F9E396FF7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Año</t>
   </si>
@@ -132,35 +156,35 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>Año al que corresponde el registro</t>
-  </si>
-  <si>
-    <t>Etiquetado (A, B, C, etc.) antes de la implementación</t>
-  </si>
-  <si>
-    <t>Etiquetado (A, B, C, etc.) posterior a la implementación</t>
-  </si>
-  <si>
-    <t>Numero de unidades de este tipo o clase</t>
-  </si>
-  <si>
-    <t>Mes en que se compro el artefecto</t>
-  </si>
-  <si>
     <t xml:space="preserve">Capacidad Calentador </t>
   </si>
   <si>
-    <t>Capacidad calentador (L)</t>
+    <t>Año en que se compró el equipo. Seleccione de la  lista desplegable</t>
   </si>
   <si>
-    <t>Capacidad del calentador</t>
+    <t>Capacidad (L)</t>
+  </si>
+  <si>
+    <t>Etiqueta del equipo anterior o reemplazado. Seleccione de lista desplegable</t>
+  </si>
+  <si>
+    <t>Etiqueta del equipo nuevo. Seleccione de lista desplegable</t>
+  </si>
+  <si>
+    <t>Número de unidades de este equipo. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Mes en que se compro el artefecto. Seleccione el desplegable</t>
+  </si>
+  <si>
+    <t>Capacidad del calentador de agua eléctrico. Seleccione de la lista desplegable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +213,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -322,11 +359,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,18 +690,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
   <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" hidden="1" customWidth="1"/>
@@ -670,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -696,7 +745,7 @@
     </row>
     <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="11" t="s">
@@ -704,199 +753,151 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="18">
         <v>2014</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="18">
         <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_Capacidad,2,)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="18">
         <v>50</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="18">
         <f t="shared" ref="D3:D66" si="1">VLOOKUP(E3,Tabla_BAU,2,)</f>
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="18">
         <f t="shared" ref="F3:F66" si="2">VLOOKUP(G3,Tabla_Iniciativa,2,)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="20">
         <v>7000</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="21">
         <f t="shared" ref="I3:I66" si="3">VLOOKUP(J3,Tabla_Mes,2,)</f>
         <v>6</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="12">
-        <v>150</v>
-      </c>
-      <c r="D4" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="e">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="12">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="13">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="16">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="16" t="e">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>21</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
-        <v>150</v>
-      </c>
-      <c r="D5" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="18">
-        <v>58493</v>
-      </c>
-      <c r="I5" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="10" t="e">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="10">
-        <v>50</v>
-      </c>
-      <c r="D6" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="18">
-        <v>30000</v>
-      </c>
-      <c r="I6" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="10" t="e">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>21</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="18">
-        <v>40000</v>
-      </c>
-      <c r="I7" s="10">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="10" t="e">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>22</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -915,7 +916,7 @@
         <v>#N/A</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="18"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -939,7 +940,7 @@
         <v>#N/A</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="18"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -963,7 +964,7 @@
         <v>#N/A</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="18"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -987,7 +988,7 @@
         <v>#N/A</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1011,7 +1012,7 @@
         <v>#N/A</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="18"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1035,7 +1036,7 @@
         <v>#N/A</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="18"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1059,7 +1060,7 @@
         <v>#N/A</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1083,7 +1084,7 @@
         <v>#N/A</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1107,7 +1108,7 @@
         <v>#N/A</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="18"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1131,7 +1132,7 @@
         <v>#N/A</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1155,7 +1156,7 @@
         <v>#N/A</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1179,7 +1180,7 @@
         <v>#N/A</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1203,7 +1204,7 @@
         <v>#N/A</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1227,7 +1228,7 @@
         <v>#N/A</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1251,7 +1252,7 @@
         <v>#N/A</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1275,7 +1276,7 @@
         <v>#N/A</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="18"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1299,7 +1300,7 @@
         <v>#N/A</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="18"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1323,7 +1324,7 @@
         <v>#N/A</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="18"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1347,7 +1348,7 @@
         <v>#N/A</v>
       </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="18"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1371,7 +1372,7 @@
         <v>#N/A</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="18"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1395,7 +1396,7 @@
         <v>#N/A</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="18"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1419,7 +1420,7 @@
         <v>#N/A</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="18"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1443,7 +1444,7 @@
         <v>#N/A</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="18"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1467,7 +1468,7 @@
         <v>#N/A</v>
       </c>
       <c r="G31" s="10"/>
-      <c r="H31" s="18"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1491,7 +1492,7 @@
         <v>#N/A</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="H32" s="18"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1515,7 +1516,7 @@
         <v>#N/A</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="18"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1539,7 +1540,7 @@
         <v>#N/A</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="18"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1563,7 +1564,7 @@
         <v>#N/A</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="18"/>
+      <c r="H35" s="17"/>
       <c r="I35" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1587,7 +1588,7 @@
         <v>#N/A</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="18"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1611,7 +1612,7 @@
         <v>#N/A</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="18"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1635,7 +1636,7 @@
         <v>#N/A</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="18"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1659,7 +1660,7 @@
         <v>#N/A</v>
       </c>
       <c r="G39" s="10"/>
-      <c r="H39" s="18"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1683,7 +1684,7 @@
         <v>#N/A</v>
       </c>
       <c r="G40" s="10"/>
-      <c r="H40" s="18"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1707,7 +1708,7 @@
         <v>#N/A</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="18"/>
+      <c r="H41" s="17"/>
       <c r="I41" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1731,7 +1732,7 @@
         <v>#N/A</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="18"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1755,7 +1756,7 @@
         <v>#N/A</v>
       </c>
       <c r="G43" s="10"/>
-      <c r="H43" s="18"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1779,7 +1780,7 @@
         <v>#N/A</v>
       </c>
       <c r="G44" s="10"/>
-      <c r="H44" s="18"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1803,7 +1804,7 @@
         <v>#N/A</v>
       </c>
       <c r="G45" s="10"/>
-      <c r="H45" s="18"/>
+      <c r="H45" s="17"/>
       <c r="I45" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1827,7 +1828,7 @@
         <v>#N/A</v>
       </c>
       <c r="G46" s="10"/>
-      <c r="H46" s="18"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1851,7 +1852,7 @@
         <v>#N/A</v>
       </c>
       <c r="G47" s="10"/>
-      <c r="H47" s="18"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1875,7 +1876,7 @@
         <v>#N/A</v>
       </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="18"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1899,7 +1900,7 @@
         <v>#N/A</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="18"/>
+      <c r="H49" s="17"/>
       <c r="I49" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1923,7 +1924,7 @@
         <v>#N/A</v>
       </c>
       <c r="G50" s="10"/>
-      <c r="H50" s="18"/>
+      <c r="H50" s="17"/>
       <c r="I50" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1947,7 +1948,7 @@
         <v>#N/A</v>
       </c>
       <c r="G51" s="10"/>
-      <c r="H51" s="18"/>
+      <c r="H51" s="17"/>
       <c r="I51" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1971,7 +1972,7 @@
         <v>#N/A</v>
       </c>
       <c r="G52" s="10"/>
-      <c r="H52" s="18"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1995,7 +1996,7 @@
         <v>#N/A</v>
       </c>
       <c r="G53" s="10"/>
-      <c r="H53" s="18"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2019,7 +2020,7 @@
         <v>#N/A</v>
       </c>
       <c r="G54" s="10"/>
-      <c r="H54" s="18"/>
+      <c r="H54" s="17"/>
       <c r="I54" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2043,7 +2044,7 @@
         <v>#N/A</v>
       </c>
       <c r="G55" s="10"/>
-      <c r="H55" s="18"/>
+      <c r="H55" s="17"/>
       <c r="I55" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2067,7 +2068,7 @@
         <v>#N/A</v>
       </c>
       <c r="G56" s="10"/>
-      <c r="H56" s="18"/>
+      <c r="H56" s="17"/>
       <c r="I56" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2091,7 +2092,7 @@
         <v>#N/A</v>
       </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="18"/>
+      <c r="H57" s="17"/>
       <c r="I57" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2115,7 +2116,7 @@
         <v>#N/A</v>
       </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="18"/>
+      <c r="H58" s="17"/>
       <c r="I58" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2139,7 +2140,7 @@
         <v>#N/A</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="18"/>
+      <c r="H59" s="17"/>
       <c r="I59" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2163,7 +2164,7 @@
         <v>#N/A</v>
       </c>
       <c r="G60" s="10"/>
-      <c r="H60" s="18"/>
+      <c r="H60" s="17"/>
       <c r="I60" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2187,7 +2188,7 @@
         <v>#N/A</v>
       </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="18"/>
+      <c r="H61" s="17"/>
       <c r="I61" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2211,7 +2212,7 @@
         <v>#N/A</v>
       </c>
       <c r="G62" s="10"/>
-      <c r="H62" s="18"/>
+      <c r="H62" s="17"/>
       <c r="I62" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2235,7 +2236,7 @@
         <v>#N/A</v>
       </c>
       <c r="G63" s="10"/>
-      <c r="H63" s="18"/>
+      <c r="H63" s="17"/>
       <c r="I63" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2259,7 +2260,7 @@
         <v>#N/A</v>
       </c>
       <c r="G64" s="10"/>
-      <c r="H64" s="18"/>
+      <c r="H64" s="17"/>
       <c r="I64" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2283,7 +2284,7 @@
         <v>#N/A</v>
       </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="18"/>
+      <c r="H65" s="17"/>
       <c r="I65" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2307,7 +2308,7 @@
         <v>#N/A</v>
       </c>
       <c r="G66" s="10"/>
-      <c r="H66" s="18"/>
+      <c r="H66" s="17"/>
       <c r="I66" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2331,7 +2332,7 @@
         <v>#N/A</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="18"/>
+      <c r="H67" s="17"/>
       <c r="I67" s="10" t="e">
         <f t="shared" ref="I67:I130" si="7">VLOOKUP(J67,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -2355,7 +2356,7 @@
         <v>#N/A</v>
       </c>
       <c r="G68" s="10"/>
-      <c r="H68" s="18"/>
+      <c r="H68" s="17"/>
       <c r="I68" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2379,7 +2380,7 @@
         <v>#N/A</v>
       </c>
       <c r="G69" s="10"/>
-      <c r="H69" s="18"/>
+      <c r="H69" s="17"/>
       <c r="I69" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2403,7 +2404,7 @@
         <v>#N/A</v>
       </c>
       <c r="G70" s="10"/>
-      <c r="H70" s="18"/>
+      <c r="H70" s="17"/>
       <c r="I70" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2427,7 +2428,7 @@
         <v>#N/A</v>
       </c>
       <c r="G71" s="10"/>
-      <c r="H71" s="18"/>
+      <c r="H71" s="17"/>
       <c r="I71" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2451,7 +2452,7 @@
         <v>#N/A</v>
       </c>
       <c r="G72" s="10"/>
-      <c r="H72" s="18"/>
+      <c r="H72" s="17"/>
       <c r="I72" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2475,7 +2476,7 @@
         <v>#N/A</v>
       </c>
       <c r="G73" s="10"/>
-      <c r="H73" s="18"/>
+      <c r="H73" s="17"/>
       <c r="I73" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2499,7 +2500,7 @@
         <v>#N/A</v>
       </c>
       <c r="G74" s="10"/>
-      <c r="H74" s="18"/>
+      <c r="H74" s="17"/>
       <c r="I74" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2523,7 +2524,7 @@
         <v>#N/A</v>
       </c>
       <c r="G75" s="10"/>
-      <c r="H75" s="18"/>
+      <c r="H75" s="17"/>
       <c r="I75" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2547,7 +2548,7 @@
         <v>#N/A</v>
       </c>
       <c r="G76" s="10"/>
-      <c r="H76" s="18"/>
+      <c r="H76" s="17"/>
       <c r="I76" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2571,7 +2572,7 @@
         <v>#N/A</v>
       </c>
       <c r="G77" s="10"/>
-      <c r="H77" s="18"/>
+      <c r="H77" s="17"/>
       <c r="I77" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2595,7 +2596,7 @@
         <v>#N/A</v>
       </c>
       <c r="G78" s="10"/>
-      <c r="H78" s="18"/>
+      <c r="H78" s="17"/>
       <c r="I78" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2619,7 +2620,7 @@
         <v>#N/A</v>
       </c>
       <c r="G79" s="10"/>
-      <c r="H79" s="18"/>
+      <c r="H79" s="17"/>
       <c r="I79" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2643,7 +2644,7 @@
         <v>#N/A</v>
       </c>
       <c r="G80" s="10"/>
-      <c r="H80" s="18"/>
+      <c r="H80" s="17"/>
       <c r="I80" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2667,7 +2668,7 @@
         <v>#N/A</v>
       </c>
       <c r="G81" s="10"/>
-      <c r="H81" s="18"/>
+      <c r="H81" s="17"/>
       <c r="I81" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2691,7 +2692,7 @@
         <v>#N/A</v>
       </c>
       <c r="G82" s="10"/>
-      <c r="H82" s="18"/>
+      <c r="H82" s="17"/>
       <c r="I82" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2715,7 +2716,7 @@
         <v>#N/A</v>
       </c>
       <c r="G83" s="10"/>
-      <c r="H83" s="18"/>
+      <c r="H83" s="17"/>
       <c r="I83" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2739,7 +2740,7 @@
         <v>#N/A</v>
       </c>
       <c r="G84" s="10"/>
-      <c r="H84" s="18"/>
+      <c r="H84" s="17"/>
       <c r="I84" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2763,7 +2764,7 @@
         <v>#N/A</v>
       </c>
       <c r="G85" s="10"/>
-      <c r="H85" s="18"/>
+      <c r="H85" s="17"/>
       <c r="I85" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2787,7 +2788,7 @@
         <v>#N/A</v>
       </c>
       <c r="G86" s="10"/>
-      <c r="H86" s="18"/>
+      <c r="H86" s="17"/>
       <c r="I86" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2811,7 +2812,7 @@
         <v>#N/A</v>
       </c>
       <c r="G87" s="10"/>
-      <c r="H87" s="18"/>
+      <c r="H87" s="17"/>
       <c r="I87" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2835,7 +2836,7 @@
         <v>#N/A</v>
       </c>
       <c r="G88" s="10"/>
-      <c r="H88" s="18"/>
+      <c r="H88" s="17"/>
       <c r="I88" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2859,7 +2860,7 @@
         <v>#N/A</v>
       </c>
       <c r="G89" s="10"/>
-      <c r="H89" s="18"/>
+      <c r="H89" s="17"/>
       <c r="I89" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2883,7 +2884,7 @@
         <v>#N/A</v>
       </c>
       <c r="G90" s="10"/>
-      <c r="H90" s="18"/>
+      <c r="H90" s="17"/>
       <c r="I90" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2907,7 +2908,7 @@
         <v>#N/A</v>
       </c>
       <c r="G91" s="10"/>
-      <c r="H91" s="18"/>
+      <c r="H91" s="17"/>
       <c r="I91" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2931,7 +2932,7 @@
         <v>#N/A</v>
       </c>
       <c r="G92" s="10"/>
-      <c r="H92" s="18"/>
+      <c r="H92" s="17"/>
       <c r="I92" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2955,7 +2956,7 @@
         <v>#N/A</v>
       </c>
       <c r="G93" s="10"/>
-      <c r="H93" s="18"/>
+      <c r="H93" s="17"/>
       <c r="I93" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2979,7 +2980,7 @@
         <v>#N/A</v>
       </c>
       <c r="G94" s="10"/>
-      <c r="H94" s="18"/>
+      <c r="H94" s="17"/>
       <c r="I94" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3003,7 +3004,7 @@
         <v>#N/A</v>
       </c>
       <c r="G95" s="10"/>
-      <c r="H95" s="18"/>
+      <c r="H95" s="17"/>
       <c r="I95" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3027,7 +3028,7 @@
         <v>#N/A</v>
       </c>
       <c r="G96" s="10"/>
-      <c r="H96" s="18"/>
+      <c r="H96" s="17"/>
       <c r="I96" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3051,7 +3052,7 @@
         <v>#N/A</v>
       </c>
       <c r="G97" s="10"/>
-      <c r="H97" s="18"/>
+      <c r="H97" s="17"/>
       <c r="I97" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3075,7 +3076,7 @@
         <v>#N/A</v>
       </c>
       <c r="G98" s="10"/>
-      <c r="H98" s="18"/>
+      <c r="H98" s="17"/>
       <c r="I98" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3099,7 +3100,7 @@
         <v>#N/A</v>
       </c>
       <c r="G99" s="10"/>
-      <c r="H99" s="18"/>
+      <c r="H99" s="17"/>
       <c r="I99" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3123,7 +3124,7 @@
         <v>#N/A</v>
       </c>
       <c r="G100" s="10"/>
-      <c r="H100" s="18"/>
+      <c r="H100" s="17"/>
       <c r="I100" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3147,7 +3148,7 @@
         <v>#N/A</v>
       </c>
       <c r="G101" s="10"/>
-      <c r="H101" s="18"/>
+      <c r="H101" s="17"/>
       <c r="I101" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3171,7 +3172,7 @@
         <v>#N/A</v>
       </c>
       <c r="G102" s="10"/>
-      <c r="H102" s="18"/>
+      <c r="H102" s="17"/>
       <c r="I102" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3195,7 +3196,7 @@
         <v>#N/A</v>
       </c>
       <c r="G103" s="10"/>
-      <c r="H103" s="18"/>
+      <c r="H103" s="17"/>
       <c r="I103" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3219,7 +3220,7 @@
         <v>#N/A</v>
       </c>
       <c r="G104" s="10"/>
-      <c r="H104" s="18"/>
+      <c r="H104" s="17"/>
       <c r="I104" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3243,7 +3244,7 @@
         <v>#N/A</v>
       </c>
       <c r="G105" s="10"/>
-      <c r="H105" s="18"/>
+      <c r="H105" s="17"/>
       <c r="I105" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3267,7 +3268,7 @@
         <v>#N/A</v>
       </c>
       <c r="G106" s="10"/>
-      <c r="H106" s="18"/>
+      <c r="H106" s="17"/>
       <c r="I106" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3291,7 +3292,7 @@
         <v>#N/A</v>
       </c>
       <c r="G107" s="10"/>
-      <c r="H107" s="18"/>
+      <c r="H107" s="17"/>
       <c r="I107" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3315,7 +3316,7 @@
         <v>#N/A</v>
       </c>
       <c r="G108" s="10"/>
-      <c r="H108" s="18"/>
+      <c r="H108" s="17"/>
       <c r="I108" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3339,7 +3340,7 @@
         <v>#N/A</v>
       </c>
       <c r="G109" s="10"/>
-      <c r="H109" s="18"/>
+      <c r="H109" s="17"/>
       <c r="I109" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3363,7 +3364,7 @@
         <v>#N/A</v>
       </c>
       <c r="G110" s="10"/>
-      <c r="H110" s="18"/>
+      <c r="H110" s="17"/>
       <c r="I110" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3387,7 +3388,7 @@
         <v>#N/A</v>
       </c>
       <c r="G111" s="10"/>
-      <c r="H111" s="18"/>
+      <c r="H111" s="17"/>
       <c r="I111" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3411,7 +3412,7 @@
         <v>#N/A</v>
       </c>
       <c r="G112" s="10"/>
-      <c r="H112" s="18"/>
+      <c r="H112" s="17"/>
       <c r="I112" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3435,7 +3436,7 @@
         <v>#N/A</v>
       </c>
       <c r="G113" s="10"/>
-      <c r="H113" s="18"/>
+      <c r="H113" s="17"/>
       <c r="I113" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3459,7 +3460,7 @@
         <v>#N/A</v>
       </c>
       <c r="G114" s="10"/>
-      <c r="H114" s="18"/>
+      <c r="H114" s="17"/>
       <c r="I114" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3483,7 +3484,7 @@
         <v>#N/A</v>
       </c>
       <c r="G115" s="10"/>
-      <c r="H115" s="18"/>
+      <c r="H115" s="17"/>
       <c r="I115" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3507,7 +3508,7 @@
         <v>#N/A</v>
       </c>
       <c r="G116" s="10"/>
-      <c r="H116" s="18"/>
+      <c r="H116" s="17"/>
       <c r="I116" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3531,7 +3532,7 @@
         <v>#N/A</v>
       </c>
       <c r="G117" s="10"/>
-      <c r="H117" s="18"/>
+      <c r="H117" s="17"/>
       <c r="I117" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3555,7 +3556,7 @@
         <v>#N/A</v>
       </c>
       <c r="G118" s="10"/>
-      <c r="H118" s="18"/>
+      <c r="H118" s="17"/>
       <c r="I118" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3579,7 +3580,7 @@
         <v>#N/A</v>
       </c>
       <c r="G119" s="10"/>
-      <c r="H119" s="18"/>
+      <c r="H119" s="17"/>
       <c r="I119" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3603,7 +3604,7 @@
         <v>#N/A</v>
       </c>
       <c r="G120" s="10"/>
-      <c r="H120" s="18"/>
+      <c r="H120" s="17"/>
       <c r="I120" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3627,7 +3628,7 @@
         <v>#N/A</v>
       </c>
       <c r="G121" s="10"/>
-      <c r="H121" s="18"/>
+      <c r="H121" s="17"/>
       <c r="I121" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3651,7 +3652,7 @@
         <v>#N/A</v>
       </c>
       <c r="G122" s="10"/>
-      <c r="H122" s="18"/>
+      <c r="H122" s="17"/>
       <c r="I122" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3675,7 +3676,7 @@
         <v>#N/A</v>
       </c>
       <c r="G123" s="10"/>
-      <c r="H123" s="18"/>
+      <c r="H123" s="17"/>
       <c r="I123" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3699,7 +3700,7 @@
         <v>#N/A</v>
       </c>
       <c r="G124" s="10"/>
-      <c r="H124" s="18"/>
+      <c r="H124" s="17"/>
       <c r="I124" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3723,7 +3724,7 @@
         <v>#N/A</v>
       </c>
       <c r="G125" s="10"/>
-      <c r="H125" s="18"/>
+      <c r="H125" s="17"/>
       <c r="I125" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3747,7 +3748,7 @@
         <v>#N/A</v>
       </c>
       <c r="G126" s="10"/>
-      <c r="H126" s="18"/>
+      <c r="H126" s="17"/>
       <c r="I126" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3771,7 +3772,7 @@
         <v>#N/A</v>
       </c>
       <c r="G127" s="10"/>
-      <c r="H127" s="18"/>
+      <c r="H127" s="17"/>
       <c r="I127" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3795,7 +3796,7 @@
         <v>#N/A</v>
       </c>
       <c r="G128" s="10"/>
-      <c r="H128" s="18"/>
+      <c r="H128" s="17"/>
       <c r="I128" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3819,7 +3820,7 @@
         <v>#N/A</v>
       </c>
       <c r="G129" s="10"/>
-      <c r="H129" s="18"/>
+      <c r="H129" s="17"/>
       <c r="I129" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3843,7 +3844,7 @@
         <v>#N/A</v>
       </c>
       <c r="G130" s="10"/>
-      <c r="H130" s="18"/>
+      <c r="H130" s="17"/>
       <c r="I130" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3867,7 +3868,7 @@
         <v>#N/A</v>
       </c>
       <c r="G131" s="10"/>
-      <c r="H131" s="18"/>
+      <c r="H131" s="17"/>
       <c r="I131" s="10" t="e">
         <f t="shared" ref="I131:I194" si="11">VLOOKUP(J131,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -3891,7 +3892,7 @@
         <v>#N/A</v>
       </c>
       <c r="G132" s="10"/>
-      <c r="H132" s="18"/>
+      <c r="H132" s="17"/>
       <c r="I132" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3915,7 +3916,7 @@
         <v>#N/A</v>
       </c>
       <c r="G133" s="10"/>
-      <c r="H133" s="18"/>
+      <c r="H133" s="17"/>
       <c r="I133" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3939,7 +3940,7 @@
         <v>#N/A</v>
       </c>
       <c r="G134" s="10"/>
-      <c r="H134" s="18"/>
+      <c r="H134" s="17"/>
       <c r="I134" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3963,7 +3964,7 @@
         <v>#N/A</v>
       </c>
       <c r="G135" s="10"/>
-      <c r="H135" s="18"/>
+      <c r="H135" s="17"/>
       <c r="I135" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3987,7 +3988,7 @@
         <v>#N/A</v>
       </c>
       <c r="G136" s="10"/>
-      <c r="H136" s="18"/>
+      <c r="H136" s="17"/>
       <c r="I136" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4011,7 +4012,7 @@
         <v>#N/A</v>
       </c>
       <c r="G137" s="10"/>
-      <c r="H137" s="18"/>
+      <c r="H137" s="17"/>
       <c r="I137" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4035,7 +4036,7 @@
         <v>#N/A</v>
       </c>
       <c r="G138" s="10"/>
-      <c r="H138" s="18"/>
+      <c r="H138" s="17"/>
       <c r="I138" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4059,7 +4060,7 @@
         <v>#N/A</v>
       </c>
       <c r="G139" s="10"/>
-      <c r="H139" s="18"/>
+      <c r="H139" s="17"/>
       <c r="I139" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4083,7 +4084,7 @@
         <v>#N/A</v>
       </c>
       <c r="G140" s="10"/>
-      <c r="H140" s="18"/>
+      <c r="H140" s="17"/>
       <c r="I140" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4107,7 +4108,7 @@
         <v>#N/A</v>
       </c>
       <c r="G141" s="10"/>
-      <c r="H141" s="18"/>
+      <c r="H141" s="17"/>
       <c r="I141" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4131,7 +4132,7 @@
         <v>#N/A</v>
       </c>
       <c r="G142" s="10"/>
-      <c r="H142" s="18"/>
+      <c r="H142" s="17"/>
       <c r="I142" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4155,7 +4156,7 @@
         <v>#N/A</v>
       </c>
       <c r="G143" s="10"/>
-      <c r="H143" s="18"/>
+      <c r="H143" s="17"/>
       <c r="I143" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4179,7 +4180,7 @@
         <v>#N/A</v>
       </c>
       <c r="G144" s="10"/>
-      <c r="H144" s="18"/>
+      <c r="H144" s="17"/>
       <c r="I144" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4203,7 +4204,7 @@
         <v>#N/A</v>
       </c>
       <c r="G145" s="10"/>
-      <c r="H145" s="18"/>
+      <c r="H145" s="17"/>
       <c r="I145" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4227,7 +4228,7 @@
         <v>#N/A</v>
       </c>
       <c r="G146" s="10"/>
-      <c r="H146" s="18"/>
+      <c r="H146" s="17"/>
       <c r="I146" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4251,7 +4252,7 @@
         <v>#N/A</v>
       </c>
       <c r="G147" s="10"/>
-      <c r="H147" s="18"/>
+      <c r="H147" s="17"/>
       <c r="I147" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4275,7 +4276,7 @@
         <v>#N/A</v>
       </c>
       <c r="G148" s="10"/>
-      <c r="H148" s="18"/>
+      <c r="H148" s="17"/>
       <c r="I148" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4299,7 +4300,7 @@
         <v>#N/A</v>
       </c>
       <c r="G149" s="10"/>
-      <c r="H149" s="18"/>
+      <c r="H149" s="17"/>
       <c r="I149" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4323,7 +4324,7 @@
         <v>#N/A</v>
       </c>
       <c r="G150" s="10"/>
-      <c r="H150" s="18"/>
+      <c r="H150" s="17"/>
       <c r="I150" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4347,7 +4348,7 @@
         <v>#N/A</v>
       </c>
       <c r="G151" s="10"/>
-      <c r="H151" s="18"/>
+      <c r="H151" s="17"/>
       <c r="I151" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4371,7 +4372,7 @@
         <v>#N/A</v>
       </c>
       <c r="G152" s="10"/>
-      <c r="H152" s="18"/>
+      <c r="H152" s="17"/>
       <c r="I152" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4395,7 +4396,7 @@
         <v>#N/A</v>
       </c>
       <c r="G153" s="10"/>
-      <c r="H153" s="18"/>
+      <c r="H153" s="17"/>
       <c r="I153" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4419,7 +4420,7 @@
         <v>#N/A</v>
       </c>
       <c r="G154" s="10"/>
-      <c r="H154" s="18"/>
+      <c r="H154" s="17"/>
       <c r="I154" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4443,7 +4444,7 @@
         <v>#N/A</v>
       </c>
       <c r="G155" s="10"/>
-      <c r="H155" s="18"/>
+      <c r="H155" s="17"/>
       <c r="I155" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4467,7 +4468,7 @@
         <v>#N/A</v>
       </c>
       <c r="G156" s="10"/>
-      <c r="H156" s="18"/>
+      <c r="H156" s="17"/>
       <c r="I156" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4491,7 +4492,7 @@
         <v>#N/A</v>
       </c>
       <c r="G157" s="10"/>
-      <c r="H157" s="18"/>
+      <c r="H157" s="17"/>
       <c r="I157" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4515,7 +4516,7 @@
         <v>#N/A</v>
       </c>
       <c r="G158" s="10"/>
-      <c r="H158" s="18"/>
+      <c r="H158" s="17"/>
       <c r="I158" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4539,7 +4540,7 @@
         <v>#N/A</v>
       </c>
       <c r="G159" s="10"/>
-      <c r="H159" s="18"/>
+      <c r="H159" s="17"/>
       <c r="I159" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4563,7 +4564,7 @@
         <v>#N/A</v>
       </c>
       <c r="G160" s="10"/>
-      <c r="H160" s="18"/>
+      <c r="H160" s="17"/>
       <c r="I160" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4587,7 +4588,7 @@
         <v>#N/A</v>
       </c>
       <c r="G161" s="10"/>
-      <c r="H161" s="18"/>
+      <c r="H161" s="17"/>
       <c r="I161" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4611,7 +4612,7 @@
         <v>#N/A</v>
       </c>
       <c r="G162" s="10"/>
-      <c r="H162" s="18"/>
+      <c r="H162" s="17"/>
       <c r="I162" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4635,7 +4636,7 @@
         <v>#N/A</v>
       </c>
       <c r="G163" s="10"/>
-      <c r="H163" s="18"/>
+      <c r="H163" s="17"/>
       <c r="I163" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4659,7 +4660,7 @@
         <v>#N/A</v>
       </c>
       <c r="G164" s="10"/>
-      <c r="H164" s="18"/>
+      <c r="H164" s="17"/>
       <c r="I164" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4683,7 +4684,7 @@
         <v>#N/A</v>
       </c>
       <c r="G165" s="10"/>
-      <c r="H165" s="18"/>
+      <c r="H165" s="17"/>
       <c r="I165" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4707,7 +4708,7 @@
         <v>#N/A</v>
       </c>
       <c r="G166" s="10"/>
-      <c r="H166" s="18"/>
+      <c r="H166" s="17"/>
       <c r="I166" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4731,7 +4732,7 @@
         <v>#N/A</v>
       </c>
       <c r="G167" s="10"/>
-      <c r="H167" s="18"/>
+      <c r="H167" s="17"/>
       <c r="I167" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4755,7 +4756,7 @@
         <v>#N/A</v>
       </c>
       <c r="G168" s="10"/>
-      <c r="H168" s="18"/>
+      <c r="H168" s="17"/>
       <c r="I168" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4779,7 +4780,7 @@
         <v>#N/A</v>
       </c>
       <c r="G169" s="10"/>
-      <c r="H169" s="18"/>
+      <c r="H169" s="17"/>
       <c r="I169" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4803,7 +4804,7 @@
         <v>#N/A</v>
       </c>
       <c r="G170" s="10"/>
-      <c r="H170" s="18"/>
+      <c r="H170" s="17"/>
       <c r="I170" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4827,7 +4828,7 @@
         <v>#N/A</v>
       </c>
       <c r="G171" s="10"/>
-      <c r="H171" s="18"/>
+      <c r="H171" s="17"/>
       <c r="I171" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4851,7 +4852,7 @@
         <v>#N/A</v>
       </c>
       <c r="G172" s="10"/>
-      <c r="H172" s="18"/>
+      <c r="H172" s="17"/>
       <c r="I172" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4875,7 +4876,7 @@
         <v>#N/A</v>
       </c>
       <c r="G173" s="10"/>
-      <c r="H173" s="18"/>
+      <c r="H173" s="17"/>
       <c r="I173" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4899,7 +4900,7 @@
         <v>#N/A</v>
       </c>
       <c r="G174" s="10"/>
-      <c r="H174" s="18"/>
+      <c r="H174" s="17"/>
       <c r="I174" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4923,7 +4924,7 @@
         <v>#N/A</v>
       </c>
       <c r="G175" s="10"/>
-      <c r="H175" s="18"/>
+      <c r="H175" s="17"/>
       <c r="I175" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4947,7 +4948,7 @@
         <v>#N/A</v>
       </c>
       <c r="G176" s="10"/>
-      <c r="H176" s="18"/>
+      <c r="H176" s="17"/>
       <c r="I176" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4971,7 +4972,7 @@
         <v>#N/A</v>
       </c>
       <c r="G177" s="10"/>
-      <c r="H177" s="18"/>
+      <c r="H177" s="17"/>
       <c r="I177" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4995,7 +4996,7 @@
         <v>#N/A</v>
       </c>
       <c r="G178" s="10"/>
-      <c r="H178" s="18"/>
+      <c r="H178" s="17"/>
       <c r="I178" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5019,7 +5020,7 @@
         <v>#N/A</v>
       </c>
       <c r="G179" s="10"/>
-      <c r="H179" s="18"/>
+      <c r="H179" s="17"/>
       <c r="I179" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5043,7 +5044,7 @@
         <v>#N/A</v>
       </c>
       <c r="G180" s="10"/>
-      <c r="H180" s="18"/>
+      <c r="H180" s="17"/>
       <c r="I180" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5067,7 +5068,7 @@
         <v>#N/A</v>
       </c>
       <c r="G181" s="10"/>
-      <c r="H181" s="18"/>
+      <c r="H181" s="17"/>
       <c r="I181" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5091,7 +5092,7 @@
         <v>#N/A</v>
       </c>
       <c r="G182" s="10"/>
-      <c r="H182" s="18"/>
+      <c r="H182" s="17"/>
       <c r="I182" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5115,7 +5116,7 @@
         <v>#N/A</v>
       </c>
       <c r="G183" s="10"/>
-      <c r="H183" s="18"/>
+      <c r="H183" s="17"/>
       <c r="I183" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5139,7 +5140,7 @@
         <v>#N/A</v>
       </c>
       <c r="G184" s="10"/>
-      <c r="H184" s="18"/>
+      <c r="H184" s="17"/>
       <c r="I184" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5163,7 +5164,7 @@
         <v>#N/A</v>
       </c>
       <c r="G185" s="10"/>
-      <c r="H185" s="18"/>
+      <c r="H185" s="17"/>
       <c r="I185" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5187,7 +5188,7 @@
         <v>#N/A</v>
       </c>
       <c r="G186" s="10"/>
-      <c r="H186" s="18"/>
+      <c r="H186" s="17"/>
       <c r="I186" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5211,7 +5212,7 @@
         <v>#N/A</v>
       </c>
       <c r="G187" s="10"/>
-      <c r="H187" s="18"/>
+      <c r="H187" s="17"/>
       <c r="I187" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5235,7 +5236,7 @@
         <v>#N/A</v>
       </c>
       <c r="G188" s="10"/>
-      <c r="H188" s="18"/>
+      <c r="H188" s="17"/>
       <c r="I188" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5259,7 +5260,7 @@
         <v>#N/A</v>
       </c>
       <c r="G189" s="10"/>
-      <c r="H189" s="18"/>
+      <c r="H189" s="17"/>
       <c r="I189" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5283,7 +5284,7 @@
         <v>#N/A</v>
       </c>
       <c r="G190" s="10"/>
-      <c r="H190" s="18"/>
+      <c r="H190" s="17"/>
       <c r="I190" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5307,7 +5308,7 @@
         <v>#N/A</v>
       </c>
       <c r="G191" s="10"/>
-      <c r="H191" s="18"/>
+      <c r="H191" s="17"/>
       <c r="I191" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5331,7 +5332,7 @@
         <v>#N/A</v>
       </c>
       <c r="G192" s="10"/>
-      <c r="H192" s="18"/>
+      <c r="H192" s="17"/>
       <c r="I192" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5355,7 +5356,7 @@
         <v>#N/A</v>
       </c>
       <c r="G193" s="10"/>
-      <c r="H193" s="18"/>
+      <c r="H193" s="17"/>
       <c r="I193" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5379,7 +5380,7 @@
         <v>#N/A</v>
       </c>
       <c r="G194" s="10"/>
-      <c r="H194" s="18"/>
+      <c r="H194" s="17"/>
       <c r="I194" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5403,7 +5404,7 @@
         <v>#N/A</v>
       </c>
       <c r="G195" s="10"/>
-      <c r="H195" s="18"/>
+      <c r="H195" s="17"/>
       <c r="I195" s="10" t="e">
         <f t="shared" ref="I195:I258" si="15">VLOOKUP(J195,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -5427,7 +5428,7 @@
         <v>#N/A</v>
       </c>
       <c r="G196" s="10"/>
-      <c r="H196" s="18"/>
+      <c r="H196" s="17"/>
       <c r="I196" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5451,7 +5452,7 @@
         <v>#N/A</v>
       </c>
       <c r="G197" s="10"/>
-      <c r="H197" s="18"/>
+      <c r="H197" s="17"/>
       <c r="I197" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5475,7 +5476,7 @@
         <v>#N/A</v>
       </c>
       <c r="G198" s="10"/>
-      <c r="H198" s="18"/>
+      <c r="H198" s="17"/>
       <c r="I198" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5499,7 +5500,7 @@
         <v>#N/A</v>
       </c>
       <c r="G199" s="10"/>
-      <c r="H199" s="18"/>
+      <c r="H199" s="17"/>
       <c r="I199" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5523,7 +5524,7 @@
         <v>#N/A</v>
       </c>
       <c r="G200" s="10"/>
-      <c r="H200" s="18"/>
+      <c r="H200" s="17"/>
       <c r="I200" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5547,7 +5548,7 @@
         <v>#N/A</v>
       </c>
       <c r="G201" s="10"/>
-      <c r="H201" s="18"/>
+      <c r="H201" s="17"/>
       <c r="I201" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5571,7 +5572,7 @@
         <v>#N/A</v>
       </c>
       <c r="G202" s="10"/>
-      <c r="H202" s="18"/>
+      <c r="H202" s="17"/>
       <c r="I202" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5595,7 +5596,7 @@
         <v>#N/A</v>
       </c>
       <c r="G203" s="10"/>
-      <c r="H203" s="18"/>
+      <c r="H203" s="17"/>
       <c r="I203" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5619,7 +5620,7 @@
         <v>#N/A</v>
       </c>
       <c r="G204" s="10"/>
-      <c r="H204" s="18"/>
+      <c r="H204" s="17"/>
       <c r="I204" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5643,7 +5644,7 @@
         <v>#N/A</v>
       </c>
       <c r="G205" s="10"/>
-      <c r="H205" s="18"/>
+      <c r="H205" s="17"/>
       <c r="I205" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5667,7 +5668,7 @@
         <v>#N/A</v>
       </c>
       <c r="G206" s="10"/>
-      <c r="H206" s="18"/>
+      <c r="H206" s="17"/>
       <c r="I206" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5691,7 +5692,7 @@
         <v>#N/A</v>
       </c>
       <c r="G207" s="10"/>
-      <c r="H207" s="18"/>
+      <c r="H207" s="17"/>
       <c r="I207" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5715,7 +5716,7 @@
         <v>#N/A</v>
       </c>
       <c r="G208" s="10"/>
-      <c r="H208" s="18"/>
+      <c r="H208" s="17"/>
       <c r="I208" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5739,7 +5740,7 @@
         <v>#N/A</v>
       </c>
       <c r="G209" s="10"/>
-      <c r="H209" s="18"/>
+      <c r="H209" s="17"/>
       <c r="I209" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5763,7 +5764,7 @@
         <v>#N/A</v>
       </c>
       <c r="G210" s="10"/>
-      <c r="H210" s="18"/>
+      <c r="H210" s="17"/>
       <c r="I210" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5787,7 +5788,7 @@
         <v>#N/A</v>
       </c>
       <c r="G211" s="10"/>
-      <c r="H211" s="18"/>
+      <c r="H211" s="17"/>
       <c r="I211" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5811,7 +5812,7 @@
         <v>#N/A</v>
       </c>
       <c r="G212" s="10"/>
-      <c r="H212" s="18"/>
+      <c r="H212" s="17"/>
       <c r="I212" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5835,7 +5836,7 @@
         <v>#N/A</v>
       </c>
       <c r="G213" s="10"/>
-      <c r="H213" s="18"/>
+      <c r="H213" s="17"/>
       <c r="I213" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5859,7 +5860,7 @@
         <v>#N/A</v>
       </c>
       <c r="G214" s="10"/>
-      <c r="H214" s="18"/>
+      <c r="H214" s="17"/>
       <c r="I214" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5883,7 +5884,7 @@
         <v>#N/A</v>
       </c>
       <c r="G215" s="10"/>
-      <c r="H215" s="18"/>
+      <c r="H215" s="17"/>
       <c r="I215" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5907,7 +5908,7 @@
         <v>#N/A</v>
       </c>
       <c r="G216" s="10"/>
-      <c r="H216" s="18"/>
+      <c r="H216" s="17"/>
       <c r="I216" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5931,7 +5932,7 @@
         <v>#N/A</v>
       </c>
       <c r="G217" s="10"/>
-      <c r="H217" s="18"/>
+      <c r="H217" s="17"/>
       <c r="I217" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5955,7 +5956,7 @@
         <v>#N/A</v>
       </c>
       <c r="G218" s="10"/>
-      <c r="H218" s="18"/>
+      <c r="H218" s="17"/>
       <c r="I218" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5979,7 +5980,7 @@
         <v>#N/A</v>
       </c>
       <c r="G219" s="10"/>
-      <c r="H219" s="18"/>
+      <c r="H219" s="17"/>
       <c r="I219" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6003,7 +6004,7 @@
         <v>#N/A</v>
       </c>
       <c r="G220" s="10"/>
-      <c r="H220" s="18"/>
+      <c r="H220" s="17"/>
       <c r="I220" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6027,7 +6028,7 @@
         <v>#N/A</v>
       </c>
       <c r="G221" s="10"/>
-      <c r="H221" s="18"/>
+      <c r="H221" s="17"/>
       <c r="I221" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6051,7 +6052,7 @@
         <v>#N/A</v>
       </c>
       <c r="G222" s="10"/>
-      <c r="H222" s="18"/>
+      <c r="H222" s="17"/>
       <c r="I222" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6075,7 +6076,7 @@
         <v>#N/A</v>
       </c>
       <c r="G223" s="10"/>
-      <c r="H223" s="18"/>
+      <c r="H223" s="17"/>
       <c r="I223" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6099,7 +6100,7 @@
         <v>#N/A</v>
       </c>
       <c r="G224" s="10"/>
-      <c r="H224" s="18"/>
+      <c r="H224" s="17"/>
       <c r="I224" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6123,7 +6124,7 @@
         <v>#N/A</v>
       </c>
       <c r="G225" s="10"/>
-      <c r="H225" s="18"/>
+      <c r="H225" s="17"/>
       <c r="I225" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6147,7 +6148,7 @@
         <v>#N/A</v>
       </c>
       <c r="G226" s="10"/>
-      <c r="H226" s="18"/>
+      <c r="H226" s="17"/>
       <c r="I226" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6171,7 +6172,7 @@
         <v>#N/A</v>
       </c>
       <c r="G227" s="10"/>
-      <c r="H227" s="18"/>
+      <c r="H227" s="17"/>
       <c r="I227" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6195,7 +6196,7 @@
         <v>#N/A</v>
       </c>
       <c r="G228" s="10"/>
-      <c r="H228" s="18"/>
+      <c r="H228" s="17"/>
       <c r="I228" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6219,7 +6220,7 @@
         <v>#N/A</v>
       </c>
       <c r="G229" s="10"/>
-      <c r="H229" s="18"/>
+      <c r="H229" s="17"/>
       <c r="I229" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6243,7 +6244,7 @@
         <v>#N/A</v>
       </c>
       <c r="G230" s="10"/>
-      <c r="H230" s="18"/>
+      <c r="H230" s="17"/>
       <c r="I230" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6267,7 +6268,7 @@
         <v>#N/A</v>
       </c>
       <c r="G231" s="10"/>
-      <c r="H231" s="18"/>
+      <c r="H231" s="17"/>
       <c r="I231" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6291,7 +6292,7 @@
         <v>#N/A</v>
       </c>
       <c r="G232" s="10"/>
-      <c r="H232" s="18"/>
+      <c r="H232" s="17"/>
       <c r="I232" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6315,7 +6316,7 @@
         <v>#N/A</v>
       </c>
       <c r="G233" s="10"/>
-      <c r="H233" s="18"/>
+      <c r="H233" s="17"/>
       <c r="I233" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6339,7 +6340,7 @@
         <v>#N/A</v>
       </c>
       <c r="G234" s="10"/>
-      <c r="H234" s="18"/>
+      <c r="H234" s="17"/>
       <c r="I234" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6363,7 +6364,7 @@
         <v>#N/A</v>
       </c>
       <c r="G235" s="10"/>
-      <c r="H235" s="18"/>
+      <c r="H235" s="17"/>
       <c r="I235" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6387,7 +6388,7 @@
         <v>#N/A</v>
       </c>
       <c r="G236" s="10"/>
-      <c r="H236" s="18"/>
+      <c r="H236" s="17"/>
       <c r="I236" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6411,7 +6412,7 @@
         <v>#N/A</v>
       </c>
       <c r="G237" s="10"/>
-      <c r="H237" s="18"/>
+      <c r="H237" s="17"/>
       <c r="I237" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6435,7 +6436,7 @@
         <v>#N/A</v>
       </c>
       <c r="G238" s="10"/>
-      <c r="H238" s="18"/>
+      <c r="H238" s="17"/>
       <c r="I238" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6459,7 +6460,7 @@
         <v>#N/A</v>
       </c>
       <c r="G239" s="10"/>
-      <c r="H239" s="18"/>
+      <c r="H239" s="17"/>
       <c r="I239" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6483,7 +6484,7 @@
         <v>#N/A</v>
       </c>
       <c r="G240" s="10"/>
-      <c r="H240" s="18"/>
+      <c r="H240" s="17"/>
       <c r="I240" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6507,7 +6508,7 @@
         <v>#N/A</v>
       </c>
       <c r="G241" s="10"/>
-      <c r="H241" s="18"/>
+      <c r="H241" s="17"/>
       <c r="I241" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6531,7 +6532,7 @@
         <v>#N/A</v>
       </c>
       <c r="G242" s="10"/>
-      <c r="H242" s="18"/>
+      <c r="H242" s="17"/>
       <c r="I242" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6555,7 +6556,7 @@
         <v>#N/A</v>
       </c>
       <c r="G243" s="10"/>
-      <c r="H243" s="18"/>
+      <c r="H243" s="17"/>
       <c r="I243" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6579,7 +6580,7 @@
         <v>#N/A</v>
       </c>
       <c r="G244" s="10"/>
-      <c r="H244" s="18"/>
+      <c r="H244" s="17"/>
       <c r="I244" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6603,7 +6604,7 @@
         <v>#N/A</v>
       </c>
       <c r="G245" s="10"/>
-      <c r="H245" s="18"/>
+      <c r="H245" s="17"/>
       <c r="I245" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6627,7 +6628,7 @@
         <v>#N/A</v>
       </c>
       <c r="G246" s="10"/>
-      <c r="H246" s="18"/>
+      <c r="H246" s="17"/>
       <c r="I246" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6651,7 +6652,7 @@
         <v>#N/A</v>
       </c>
       <c r="G247" s="10"/>
-      <c r="H247" s="18"/>
+      <c r="H247" s="17"/>
       <c r="I247" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6675,7 +6676,7 @@
         <v>#N/A</v>
       </c>
       <c r="G248" s="10"/>
-      <c r="H248" s="18"/>
+      <c r="H248" s="17"/>
       <c r="I248" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6699,7 +6700,7 @@
         <v>#N/A</v>
       </c>
       <c r="G249" s="10"/>
-      <c r="H249" s="18"/>
+      <c r="H249" s="17"/>
       <c r="I249" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6723,7 +6724,7 @@
         <v>#N/A</v>
       </c>
       <c r="G250" s="10"/>
-      <c r="H250" s="18"/>
+      <c r="H250" s="17"/>
       <c r="I250" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6747,7 +6748,7 @@
         <v>#N/A</v>
       </c>
       <c r="G251" s="10"/>
-      <c r="H251" s="18"/>
+      <c r="H251" s="17"/>
       <c r="I251" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6771,7 +6772,7 @@
         <v>#N/A</v>
       </c>
       <c r="G252" s="10"/>
-      <c r="H252" s="18"/>
+      <c r="H252" s="17"/>
       <c r="I252" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6795,7 +6796,7 @@
         <v>#N/A</v>
       </c>
       <c r="G253" s="10"/>
-      <c r="H253" s="18"/>
+      <c r="H253" s="17"/>
       <c r="I253" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6819,7 +6820,7 @@
         <v>#N/A</v>
       </c>
       <c r="G254" s="10"/>
-      <c r="H254" s="18"/>
+      <c r="H254" s="17"/>
       <c r="I254" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6843,7 +6844,7 @@
         <v>#N/A</v>
       </c>
       <c r="G255" s="10"/>
-      <c r="H255" s="18"/>
+      <c r="H255" s="17"/>
       <c r="I255" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6867,7 +6868,7 @@
         <v>#N/A</v>
       </c>
       <c r="G256" s="10"/>
-      <c r="H256" s="18"/>
+      <c r="H256" s="17"/>
       <c r="I256" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6891,7 +6892,7 @@
         <v>#N/A</v>
       </c>
       <c r="G257" s="10"/>
-      <c r="H257" s="18"/>
+      <c r="H257" s="17"/>
       <c r="I257" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6915,7 +6916,7 @@
         <v>#N/A</v>
       </c>
       <c r="G258" s="10"/>
-      <c r="H258" s="18"/>
+      <c r="H258" s="17"/>
       <c r="I258" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6939,7 +6940,7 @@
         <v>#N/A</v>
       </c>
       <c r="G259" s="10"/>
-      <c r="H259" s="18"/>
+      <c r="H259" s="17"/>
       <c r="I259" s="10" t="e">
         <f t="shared" ref="I259:I310" si="19">VLOOKUP(J259,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -6963,7 +6964,7 @@
         <v>#N/A</v>
       </c>
       <c r="G260" s="10"/>
-      <c r="H260" s="18"/>
+      <c r="H260" s="17"/>
       <c r="I260" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -6987,7 +6988,7 @@
         <v>#N/A</v>
       </c>
       <c r="G261" s="10"/>
-      <c r="H261" s="18"/>
+      <c r="H261" s="17"/>
       <c r="I261" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7011,7 +7012,7 @@
         <v>#N/A</v>
       </c>
       <c r="G262" s="10"/>
-      <c r="H262" s="18"/>
+      <c r="H262" s="17"/>
       <c r="I262" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7035,7 +7036,7 @@
         <v>#N/A</v>
       </c>
       <c r="G263" s="10"/>
-      <c r="H263" s="18"/>
+      <c r="H263" s="17"/>
       <c r="I263" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7059,7 +7060,7 @@
         <v>#N/A</v>
       </c>
       <c r="G264" s="10"/>
-      <c r="H264" s="18"/>
+      <c r="H264" s="17"/>
       <c r="I264" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7083,7 +7084,7 @@
         <v>#N/A</v>
       </c>
       <c r="G265" s="10"/>
-      <c r="H265" s="18"/>
+      <c r="H265" s="17"/>
       <c r="I265" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7107,7 +7108,7 @@
         <v>#N/A</v>
       </c>
       <c r="G266" s="10"/>
-      <c r="H266" s="18"/>
+      <c r="H266" s="17"/>
       <c r="I266" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7131,7 +7132,7 @@
         <v>#N/A</v>
       </c>
       <c r="G267" s="10"/>
-      <c r="H267" s="18"/>
+      <c r="H267" s="17"/>
       <c r="I267" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7155,7 +7156,7 @@
         <v>#N/A</v>
       </c>
       <c r="G268" s="10"/>
-      <c r="H268" s="18"/>
+      <c r="H268" s="17"/>
       <c r="I268" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7179,7 +7180,7 @@
         <v>#N/A</v>
       </c>
       <c r="G269" s="10"/>
-      <c r="H269" s="18"/>
+      <c r="H269" s="17"/>
       <c r="I269" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7203,7 +7204,7 @@
         <v>#N/A</v>
       </c>
       <c r="G270" s="10"/>
-      <c r="H270" s="18"/>
+      <c r="H270" s="17"/>
       <c r="I270" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7227,7 +7228,7 @@
         <v>#N/A</v>
       </c>
       <c r="G271" s="10"/>
-      <c r="H271" s="18"/>
+      <c r="H271" s="17"/>
       <c r="I271" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7251,7 +7252,7 @@
         <v>#N/A</v>
       </c>
       <c r="G272" s="10"/>
-      <c r="H272" s="18"/>
+      <c r="H272" s="17"/>
       <c r="I272" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7275,7 +7276,7 @@
         <v>#N/A</v>
       </c>
       <c r="G273" s="10"/>
-      <c r="H273" s="18"/>
+      <c r="H273" s="17"/>
       <c r="I273" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7299,7 +7300,7 @@
         <v>#N/A</v>
       </c>
       <c r="G274" s="10"/>
-      <c r="H274" s="18"/>
+      <c r="H274" s="17"/>
       <c r="I274" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7323,7 +7324,7 @@
         <v>#N/A</v>
       </c>
       <c r="G275" s="10"/>
-      <c r="H275" s="18"/>
+      <c r="H275" s="17"/>
       <c r="I275" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7347,7 +7348,7 @@
         <v>#N/A</v>
       </c>
       <c r="G276" s="10"/>
-      <c r="H276" s="18"/>
+      <c r="H276" s="17"/>
       <c r="I276" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7371,7 +7372,7 @@
         <v>#N/A</v>
       </c>
       <c r="G277" s="10"/>
-      <c r="H277" s="18"/>
+      <c r="H277" s="17"/>
       <c r="I277" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7395,7 +7396,7 @@
         <v>#N/A</v>
       </c>
       <c r="G278" s="10"/>
-      <c r="H278" s="18"/>
+      <c r="H278" s="17"/>
       <c r="I278" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7419,7 +7420,7 @@
         <v>#N/A</v>
       </c>
       <c r="G279" s="10"/>
-      <c r="H279" s="18"/>
+      <c r="H279" s="17"/>
       <c r="I279" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7443,7 +7444,7 @@
         <v>#N/A</v>
       </c>
       <c r="G280" s="10"/>
-      <c r="H280" s="18"/>
+      <c r="H280" s="17"/>
       <c r="I280" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7467,7 +7468,7 @@
         <v>#N/A</v>
       </c>
       <c r="G281" s="10"/>
-      <c r="H281" s="18"/>
+      <c r="H281" s="17"/>
       <c r="I281" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7491,7 +7492,7 @@
         <v>#N/A</v>
       </c>
       <c r="G282" s="10"/>
-      <c r="H282" s="18"/>
+      <c r="H282" s="17"/>
       <c r="I282" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7515,7 +7516,7 @@
         <v>#N/A</v>
       </c>
       <c r="G283" s="10"/>
-      <c r="H283" s="18"/>
+      <c r="H283" s="17"/>
       <c r="I283" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7539,7 +7540,7 @@
         <v>#N/A</v>
       </c>
       <c r="G284" s="10"/>
-      <c r="H284" s="18"/>
+      <c r="H284" s="17"/>
       <c r="I284" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7563,7 +7564,7 @@
         <v>#N/A</v>
       </c>
       <c r="G285" s="10"/>
-      <c r="H285" s="18"/>
+      <c r="H285" s="17"/>
       <c r="I285" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7587,7 +7588,7 @@
         <v>#N/A</v>
       </c>
       <c r="G286" s="10"/>
-      <c r="H286" s="18"/>
+      <c r="H286" s="17"/>
       <c r="I286" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7611,7 +7612,7 @@
         <v>#N/A</v>
       </c>
       <c r="G287" s="10"/>
-      <c r="H287" s="18"/>
+      <c r="H287" s="17"/>
       <c r="I287" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7635,7 +7636,7 @@
         <v>#N/A</v>
       </c>
       <c r="G288" s="10"/>
-      <c r="H288" s="18"/>
+      <c r="H288" s="17"/>
       <c r="I288" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7659,7 +7660,7 @@
         <v>#N/A</v>
       </c>
       <c r="G289" s="10"/>
-      <c r="H289" s="18"/>
+      <c r="H289" s="17"/>
       <c r="I289" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7683,7 +7684,7 @@
         <v>#N/A</v>
       </c>
       <c r="G290" s="10"/>
-      <c r="H290" s="18"/>
+      <c r="H290" s="17"/>
       <c r="I290" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7707,7 +7708,7 @@
         <v>#N/A</v>
       </c>
       <c r="G291" s="10"/>
-      <c r="H291" s="18"/>
+      <c r="H291" s="17"/>
       <c r="I291" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7731,7 +7732,7 @@
         <v>#N/A</v>
       </c>
       <c r="G292" s="10"/>
-      <c r="H292" s="18"/>
+      <c r="H292" s="17"/>
       <c r="I292" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7755,7 +7756,7 @@
         <v>#N/A</v>
       </c>
       <c r="G293" s="10"/>
-      <c r="H293" s="18"/>
+      <c r="H293" s="17"/>
       <c r="I293" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7779,7 +7780,7 @@
         <v>#N/A</v>
       </c>
       <c r="G294" s="10"/>
-      <c r="H294" s="18"/>
+      <c r="H294" s="17"/>
       <c r="I294" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7803,7 +7804,7 @@
         <v>#N/A</v>
       </c>
       <c r="G295" s="10"/>
-      <c r="H295" s="18"/>
+      <c r="H295" s="17"/>
       <c r="I295" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7827,7 +7828,7 @@
         <v>#N/A</v>
       </c>
       <c r="G296" s="10"/>
-      <c r="H296" s="18"/>
+      <c r="H296" s="17"/>
       <c r="I296" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7851,7 +7852,7 @@
         <v>#N/A</v>
       </c>
       <c r="G297" s="10"/>
-      <c r="H297" s="18"/>
+      <c r="H297" s="17"/>
       <c r="I297" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7875,7 +7876,7 @@
         <v>#N/A</v>
       </c>
       <c r="G298" s="10"/>
-      <c r="H298" s="18"/>
+      <c r="H298" s="17"/>
       <c r="I298" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7899,7 +7900,7 @@
         <v>#N/A</v>
       </c>
       <c r="G299" s="10"/>
-      <c r="H299" s="18"/>
+      <c r="H299" s="17"/>
       <c r="I299" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7923,7 +7924,7 @@
         <v>#N/A</v>
       </c>
       <c r="G300" s="10"/>
-      <c r="H300" s="18"/>
+      <c r="H300" s="17"/>
       <c r="I300" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7947,7 +7948,7 @@
         <v>#N/A</v>
       </c>
       <c r="G301" s="10"/>
-      <c r="H301" s="18"/>
+      <c r="H301" s="17"/>
       <c r="I301" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7971,7 +7972,7 @@
         <v>#N/A</v>
       </c>
       <c r="G302" s="10"/>
-      <c r="H302" s="18"/>
+      <c r="H302" s="17"/>
       <c r="I302" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7995,7 +7996,7 @@
         <v>#N/A</v>
       </c>
       <c r="G303" s="10"/>
-      <c r="H303" s="18"/>
+      <c r="H303" s="17"/>
       <c r="I303" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8019,7 +8020,7 @@
         <v>#N/A</v>
       </c>
       <c r="G304" s="10"/>
-      <c r="H304" s="18"/>
+      <c r="H304" s="17"/>
       <c r="I304" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8043,7 +8044,7 @@
         <v>#N/A</v>
       </c>
       <c r="G305" s="10"/>
-      <c r="H305" s="18"/>
+      <c r="H305" s="17"/>
       <c r="I305" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8067,7 +8068,7 @@
         <v>#N/A</v>
       </c>
       <c r="G306" s="10"/>
-      <c r="H306" s="18"/>
+      <c r="H306" s="17"/>
       <c r="I306" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8091,7 +8092,7 @@
         <v>#N/A</v>
       </c>
       <c r="G307" s="10"/>
-      <c r="H307" s="18"/>
+      <c r="H307" s="17"/>
       <c r="I307" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8115,7 +8116,7 @@
         <v>#N/A</v>
       </c>
       <c r="G308" s="10"/>
-      <c r="H308" s="18"/>
+      <c r="H308" s="17"/>
       <c r="I308" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8139,7 +8140,7 @@
         <v>#N/A</v>
       </c>
       <c r="G309" s="10"/>
-      <c r="H309" s="18"/>
+      <c r="H309" s="17"/>
       <c r="I309" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8163,7 +8164,7 @@
         <v>#N/A</v>
       </c>
       <c r="G310" s="10"/>
-      <c r="H310" s="18"/>
+      <c r="H310" s="17"/>
       <c r="I310" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8171,10 +8172,10 @@
       <c r="J310" s="10"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H311" s="18"/>
+      <c r="H311" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UloyharNfcBD3rCtC/DN+TO7y5ILq3AhnJnwvw5AGBkjYiORyf+I/k2L94aIfowRcWUsK+dTrbMmPUt5fIzyqQ==" saltValue="1wNomI38G/laPcH917GnhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Yr1oDB68Mhcj+iA4VyJVNDCu8FviVr3iO5YLjjKhLictro/7tHyWkOioWWWyrAczYGdpHww5wr9h4eUQOl2U3A==" saltValue="nLIMP2xWImcZnvpRq4/kYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A310" xr:uid="{ECE28117-C8FA-4388-B6C8-4DC009C7D8F9}">
       <formula1>Lista_Anno</formula1>
@@ -8202,6 +8203,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8240,7 +8242,7 @@
         <v>2012</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Nuevas  Plantillas con alfonso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286EA8FC-AF9D-481D-88A1-05F4F110F989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC69B16-0844-49A2-81F1-B95B02FE940B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -159,25 +159,25 @@
     <t xml:space="preserve">Capacidad Calentador </t>
   </si>
   <si>
-    <t>Año en que se compró el equipo. Seleccione de la  lista desplegable</t>
-  </si>
-  <si>
     <t>Capacidad (L)</t>
-  </si>
-  <si>
-    <t>Etiqueta del equipo anterior o reemplazado. Seleccione de lista desplegable</t>
-  </si>
-  <si>
-    <t>Etiqueta del equipo nuevo. Seleccione de lista desplegable</t>
   </si>
   <si>
     <t>Número de unidades de este equipo. Inserte su dato.</t>
   </si>
   <si>
-    <t>Mes en que se compro el artefecto. Seleccione el desplegable</t>
+    <t>Año en que se compró el equipo. Seleccione de la  lista desplegable.</t>
   </si>
   <si>
-    <t>Capacidad del calentador de agua eléctrico. Seleccione de la lista desplegable</t>
+    <t>Capacidad del calentador de agua eléctrico. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Etiqueta del equipo anterior o reemplazado. Seleccione de lista desplegable.</t>
+  </si>
+  <si>
+    <t>Etiqueta del equipo nuevo. Seleccione de lista desplegable.</t>
+  </si>
+  <si>
+    <t>Mes en que se compro el artefecto. Seleccione el desplegable.</t>
   </si>
 </sst>
 </file>
@@ -207,18 +207,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -343,9 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -374,7 +372,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -694,7 +695,7 @@
   <dimension ref="A1:J311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -744,88 +745,88 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
+      <c r="A2" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="11" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2014</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_Capacidad,2,)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>50</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <f t="shared" ref="D3:D66" si="1">VLOOKUP(E3,Tabla_BAU,2,)</f>
         <v>5</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F66" si="2">VLOOKUP(G3,Tabla_Iniciativa,2,)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>7000</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <f t="shared" ref="I3:I66" si="3">VLOOKUP(J3,Tabla_Mes,2,)</f>
         <v>6</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="e">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="e">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="e">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="16" t="e">
+      <c r="G4" s="14"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="15" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -844,7 +845,7 @@
         <v>#N/A</v>
       </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="17"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -868,7 +869,7 @@
         <v>#N/A</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="17"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -892,7 +893,7 @@
         <v>#N/A</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="17"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -916,7 +917,7 @@
         <v>#N/A</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -940,7 +941,7 @@
         <v>#N/A</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -964,7 +965,7 @@
         <v>#N/A</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -988,7 +989,7 @@
         <v>#N/A</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1012,7 +1013,7 @@
         <v>#N/A</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1036,7 +1037,7 @@
         <v>#N/A</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1060,7 +1061,7 @@
         <v>#N/A</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1084,7 +1085,7 @@
         <v>#N/A</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1108,7 +1109,7 @@
         <v>#N/A</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="17"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1132,7 +1133,7 @@
         <v>#N/A</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="17"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1156,7 +1157,7 @@
         <v>#N/A</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1180,7 +1181,7 @@
         <v>#N/A</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="17"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1204,7 +1205,7 @@
         <v>#N/A</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1228,7 +1229,7 @@
         <v>#N/A</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1252,7 +1253,7 @@
         <v>#N/A</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="17"/>
+      <c r="H22" s="16"/>
       <c r="I22" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1276,7 +1277,7 @@
         <v>#N/A</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="17"/>
+      <c r="H23" s="16"/>
       <c r="I23" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1300,7 +1301,7 @@
         <v>#N/A</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1324,7 +1325,7 @@
         <v>#N/A</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1348,7 +1349,7 @@
         <v>#N/A</v>
       </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="17"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1372,7 +1373,7 @@
         <v>#N/A</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1396,7 +1397,7 @@
         <v>#N/A</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="17"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1420,7 +1421,7 @@
         <v>#N/A</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="17"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1444,7 +1445,7 @@
         <v>#N/A</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1468,7 +1469,7 @@
         <v>#N/A</v>
       </c>
       <c r="G31" s="10"/>
-      <c r="H31" s="17"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1492,7 +1493,7 @@
         <v>#N/A</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="H32" s="17"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1516,7 +1517,7 @@
         <v>#N/A</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="17"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1540,7 +1541,7 @@
         <v>#N/A</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="17"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1564,7 +1565,7 @@
         <v>#N/A</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="17"/>
+      <c r="H35" s="16"/>
       <c r="I35" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1588,7 +1589,7 @@
         <v>#N/A</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="17"/>
+      <c r="H36" s="16"/>
       <c r="I36" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1612,7 +1613,7 @@
         <v>#N/A</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="17"/>
+      <c r="H37" s="16"/>
       <c r="I37" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1636,7 +1637,7 @@
         <v>#N/A</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="17"/>
+      <c r="H38" s="16"/>
       <c r="I38" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1660,7 +1661,7 @@
         <v>#N/A</v>
       </c>
       <c r="G39" s="10"/>
-      <c r="H39" s="17"/>
+      <c r="H39" s="16"/>
       <c r="I39" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1684,7 +1685,7 @@
         <v>#N/A</v>
       </c>
       <c r="G40" s="10"/>
-      <c r="H40" s="17"/>
+      <c r="H40" s="16"/>
       <c r="I40" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1708,7 +1709,7 @@
         <v>#N/A</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="17"/>
+      <c r="H41" s="16"/>
       <c r="I41" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1732,7 +1733,7 @@
         <v>#N/A</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="17"/>
+      <c r="H42" s="16"/>
       <c r="I42" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1756,7 +1757,7 @@
         <v>#N/A</v>
       </c>
       <c r="G43" s="10"/>
-      <c r="H43" s="17"/>
+      <c r="H43" s="16"/>
       <c r="I43" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1780,7 +1781,7 @@
         <v>#N/A</v>
       </c>
       <c r="G44" s="10"/>
-      <c r="H44" s="17"/>
+      <c r="H44" s="16"/>
       <c r="I44" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1804,7 +1805,7 @@
         <v>#N/A</v>
       </c>
       <c r="G45" s="10"/>
-      <c r="H45" s="17"/>
+      <c r="H45" s="16"/>
       <c r="I45" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1828,7 +1829,7 @@
         <v>#N/A</v>
       </c>
       <c r="G46" s="10"/>
-      <c r="H46" s="17"/>
+      <c r="H46" s="16"/>
       <c r="I46" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1852,7 +1853,7 @@
         <v>#N/A</v>
       </c>
       <c r="G47" s="10"/>
-      <c r="H47" s="17"/>
+      <c r="H47" s="16"/>
       <c r="I47" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1876,7 +1877,7 @@
         <v>#N/A</v>
       </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="17"/>
+      <c r="H48" s="16"/>
       <c r="I48" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1900,7 +1901,7 @@
         <v>#N/A</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="17"/>
+      <c r="H49" s="16"/>
       <c r="I49" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1924,7 +1925,7 @@
         <v>#N/A</v>
       </c>
       <c r="G50" s="10"/>
-      <c r="H50" s="17"/>
+      <c r="H50" s="16"/>
       <c r="I50" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1948,7 +1949,7 @@
         <v>#N/A</v>
       </c>
       <c r="G51" s="10"/>
-      <c r="H51" s="17"/>
+      <c r="H51" s="16"/>
       <c r="I51" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1972,7 +1973,7 @@
         <v>#N/A</v>
       </c>
       <c r="G52" s="10"/>
-      <c r="H52" s="17"/>
+      <c r="H52" s="16"/>
       <c r="I52" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -1996,7 +1997,7 @@
         <v>#N/A</v>
       </c>
       <c r="G53" s="10"/>
-      <c r="H53" s="17"/>
+      <c r="H53" s="16"/>
       <c r="I53" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2020,7 +2021,7 @@
         <v>#N/A</v>
       </c>
       <c r="G54" s="10"/>
-      <c r="H54" s="17"/>
+      <c r="H54" s="16"/>
       <c r="I54" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2044,7 +2045,7 @@
         <v>#N/A</v>
       </c>
       <c r="G55" s="10"/>
-      <c r="H55" s="17"/>
+      <c r="H55" s="16"/>
       <c r="I55" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2068,7 +2069,7 @@
         <v>#N/A</v>
       </c>
       <c r="G56" s="10"/>
-      <c r="H56" s="17"/>
+      <c r="H56" s="16"/>
       <c r="I56" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2092,7 +2093,7 @@
         <v>#N/A</v>
       </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="17"/>
+      <c r="H57" s="16"/>
       <c r="I57" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2116,7 +2117,7 @@
         <v>#N/A</v>
       </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="17"/>
+      <c r="H58" s="16"/>
       <c r="I58" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2140,7 +2141,7 @@
         <v>#N/A</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="17"/>
+      <c r="H59" s="16"/>
       <c r="I59" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2164,7 +2165,7 @@
         <v>#N/A</v>
       </c>
       <c r="G60" s="10"/>
-      <c r="H60" s="17"/>
+      <c r="H60" s="16"/>
       <c r="I60" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2188,7 +2189,7 @@
         <v>#N/A</v>
       </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="17"/>
+      <c r="H61" s="16"/>
       <c r="I61" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2212,7 +2213,7 @@
         <v>#N/A</v>
       </c>
       <c r="G62" s="10"/>
-      <c r="H62" s="17"/>
+      <c r="H62" s="16"/>
       <c r="I62" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2236,7 +2237,7 @@
         <v>#N/A</v>
       </c>
       <c r="G63" s="10"/>
-      <c r="H63" s="17"/>
+      <c r="H63" s="16"/>
       <c r="I63" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2260,7 +2261,7 @@
         <v>#N/A</v>
       </c>
       <c r="G64" s="10"/>
-      <c r="H64" s="17"/>
+      <c r="H64" s="16"/>
       <c r="I64" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2284,7 +2285,7 @@
         <v>#N/A</v>
       </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="17"/>
+      <c r="H65" s="16"/>
       <c r="I65" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2308,7 +2309,7 @@
         <v>#N/A</v>
       </c>
       <c r="G66" s="10"/>
-      <c r="H66" s="17"/>
+      <c r="H66" s="16"/>
       <c r="I66" s="10" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -2332,7 +2333,7 @@
         <v>#N/A</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="17"/>
+      <c r="H67" s="16"/>
       <c r="I67" s="10" t="e">
         <f t="shared" ref="I67:I130" si="7">VLOOKUP(J67,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -2356,7 +2357,7 @@
         <v>#N/A</v>
       </c>
       <c r="G68" s="10"/>
-      <c r="H68" s="17"/>
+      <c r="H68" s="16"/>
       <c r="I68" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2380,7 +2381,7 @@
         <v>#N/A</v>
       </c>
       <c r="G69" s="10"/>
-      <c r="H69" s="17"/>
+      <c r="H69" s="16"/>
       <c r="I69" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2404,7 +2405,7 @@
         <v>#N/A</v>
       </c>
       <c r="G70" s="10"/>
-      <c r="H70" s="17"/>
+      <c r="H70" s="16"/>
       <c r="I70" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2428,7 +2429,7 @@
         <v>#N/A</v>
       </c>
       <c r="G71" s="10"/>
-      <c r="H71" s="17"/>
+      <c r="H71" s="16"/>
       <c r="I71" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2452,7 +2453,7 @@
         <v>#N/A</v>
       </c>
       <c r="G72" s="10"/>
-      <c r="H72" s="17"/>
+      <c r="H72" s="16"/>
       <c r="I72" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2476,7 +2477,7 @@
         <v>#N/A</v>
       </c>
       <c r="G73" s="10"/>
-      <c r="H73" s="17"/>
+      <c r="H73" s="16"/>
       <c r="I73" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2500,7 +2501,7 @@
         <v>#N/A</v>
       </c>
       <c r="G74" s="10"/>
-      <c r="H74" s="17"/>
+      <c r="H74" s="16"/>
       <c r="I74" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2524,7 +2525,7 @@
         <v>#N/A</v>
       </c>
       <c r="G75" s="10"/>
-      <c r="H75" s="17"/>
+      <c r="H75" s="16"/>
       <c r="I75" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2548,7 +2549,7 @@
         <v>#N/A</v>
       </c>
       <c r="G76" s="10"/>
-      <c r="H76" s="17"/>
+      <c r="H76" s="16"/>
       <c r="I76" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2572,7 +2573,7 @@
         <v>#N/A</v>
       </c>
       <c r="G77" s="10"/>
-      <c r="H77" s="17"/>
+      <c r="H77" s="16"/>
       <c r="I77" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2596,7 +2597,7 @@
         <v>#N/A</v>
       </c>
       <c r="G78" s="10"/>
-      <c r="H78" s="17"/>
+      <c r="H78" s="16"/>
       <c r="I78" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2620,7 +2621,7 @@
         <v>#N/A</v>
       </c>
       <c r="G79" s="10"/>
-      <c r="H79" s="17"/>
+      <c r="H79" s="16"/>
       <c r="I79" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2644,7 +2645,7 @@
         <v>#N/A</v>
       </c>
       <c r="G80" s="10"/>
-      <c r="H80" s="17"/>
+      <c r="H80" s="16"/>
       <c r="I80" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2668,7 +2669,7 @@
         <v>#N/A</v>
       </c>
       <c r="G81" s="10"/>
-      <c r="H81" s="17"/>
+      <c r="H81" s="16"/>
       <c r="I81" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2692,7 +2693,7 @@
         <v>#N/A</v>
       </c>
       <c r="G82" s="10"/>
-      <c r="H82" s="17"/>
+      <c r="H82" s="16"/>
       <c r="I82" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2716,7 +2717,7 @@
         <v>#N/A</v>
       </c>
       <c r="G83" s="10"/>
-      <c r="H83" s="17"/>
+      <c r="H83" s="16"/>
       <c r="I83" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2740,7 +2741,7 @@
         <v>#N/A</v>
       </c>
       <c r="G84" s="10"/>
-      <c r="H84" s="17"/>
+      <c r="H84" s="16"/>
       <c r="I84" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2764,7 +2765,7 @@
         <v>#N/A</v>
       </c>
       <c r="G85" s="10"/>
-      <c r="H85" s="17"/>
+      <c r="H85" s="16"/>
       <c r="I85" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2788,7 +2789,7 @@
         <v>#N/A</v>
       </c>
       <c r="G86" s="10"/>
-      <c r="H86" s="17"/>
+      <c r="H86" s="16"/>
       <c r="I86" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2812,7 +2813,7 @@
         <v>#N/A</v>
       </c>
       <c r="G87" s="10"/>
-      <c r="H87" s="17"/>
+      <c r="H87" s="16"/>
       <c r="I87" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2836,7 +2837,7 @@
         <v>#N/A</v>
       </c>
       <c r="G88" s="10"/>
-      <c r="H88" s="17"/>
+      <c r="H88" s="16"/>
       <c r="I88" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2860,7 +2861,7 @@
         <v>#N/A</v>
       </c>
       <c r="G89" s="10"/>
-      <c r="H89" s="17"/>
+      <c r="H89" s="16"/>
       <c r="I89" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2884,7 +2885,7 @@
         <v>#N/A</v>
       </c>
       <c r="G90" s="10"/>
-      <c r="H90" s="17"/>
+      <c r="H90" s="16"/>
       <c r="I90" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2908,7 +2909,7 @@
         <v>#N/A</v>
       </c>
       <c r="G91" s="10"/>
-      <c r="H91" s="17"/>
+      <c r="H91" s="16"/>
       <c r="I91" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2932,7 +2933,7 @@
         <v>#N/A</v>
       </c>
       <c r="G92" s="10"/>
-      <c r="H92" s="17"/>
+      <c r="H92" s="16"/>
       <c r="I92" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2956,7 +2957,7 @@
         <v>#N/A</v>
       </c>
       <c r="G93" s="10"/>
-      <c r="H93" s="17"/>
+      <c r="H93" s="16"/>
       <c r="I93" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -2980,7 +2981,7 @@
         <v>#N/A</v>
       </c>
       <c r="G94" s="10"/>
-      <c r="H94" s="17"/>
+      <c r="H94" s="16"/>
       <c r="I94" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3004,7 +3005,7 @@
         <v>#N/A</v>
       </c>
       <c r="G95" s="10"/>
-      <c r="H95" s="17"/>
+      <c r="H95" s="16"/>
       <c r="I95" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3028,7 +3029,7 @@
         <v>#N/A</v>
       </c>
       <c r="G96" s="10"/>
-      <c r="H96" s="17"/>
+      <c r="H96" s="16"/>
       <c r="I96" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3052,7 +3053,7 @@
         <v>#N/A</v>
       </c>
       <c r="G97" s="10"/>
-      <c r="H97" s="17"/>
+      <c r="H97" s="16"/>
       <c r="I97" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3076,7 +3077,7 @@
         <v>#N/A</v>
       </c>
       <c r="G98" s="10"/>
-      <c r="H98" s="17"/>
+      <c r="H98" s="16"/>
       <c r="I98" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3100,7 +3101,7 @@
         <v>#N/A</v>
       </c>
       <c r="G99" s="10"/>
-      <c r="H99" s="17"/>
+      <c r="H99" s="16"/>
       <c r="I99" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3124,7 +3125,7 @@
         <v>#N/A</v>
       </c>
       <c r="G100" s="10"/>
-      <c r="H100" s="17"/>
+      <c r="H100" s="16"/>
       <c r="I100" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3148,7 +3149,7 @@
         <v>#N/A</v>
       </c>
       <c r="G101" s="10"/>
-      <c r="H101" s="17"/>
+      <c r="H101" s="16"/>
       <c r="I101" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3172,7 +3173,7 @@
         <v>#N/A</v>
       </c>
       <c r="G102" s="10"/>
-      <c r="H102" s="17"/>
+      <c r="H102" s="16"/>
       <c r="I102" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3196,7 +3197,7 @@
         <v>#N/A</v>
       </c>
       <c r="G103" s="10"/>
-      <c r="H103" s="17"/>
+      <c r="H103" s="16"/>
       <c r="I103" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3220,7 +3221,7 @@
         <v>#N/A</v>
       </c>
       <c r="G104" s="10"/>
-      <c r="H104" s="17"/>
+      <c r="H104" s="16"/>
       <c r="I104" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3244,7 +3245,7 @@
         <v>#N/A</v>
       </c>
       <c r="G105" s="10"/>
-      <c r="H105" s="17"/>
+      <c r="H105" s="16"/>
       <c r="I105" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3268,7 +3269,7 @@
         <v>#N/A</v>
       </c>
       <c r="G106" s="10"/>
-      <c r="H106" s="17"/>
+      <c r="H106" s="16"/>
       <c r="I106" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3292,7 +3293,7 @@
         <v>#N/A</v>
       </c>
       <c r="G107" s="10"/>
-      <c r="H107" s="17"/>
+      <c r="H107" s="16"/>
       <c r="I107" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3316,7 +3317,7 @@
         <v>#N/A</v>
       </c>
       <c r="G108" s="10"/>
-      <c r="H108" s="17"/>
+      <c r="H108" s="16"/>
       <c r="I108" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3340,7 +3341,7 @@
         <v>#N/A</v>
       </c>
       <c r="G109" s="10"/>
-      <c r="H109" s="17"/>
+      <c r="H109" s="16"/>
       <c r="I109" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3364,7 +3365,7 @@
         <v>#N/A</v>
       </c>
       <c r="G110" s="10"/>
-      <c r="H110" s="17"/>
+      <c r="H110" s="16"/>
       <c r="I110" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3388,7 +3389,7 @@
         <v>#N/A</v>
       </c>
       <c r="G111" s="10"/>
-      <c r="H111" s="17"/>
+      <c r="H111" s="16"/>
       <c r="I111" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3412,7 +3413,7 @@
         <v>#N/A</v>
       </c>
       <c r="G112" s="10"/>
-      <c r="H112" s="17"/>
+      <c r="H112" s="16"/>
       <c r="I112" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3436,7 +3437,7 @@
         <v>#N/A</v>
       </c>
       <c r="G113" s="10"/>
-      <c r="H113" s="17"/>
+      <c r="H113" s="16"/>
       <c r="I113" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3460,7 +3461,7 @@
         <v>#N/A</v>
       </c>
       <c r="G114" s="10"/>
-      <c r="H114" s="17"/>
+      <c r="H114" s="16"/>
       <c r="I114" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3484,7 +3485,7 @@
         <v>#N/A</v>
       </c>
       <c r="G115" s="10"/>
-      <c r="H115" s="17"/>
+      <c r="H115" s="16"/>
       <c r="I115" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3508,7 +3509,7 @@
         <v>#N/A</v>
       </c>
       <c r="G116" s="10"/>
-      <c r="H116" s="17"/>
+      <c r="H116" s="16"/>
       <c r="I116" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3532,7 +3533,7 @@
         <v>#N/A</v>
       </c>
       <c r="G117" s="10"/>
-      <c r="H117" s="17"/>
+      <c r="H117" s="16"/>
       <c r="I117" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3556,7 +3557,7 @@
         <v>#N/A</v>
       </c>
       <c r="G118" s="10"/>
-      <c r="H118" s="17"/>
+      <c r="H118" s="16"/>
       <c r="I118" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3580,7 +3581,7 @@
         <v>#N/A</v>
       </c>
       <c r="G119" s="10"/>
-      <c r="H119" s="17"/>
+      <c r="H119" s="16"/>
       <c r="I119" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3604,7 +3605,7 @@
         <v>#N/A</v>
       </c>
       <c r="G120" s="10"/>
-      <c r="H120" s="17"/>
+      <c r="H120" s="16"/>
       <c r="I120" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3628,7 +3629,7 @@
         <v>#N/A</v>
       </c>
       <c r="G121" s="10"/>
-      <c r="H121" s="17"/>
+      <c r="H121" s="16"/>
       <c r="I121" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3652,7 +3653,7 @@
         <v>#N/A</v>
       </c>
       <c r="G122" s="10"/>
-      <c r="H122" s="17"/>
+      <c r="H122" s="16"/>
       <c r="I122" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3676,7 +3677,7 @@
         <v>#N/A</v>
       </c>
       <c r="G123" s="10"/>
-      <c r="H123" s="17"/>
+      <c r="H123" s="16"/>
       <c r="I123" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3700,7 +3701,7 @@
         <v>#N/A</v>
       </c>
       <c r="G124" s="10"/>
-      <c r="H124" s="17"/>
+      <c r="H124" s="16"/>
       <c r="I124" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3724,7 +3725,7 @@
         <v>#N/A</v>
       </c>
       <c r="G125" s="10"/>
-      <c r="H125" s="17"/>
+      <c r="H125" s="16"/>
       <c r="I125" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3748,7 +3749,7 @@
         <v>#N/A</v>
       </c>
       <c r="G126" s="10"/>
-      <c r="H126" s="17"/>
+      <c r="H126" s="16"/>
       <c r="I126" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3772,7 +3773,7 @@
         <v>#N/A</v>
       </c>
       <c r="G127" s="10"/>
-      <c r="H127" s="17"/>
+      <c r="H127" s="16"/>
       <c r="I127" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3796,7 +3797,7 @@
         <v>#N/A</v>
       </c>
       <c r="G128" s="10"/>
-      <c r="H128" s="17"/>
+      <c r="H128" s="16"/>
       <c r="I128" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3820,7 +3821,7 @@
         <v>#N/A</v>
       </c>
       <c r="G129" s="10"/>
-      <c r="H129" s="17"/>
+      <c r="H129" s="16"/>
       <c r="I129" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3844,7 +3845,7 @@
         <v>#N/A</v>
       </c>
       <c r="G130" s="10"/>
-      <c r="H130" s="17"/>
+      <c r="H130" s="16"/>
       <c r="I130" s="10" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
@@ -3868,7 +3869,7 @@
         <v>#N/A</v>
       </c>
       <c r="G131" s="10"/>
-      <c r="H131" s="17"/>
+      <c r="H131" s="16"/>
       <c r="I131" s="10" t="e">
         <f t="shared" ref="I131:I194" si="11">VLOOKUP(J131,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -3892,7 +3893,7 @@
         <v>#N/A</v>
       </c>
       <c r="G132" s="10"/>
-      <c r="H132" s="17"/>
+      <c r="H132" s="16"/>
       <c r="I132" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3916,7 +3917,7 @@
         <v>#N/A</v>
       </c>
       <c r="G133" s="10"/>
-      <c r="H133" s="17"/>
+      <c r="H133" s="16"/>
       <c r="I133" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3940,7 +3941,7 @@
         <v>#N/A</v>
       </c>
       <c r="G134" s="10"/>
-      <c r="H134" s="17"/>
+      <c r="H134" s="16"/>
       <c r="I134" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3964,7 +3965,7 @@
         <v>#N/A</v>
       </c>
       <c r="G135" s="10"/>
-      <c r="H135" s="17"/>
+      <c r="H135" s="16"/>
       <c r="I135" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -3988,7 +3989,7 @@
         <v>#N/A</v>
       </c>
       <c r="G136" s="10"/>
-      <c r="H136" s="17"/>
+      <c r="H136" s="16"/>
       <c r="I136" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4012,7 +4013,7 @@
         <v>#N/A</v>
       </c>
       <c r="G137" s="10"/>
-      <c r="H137" s="17"/>
+      <c r="H137" s="16"/>
       <c r="I137" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4036,7 +4037,7 @@
         <v>#N/A</v>
       </c>
       <c r="G138" s="10"/>
-      <c r="H138" s="17"/>
+      <c r="H138" s="16"/>
       <c r="I138" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4060,7 +4061,7 @@
         <v>#N/A</v>
       </c>
       <c r="G139" s="10"/>
-      <c r="H139" s="17"/>
+      <c r="H139" s="16"/>
       <c r="I139" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4084,7 +4085,7 @@
         <v>#N/A</v>
       </c>
       <c r="G140" s="10"/>
-      <c r="H140" s="17"/>
+      <c r="H140" s="16"/>
       <c r="I140" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4108,7 +4109,7 @@
         <v>#N/A</v>
       </c>
       <c r="G141" s="10"/>
-      <c r="H141" s="17"/>
+      <c r="H141" s="16"/>
       <c r="I141" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4132,7 +4133,7 @@
         <v>#N/A</v>
       </c>
       <c r="G142" s="10"/>
-      <c r="H142" s="17"/>
+      <c r="H142" s="16"/>
       <c r="I142" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4156,7 +4157,7 @@
         <v>#N/A</v>
       </c>
       <c r="G143" s="10"/>
-      <c r="H143" s="17"/>
+      <c r="H143" s="16"/>
       <c r="I143" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4180,7 +4181,7 @@
         <v>#N/A</v>
       </c>
       <c r="G144" s="10"/>
-      <c r="H144" s="17"/>
+      <c r="H144" s="16"/>
       <c r="I144" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4204,7 +4205,7 @@
         <v>#N/A</v>
       </c>
       <c r="G145" s="10"/>
-      <c r="H145" s="17"/>
+      <c r="H145" s="16"/>
       <c r="I145" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4228,7 +4229,7 @@
         <v>#N/A</v>
       </c>
       <c r="G146" s="10"/>
-      <c r="H146" s="17"/>
+      <c r="H146" s="16"/>
       <c r="I146" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4252,7 +4253,7 @@
         <v>#N/A</v>
       </c>
       <c r="G147" s="10"/>
-      <c r="H147" s="17"/>
+      <c r="H147" s="16"/>
       <c r="I147" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4276,7 +4277,7 @@
         <v>#N/A</v>
       </c>
       <c r="G148" s="10"/>
-      <c r="H148" s="17"/>
+      <c r="H148" s="16"/>
       <c r="I148" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4300,7 +4301,7 @@
         <v>#N/A</v>
       </c>
       <c r="G149" s="10"/>
-      <c r="H149" s="17"/>
+      <c r="H149" s="16"/>
       <c r="I149" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4324,7 +4325,7 @@
         <v>#N/A</v>
       </c>
       <c r="G150" s="10"/>
-      <c r="H150" s="17"/>
+      <c r="H150" s="16"/>
       <c r="I150" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4348,7 +4349,7 @@
         <v>#N/A</v>
       </c>
       <c r="G151" s="10"/>
-      <c r="H151" s="17"/>
+      <c r="H151" s="16"/>
       <c r="I151" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4372,7 +4373,7 @@
         <v>#N/A</v>
       </c>
       <c r="G152" s="10"/>
-      <c r="H152" s="17"/>
+      <c r="H152" s="16"/>
       <c r="I152" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4396,7 +4397,7 @@
         <v>#N/A</v>
       </c>
       <c r="G153" s="10"/>
-      <c r="H153" s="17"/>
+      <c r="H153" s="16"/>
       <c r="I153" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4420,7 +4421,7 @@
         <v>#N/A</v>
       </c>
       <c r="G154" s="10"/>
-      <c r="H154" s="17"/>
+      <c r="H154" s="16"/>
       <c r="I154" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4444,7 +4445,7 @@
         <v>#N/A</v>
       </c>
       <c r="G155" s="10"/>
-      <c r="H155" s="17"/>
+      <c r="H155" s="16"/>
       <c r="I155" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4468,7 +4469,7 @@
         <v>#N/A</v>
       </c>
       <c r="G156" s="10"/>
-      <c r="H156" s="17"/>
+      <c r="H156" s="16"/>
       <c r="I156" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4492,7 +4493,7 @@
         <v>#N/A</v>
       </c>
       <c r="G157" s="10"/>
-      <c r="H157" s="17"/>
+      <c r="H157" s="16"/>
       <c r="I157" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4516,7 +4517,7 @@
         <v>#N/A</v>
       </c>
       <c r="G158" s="10"/>
-      <c r="H158" s="17"/>
+      <c r="H158" s="16"/>
       <c r="I158" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4540,7 +4541,7 @@
         <v>#N/A</v>
       </c>
       <c r="G159" s="10"/>
-      <c r="H159" s="17"/>
+      <c r="H159" s="16"/>
       <c r="I159" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4564,7 +4565,7 @@
         <v>#N/A</v>
       </c>
       <c r="G160" s="10"/>
-      <c r="H160" s="17"/>
+      <c r="H160" s="16"/>
       <c r="I160" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4588,7 +4589,7 @@
         <v>#N/A</v>
       </c>
       <c r="G161" s="10"/>
-      <c r="H161" s="17"/>
+      <c r="H161" s="16"/>
       <c r="I161" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4612,7 +4613,7 @@
         <v>#N/A</v>
       </c>
       <c r="G162" s="10"/>
-      <c r="H162" s="17"/>
+      <c r="H162" s="16"/>
       <c r="I162" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4636,7 +4637,7 @@
         <v>#N/A</v>
       </c>
       <c r="G163" s="10"/>
-      <c r="H163" s="17"/>
+      <c r="H163" s="16"/>
       <c r="I163" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4660,7 +4661,7 @@
         <v>#N/A</v>
       </c>
       <c r="G164" s="10"/>
-      <c r="H164" s="17"/>
+      <c r="H164" s="16"/>
       <c r="I164" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4684,7 +4685,7 @@
         <v>#N/A</v>
       </c>
       <c r="G165" s="10"/>
-      <c r="H165" s="17"/>
+      <c r="H165" s="16"/>
       <c r="I165" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4708,7 +4709,7 @@
         <v>#N/A</v>
       </c>
       <c r="G166" s="10"/>
-      <c r="H166" s="17"/>
+      <c r="H166" s="16"/>
       <c r="I166" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4732,7 +4733,7 @@
         <v>#N/A</v>
       </c>
       <c r="G167" s="10"/>
-      <c r="H167" s="17"/>
+      <c r="H167" s="16"/>
       <c r="I167" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4756,7 +4757,7 @@
         <v>#N/A</v>
       </c>
       <c r="G168" s="10"/>
-      <c r="H168" s="17"/>
+      <c r="H168" s="16"/>
       <c r="I168" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4780,7 +4781,7 @@
         <v>#N/A</v>
       </c>
       <c r="G169" s="10"/>
-      <c r="H169" s="17"/>
+      <c r="H169" s="16"/>
       <c r="I169" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4804,7 +4805,7 @@
         <v>#N/A</v>
       </c>
       <c r="G170" s="10"/>
-      <c r="H170" s="17"/>
+      <c r="H170" s="16"/>
       <c r="I170" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4828,7 +4829,7 @@
         <v>#N/A</v>
       </c>
       <c r="G171" s="10"/>
-      <c r="H171" s="17"/>
+      <c r="H171" s="16"/>
       <c r="I171" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4852,7 +4853,7 @@
         <v>#N/A</v>
       </c>
       <c r="G172" s="10"/>
-      <c r="H172" s="17"/>
+      <c r="H172" s="16"/>
       <c r="I172" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4876,7 +4877,7 @@
         <v>#N/A</v>
       </c>
       <c r="G173" s="10"/>
-      <c r="H173" s="17"/>
+      <c r="H173" s="16"/>
       <c r="I173" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4900,7 +4901,7 @@
         <v>#N/A</v>
       </c>
       <c r="G174" s="10"/>
-      <c r="H174" s="17"/>
+      <c r="H174" s="16"/>
       <c r="I174" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4924,7 +4925,7 @@
         <v>#N/A</v>
       </c>
       <c r="G175" s="10"/>
-      <c r="H175" s="17"/>
+      <c r="H175" s="16"/>
       <c r="I175" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4948,7 +4949,7 @@
         <v>#N/A</v>
       </c>
       <c r="G176" s="10"/>
-      <c r="H176" s="17"/>
+      <c r="H176" s="16"/>
       <c r="I176" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4972,7 +4973,7 @@
         <v>#N/A</v>
       </c>
       <c r="G177" s="10"/>
-      <c r="H177" s="17"/>
+      <c r="H177" s="16"/>
       <c r="I177" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -4996,7 +4997,7 @@
         <v>#N/A</v>
       </c>
       <c r="G178" s="10"/>
-      <c r="H178" s="17"/>
+      <c r="H178" s="16"/>
       <c r="I178" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5020,7 +5021,7 @@
         <v>#N/A</v>
       </c>
       <c r="G179" s="10"/>
-      <c r="H179" s="17"/>
+      <c r="H179" s="16"/>
       <c r="I179" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5044,7 +5045,7 @@
         <v>#N/A</v>
       </c>
       <c r="G180" s="10"/>
-      <c r="H180" s="17"/>
+      <c r="H180" s="16"/>
       <c r="I180" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5068,7 +5069,7 @@
         <v>#N/A</v>
       </c>
       <c r="G181" s="10"/>
-      <c r="H181" s="17"/>
+      <c r="H181" s="16"/>
       <c r="I181" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5092,7 +5093,7 @@
         <v>#N/A</v>
       </c>
       <c r="G182" s="10"/>
-      <c r="H182" s="17"/>
+      <c r="H182" s="16"/>
       <c r="I182" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5116,7 +5117,7 @@
         <v>#N/A</v>
       </c>
       <c r="G183" s="10"/>
-      <c r="H183" s="17"/>
+      <c r="H183" s="16"/>
       <c r="I183" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5140,7 +5141,7 @@
         <v>#N/A</v>
       </c>
       <c r="G184" s="10"/>
-      <c r="H184" s="17"/>
+      <c r="H184" s="16"/>
       <c r="I184" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5164,7 +5165,7 @@
         <v>#N/A</v>
       </c>
       <c r="G185" s="10"/>
-      <c r="H185" s="17"/>
+      <c r="H185" s="16"/>
       <c r="I185" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5188,7 +5189,7 @@
         <v>#N/A</v>
       </c>
       <c r="G186" s="10"/>
-      <c r="H186" s="17"/>
+      <c r="H186" s="16"/>
       <c r="I186" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5212,7 +5213,7 @@
         <v>#N/A</v>
       </c>
       <c r="G187" s="10"/>
-      <c r="H187" s="17"/>
+      <c r="H187" s="16"/>
       <c r="I187" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5236,7 +5237,7 @@
         <v>#N/A</v>
       </c>
       <c r="G188" s="10"/>
-      <c r="H188" s="17"/>
+      <c r="H188" s="16"/>
       <c r="I188" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5260,7 +5261,7 @@
         <v>#N/A</v>
       </c>
       <c r="G189" s="10"/>
-      <c r="H189" s="17"/>
+      <c r="H189" s="16"/>
       <c r="I189" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5284,7 +5285,7 @@
         <v>#N/A</v>
       </c>
       <c r="G190" s="10"/>
-      <c r="H190" s="17"/>
+      <c r="H190" s="16"/>
       <c r="I190" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5308,7 +5309,7 @@
         <v>#N/A</v>
       </c>
       <c r="G191" s="10"/>
-      <c r="H191" s="17"/>
+      <c r="H191" s="16"/>
       <c r="I191" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5332,7 +5333,7 @@
         <v>#N/A</v>
       </c>
       <c r="G192" s="10"/>
-      <c r="H192" s="17"/>
+      <c r="H192" s="16"/>
       <c r="I192" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5356,7 +5357,7 @@
         <v>#N/A</v>
       </c>
       <c r="G193" s="10"/>
-      <c r="H193" s="17"/>
+      <c r="H193" s="16"/>
       <c r="I193" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5380,7 +5381,7 @@
         <v>#N/A</v>
       </c>
       <c r="G194" s="10"/>
-      <c r="H194" s="17"/>
+      <c r="H194" s="16"/>
       <c r="I194" s="10" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
@@ -5404,7 +5405,7 @@
         <v>#N/A</v>
       </c>
       <c r="G195" s="10"/>
-      <c r="H195" s="17"/>
+      <c r="H195" s="16"/>
       <c r="I195" s="10" t="e">
         <f t="shared" ref="I195:I258" si="15">VLOOKUP(J195,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -5428,7 +5429,7 @@
         <v>#N/A</v>
       </c>
       <c r="G196" s="10"/>
-      <c r="H196" s="17"/>
+      <c r="H196" s="16"/>
       <c r="I196" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5452,7 +5453,7 @@
         <v>#N/A</v>
       </c>
       <c r="G197" s="10"/>
-      <c r="H197" s="17"/>
+      <c r="H197" s="16"/>
       <c r="I197" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5476,7 +5477,7 @@
         <v>#N/A</v>
       </c>
       <c r="G198" s="10"/>
-      <c r="H198" s="17"/>
+      <c r="H198" s="16"/>
       <c r="I198" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5500,7 +5501,7 @@
         <v>#N/A</v>
       </c>
       <c r="G199" s="10"/>
-      <c r="H199" s="17"/>
+      <c r="H199" s="16"/>
       <c r="I199" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5524,7 +5525,7 @@
         <v>#N/A</v>
       </c>
       <c r="G200" s="10"/>
-      <c r="H200" s="17"/>
+      <c r="H200" s="16"/>
       <c r="I200" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5548,7 +5549,7 @@
         <v>#N/A</v>
       </c>
       <c r="G201" s="10"/>
-      <c r="H201" s="17"/>
+      <c r="H201" s="16"/>
       <c r="I201" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5572,7 +5573,7 @@
         <v>#N/A</v>
       </c>
       <c r="G202" s="10"/>
-      <c r="H202" s="17"/>
+      <c r="H202" s="16"/>
       <c r="I202" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5596,7 +5597,7 @@
         <v>#N/A</v>
       </c>
       <c r="G203" s="10"/>
-      <c r="H203" s="17"/>
+      <c r="H203" s="16"/>
       <c r="I203" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5620,7 +5621,7 @@
         <v>#N/A</v>
       </c>
       <c r="G204" s="10"/>
-      <c r="H204" s="17"/>
+      <c r="H204" s="16"/>
       <c r="I204" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5644,7 +5645,7 @@
         <v>#N/A</v>
       </c>
       <c r="G205" s="10"/>
-      <c r="H205" s="17"/>
+      <c r="H205" s="16"/>
       <c r="I205" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5668,7 +5669,7 @@
         <v>#N/A</v>
       </c>
       <c r="G206" s="10"/>
-      <c r="H206" s="17"/>
+      <c r="H206" s="16"/>
       <c r="I206" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5692,7 +5693,7 @@
         <v>#N/A</v>
       </c>
       <c r="G207" s="10"/>
-      <c r="H207" s="17"/>
+      <c r="H207" s="16"/>
       <c r="I207" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5716,7 +5717,7 @@
         <v>#N/A</v>
       </c>
       <c r="G208" s="10"/>
-      <c r="H208" s="17"/>
+      <c r="H208" s="16"/>
       <c r="I208" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5740,7 +5741,7 @@
         <v>#N/A</v>
       </c>
       <c r="G209" s="10"/>
-      <c r="H209" s="17"/>
+      <c r="H209" s="16"/>
       <c r="I209" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5764,7 +5765,7 @@
         <v>#N/A</v>
       </c>
       <c r="G210" s="10"/>
-      <c r="H210" s="17"/>
+      <c r="H210" s="16"/>
       <c r="I210" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5788,7 +5789,7 @@
         <v>#N/A</v>
       </c>
       <c r="G211" s="10"/>
-      <c r="H211" s="17"/>
+      <c r="H211" s="16"/>
       <c r="I211" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5812,7 +5813,7 @@
         <v>#N/A</v>
       </c>
       <c r="G212" s="10"/>
-      <c r="H212" s="17"/>
+      <c r="H212" s="16"/>
       <c r="I212" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5836,7 +5837,7 @@
         <v>#N/A</v>
       </c>
       <c r="G213" s="10"/>
-      <c r="H213" s="17"/>
+      <c r="H213" s="16"/>
       <c r="I213" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5860,7 +5861,7 @@
         <v>#N/A</v>
       </c>
       <c r="G214" s="10"/>
-      <c r="H214" s="17"/>
+      <c r="H214" s="16"/>
       <c r="I214" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5884,7 +5885,7 @@
         <v>#N/A</v>
       </c>
       <c r="G215" s="10"/>
-      <c r="H215" s="17"/>
+      <c r="H215" s="16"/>
       <c r="I215" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5908,7 +5909,7 @@
         <v>#N/A</v>
       </c>
       <c r="G216" s="10"/>
-      <c r="H216" s="17"/>
+      <c r="H216" s="16"/>
       <c r="I216" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5932,7 +5933,7 @@
         <v>#N/A</v>
       </c>
       <c r="G217" s="10"/>
-      <c r="H217" s="17"/>
+      <c r="H217" s="16"/>
       <c r="I217" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5956,7 +5957,7 @@
         <v>#N/A</v>
       </c>
       <c r="G218" s="10"/>
-      <c r="H218" s="17"/>
+      <c r="H218" s="16"/>
       <c r="I218" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -5980,7 +5981,7 @@
         <v>#N/A</v>
       </c>
       <c r="G219" s="10"/>
-      <c r="H219" s="17"/>
+      <c r="H219" s="16"/>
       <c r="I219" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6004,7 +6005,7 @@
         <v>#N/A</v>
       </c>
       <c r="G220" s="10"/>
-      <c r="H220" s="17"/>
+      <c r="H220" s="16"/>
       <c r="I220" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6028,7 +6029,7 @@
         <v>#N/A</v>
       </c>
       <c r="G221" s="10"/>
-      <c r="H221" s="17"/>
+      <c r="H221" s="16"/>
       <c r="I221" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6052,7 +6053,7 @@
         <v>#N/A</v>
       </c>
       <c r="G222" s="10"/>
-      <c r="H222" s="17"/>
+      <c r="H222" s="16"/>
       <c r="I222" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6076,7 +6077,7 @@
         <v>#N/A</v>
       </c>
       <c r="G223" s="10"/>
-      <c r="H223" s="17"/>
+      <c r="H223" s="16"/>
       <c r="I223" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6100,7 +6101,7 @@
         <v>#N/A</v>
       </c>
       <c r="G224" s="10"/>
-      <c r="H224" s="17"/>
+      <c r="H224" s="16"/>
       <c r="I224" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6124,7 +6125,7 @@
         <v>#N/A</v>
       </c>
       <c r="G225" s="10"/>
-      <c r="H225" s="17"/>
+      <c r="H225" s="16"/>
       <c r="I225" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6148,7 +6149,7 @@
         <v>#N/A</v>
       </c>
       <c r="G226" s="10"/>
-      <c r="H226" s="17"/>
+      <c r="H226" s="16"/>
       <c r="I226" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6172,7 +6173,7 @@
         <v>#N/A</v>
       </c>
       <c r="G227" s="10"/>
-      <c r="H227" s="17"/>
+      <c r="H227" s="16"/>
       <c r="I227" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6196,7 +6197,7 @@
         <v>#N/A</v>
       </c>
       <c r="G228" s="10"/>
-      <c r="H228" s="17"/>
+      <c r="H228" s="16"/>
       <c r="I228" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6220,7 +6221,7 @@
         <v>#N/A</v>
       </c>
       <c r="G229" s="10"/>
-      <c r="H229" s="17"/>
+      <c r="H229" s="16"/>
       <c r="I229" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6244,7 +6245,7 @@
         <v>#N/A</v>
       </c>
       <c r="G230" s="10"/>
-      <c r="H230" s="17"/>
+      <c r="H230" s="16"/>
       <c r="I230" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6268,7 +6269,7 @@
         <v>#N/A</v>
       </c>
       <c r="G231" s="10"/>
-      <c r="H231" s="17"/>
+      <c r="H231" s="16"/>
       <c r="I231" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6292,7 +6293,7 @@
         <v>#N/A</v>
       </c>
       <c r="G232" s="10"/>
-      <c r="H232" s="17"/>
+      <c r="H232" s="16"/>
       <c r="I232" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6316,7 +6317,7 @@
         <v>#N/A</v>
       </c>
       <c r="G233" s="10"/>
-      <c r="H233" s="17"/>
+      <c r="H233" s="16"/>
       <c r="I233" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6340,7 +6341,7 @@
         <v>#N/A</v>
       </c>
       <c r="G234" s="10"/>
-      <c r="H234" s="17"/>
+      <c r="H234" s="16"/>
       <c r="I234" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6364,7 +6365,7 @@
         <v>#N/A</v>
       </c>
       <c r="G235" s="10"/>
-      <c r="H235" s="17"/>
+      <c r="H235" s="16"/>
       <c r="I235" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6388,7 +6389,7 @@
         <v>#N/A</v>
       </c>
       <c r="G236" s="10"/>
-      <c r="H236" s="17"/>
+      <c r="H236" s="16"/>
       <c r="I236" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6412,7 +6413,7 @@
         <v>#N/A</v>
       </c>
       <c r="G237" s="10"/>
-      <c r="H237" s="17"/>
+      <c r="H237" s="16"/>
       <c r="I237" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6436,7 +6437,7 @@
         <v>#N/A</v>
       </c>
       <c r="G238" s="10"/>
-      <c r="H238" s="17"/>
+      <c r="H238" s="16"/>
       <c r="I238" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6460,7 +6461,7 @@
         <v>#N/A</v>
       </c>
       <c r="G239" s="10"/>
-      <c r="H239" s="17"/>
+      <c r="H239" s="16"/>
       <c r="I239" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6484,7 +6485,7 @@
         <v>#N/A</v>
       </c>
       <c r="G240" s="10"/>
-      <c r="H240" s="17"/>
+      <c r="H240" s="16"/>
       <c r="I240" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6508,7 +6509,7 @@
         <v>#N/A</v>
       </c>
       <c r="G241" s="10"/>
-      <c r="H241" s="17"/>
+      <c r="H241" s="16"/>
       <c r="I241" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6532,7 +6533,7 @@
         <v>#N/A</v>
       </c>
       <c r="G242" s="10"/>
-      <c r="H242" s="17"/>
+      <c r="H242" s="16"/>
       <c r="I242" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6556,7 +6557,7 @@
         <v>#N/A</v>
       </c>
       <c r="G243" s="10"/>
-      <c r="H243" s="17"/>
+      <c r="H243" s="16"/>
       <c r="I243" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6580,7 +6581,7 @@
         <v>#N/A</v>
       </c>
       <c r="G244" s="10"/>
-      <c r="H244" s="17"/>
+      <c r="H244" s="16"/>
       <c r="I244" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6604,7 +6605,7 @@
         <v>#N/A</v>
       </c>
       <c r="G245" s="10"/>
-      <c r="H245" s="17"/>
+      <c r="H245" s="16"/>
       <c r="I245" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6628,7 +6629,7 @@
         <v>#N/A</v>
       </c>
       <c r="G246" s="10"/>
-      <c r="H246" s="17"/>
+      <c r="H246" s="16"/>
       <c r="I246" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6652,7 +6653,7 @@
         <v>#N/A</v>
       </c>
       <c r="G247" s="10"/>
-      <c r="H247" s="17"/>
+      <c r="H247" s="16"/>
       <c r="I247" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6676,7 +6677,7 @@
         <v>#N/A</v>
       </c>
       <c r="G248" s="10"/>
-      <c r="H248" s="17"/>
+      <c r="H248" s="16"/>
       <c r="I248" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6700,7 +6701,7 @@
         <v>#N/A</v>
       </c>
       <c r="G249" s="10"/>
-      <c r="H249" s="17"/>
+      <c r="H249" s="16"/>
       <c r="I249" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6724,7 +6725,7 @@
         <v>#N/A</v>
       </c>
       <c r="G250" s="10"/>
-      <c r="H250" s="17"/>
+      <c r="H250" s="16"/>
       <c r="I250" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6748,7 +6749,7 @@
         <v>#N/A</v>
       </c>
       <c r="G251" s="10"/>
-      <c r="H251" s="17"/>
+      <c r="H251" s="16"/>
       <c r="I251" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6772,7 +6773,7 @@
         <v>#N/A</v>
       </c>
       <c r="G252" s="10"/>
-      <c r="H252" s="17"/>
+      <c r="H252" s="16"/>
       <c r="I252" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6796,7 +6797,7 @@
         <v>#N/A</v>
       </c>
       <c r="G253" s="10"/>
-      <c r="H253" s="17"/>
+      <c r="H253" s="16"/>
       <c r="I253" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6820,7 +6821,7 @@
         <v>#N/A</v>
       </c>
       <c r="G254" s="10"/>
-      <c r="H254" s="17"/>
+      <c r="H254" s="16"/>
       <c r="I254" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6844,7 +6845,7 @@
         <v>#N/A</v>
       </c>
       <c r="G255" s="10"/>
-      <c r="H255" s="17"/>
+      <c r="H255" s="16"/>
       <c r="I255" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6868,7 +6869,7 @@
         <v>#N/A</v>
       </c>
       <c r="G256" s="10"/>
-      <c r="H256" s="17"/>
+      <c r="H256" s="16"/>
       <c r="I256" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6892,7 +6893,7 @@
         <v>#N/A</v>
       </c>
       <c r="G257" s="10"/>
-      <c r="H257" s="17"/>
+      <c r="H257" s="16"/>
       <c r="I257" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6916,7 +6917,7 @@
         <v>#N/A</v>
       </c>
       <c r="G258" s="10"/>
-      <c r="H258" s="17"/>
+      <c r="H258" s="16"/>
       <c r="I258" s="10" t="e">
         <f t="shared" si="15"/>
         <v>#N/A</v>
@@ -6940,7 +6941,7 @@
         <v>#N/A</v>
       </c>
       <c r="G259" s="10"/>
-      <c r="H259" s="17"/>
+      <c r="H259" s="16"/>
       <c r="I259" s="10" t="e">
         <f t="shared" ref="I259:I310" si="19">VLOOKUP(J259,Tabla_Mes,2,)</f>
         <v>#N/A</v>
@@ -6964,7 +6965,7 @@
         <v>#N/A</v>
       </c>
       <c r="G260" s="10"/>
-      <c r="H260" s="17"/>
+      <c r="H260" s="16"/>
       <c r="I260" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -6988,7 +6989,7 @@
         <v>#N/A</v>
       </c>
       <c r="G261" s="10"/>
-      <c r="H261" s="17"/>
+      <c r="H261" s="16"/>
       <c r="I261" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7012,7 +7013,7 @@
         <v>#N/A</v>
       </c>
       <c r="G262" s="10"/>
-      <c r="H262" s="17"/>
+      <c r="H262" s="16"/>
       <c r="I262" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7036,7 +7037,7 @@
         <v>#N/A</v>
       </c>
       <c r="G263" s="10"/>
-      <c r="H263" s="17"/>
+      <c r="H263" s="16"/>
       <c r="I263" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7060,7 +7061,7 @@
         <v>#N/A</v>
       </c>
       <c r="G264" s="10"/>
-      <c r="H264" s="17"/>
+      <c r="H264" s="16"/>
       <c r="I264" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7084,7 +7085,7 @@
         <v>#N/A</v>
       </c>
       <c r="G265" s="10"/>
-      <c r="H265" s="17"/>
+      <c r="H265" s="16"/>
       <c r="I265" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7108,7 +7109,7 @@
         <v>#N/A</v>
       </c>
       <c r="G266" s="10"/>
-      <c r="H266" s="17"/>
+      <c r="H266" s="16"/>
       <c r="I266" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7132,7 +7133,7 @@
         <v>#N/A</v>
       </c>
       <c r="G267" s="10"/>
-      <c r="H267" s="17"/>
+      <c r="H267" s="16"/>
       <c r="I267" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7156,7 +7157,7 @@
         <v>#N/A</v>
       </c>
       <c r="G268" s="10"/>
-      <c r="H268" s="17"/>
+      <c r="H268" s="16"/>
       <c r="I268" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7180,7 +7181,7 @@
         <v>#N/A</v>
       </c>
       <c r="G269" s="10"/>
-      <c r="H269" s="17"/>
+      <c r="H269" s="16"/>
       <c r="I269" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7204,7 +7205,7 @@
         <v>#N/A</v>
       </c>
       <c r="G270" s="10"/>
-      <c r="H270" s="17"/>
+      <c r="H270" s="16"/>
       <c r="I270" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7228,7 +7229,7 @@
         <v>#N/A</v>
       </c>
       <c r="G271" s="10"/>
-      <c r="H271" s="17"/>
+      <c r="H271" s="16"/>
       <c r="I271" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7252,7 +7253,7 @@
         <v>#N/A</v>
       </c>
       <c r="G272" s="10"/>
-      <c r="H272" s="17"/>
+      <c r="H272" s="16"/>
       <c r="I272" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7276,7 +7277,7 @@
         <v>#N/A</v>
       </c>
       <c r="G273" s="10"/>
-      <c r="H273" s="17"/>
+      <c r="H273" s="16"/>
       <c r="I273" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7300,7 +7301,7 @@
         <v>#N/A</v>
       </c>
       <c r="G274" s="10"/>
-      <c r="H274" s="17"/>
+      <c r="H274" s="16"/>
       <c r="I274" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7324,7 +7325,7 @@
         <v>#N/A</v>
       </c>
       <c r="G275" s="10"/>
-      <c r="H275" s="17"/>
+      <c r="H275" s="16"/>
       <c r="I275" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7348,7 +7349,7 @@
         <v>#N/A</v>
       </c>
       <c r="G276" s="10"/>
-      <c r="H276" s="17"/>
+      <c r="H276" s="16"/>
       <c r="I276" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7372,7 +7373,7 @@
         <v>#N/A</v>
       </c>
       <c r="G277" s="10"/>
-      <c r="H277" s="17"/>
+      <c r="H277" s="16"/>
       <c r="I277" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7396,7 +7397,7 @@
         <v>#N/A</v>
       </c>
       <c r="G278" s="10"/>
-      <c r="H278" s="17"/>
+      <c r="H278" s="16"/>
       <c r="I278" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7420,7 +7421,7 @@
         <v>#N/A</v>
       </c>
       <c r="G279" s="10"/>
-      <c r="H279" s="17"/>
+      <c r="H279" s="16"/>
       <c r="I279" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7444,7 +7445,7 @@
         <v>#N/A</v>
       </c>
       <c r="G280" s="10"/>
-      <c r="H280" s="17"/>
+      <c r="H280" s="16"/>
       <c r="I280" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7468,7 +7469,7 @@
         <v>#N/A</v>
       </c>
       <c r="G281" s="10"/>
-      <c r="H281" s="17"/>
+      <c r="H281" s="16"/>
       <c r="I281" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7492,7 +7493,7 @@
         <v>#N/A</v>
       </c>
       <c r="G282" s="10"/>
-      <c r="H282" s="17"/>
+      <c r="H282" s="16"/>
       <c r="I282" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7516,7 +7517,7 @@
         <v>#N/A</v>
       </c>
       <c r="G283" s="10"/>
-      <c r="H283" s="17"/>
+      <c r="H283" s="16"/>
       <c r="I283" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7540,7 +7541,7 @@
         <v>#N/A</v>
       </c>
       <c r="G284" s="10"/>
-      <c r="H284" s="17"/>
+      <c r="H284" s="16"/>
       <c r="I284" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7564,7 +7565,7 @@
         <v>#N/A</v>
       </c>
       <c r="G285" s="10"/>
-      <c r="H285" s="17"/>
+      <c r="H285" s="16"/>
       <c r="I285" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7588,7 +7589,7 @@
         <v>#N/A</v>
       </c>
       <c r="G286" s="10"/>
-      <c r="H286" s="17"/>
+      <c r="H286" s="16"/>
       <c r="I286" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7612,7 +7613,7 @@
         <v>#N/A</v>
       </c>
       <c r="G287" s="10"/>
-      <c r="H287" s="17"/>
+      <c r="H287" s="16"/>
       <c r="I287" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7636,7 +7637,7 @@
         <v>#N/A</v>
       </c>
       <c r="G288" s="10"/>
-      <c r="H288" s="17"/>
+      <c r="H288" s="16"/>
       <c r="I288" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7660,7 +7661,7 @@
         <v>#N/A</v>
       </c>
       <c r="G289" s="10"/>
-      <c r="H289" s="17"/>
+      <c r="H289" s="16"/>
       <c r="I289" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7684,7 +7685,7 @@
         <v>#N/A</v>
       </c>
       <c r="G290" s="10"/>
-      <c r="H290" s="17"/>
+      <c r="H290" s="16"/>
       <c r="I290" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7708,7 +7709,7 @@
         <v>#N/A</v>
       </c>
       <c r="G291" s="10"/>
-      <c r="H291" s="17"/>
+      <c r="H291" s="16"/>
       <c r="I291" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7732,7 +7733,7 @@
         <v>#N/A</v>
       </c>
       <c r="G292" s="10"/>
-      <c r="H292" s="17"/>
+      <c r="H292" s="16"/>
       <c r="I292" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7756,7 +7757,7 @@
         <v>#N/A</v>
       </c>
       <c r="G293" s="10"/>
-      <c r="H293" s="17"/>
+      <c r="H293" s="16"/>
       <c r="I293" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7780,7 +7781,7 @@
         <v>#N/A</v>
       </c>
       <c r="G294" s="10"/>
-      <c r="H294" s="17"/>
+      <c r="H294" s="16"/>
       <c r="I294" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7804,7 +7805,7 @@
         <v>#N/A</v>
       </c>
       <c r="G295" s="10"/>
-      <c r="H295" s="17"/>
+      <c r="H295" s="16"/>
       <c r="I295" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7828,7 +7829,7 @@
         <v>#N/A</v>
       </c>
       <c r="G296" s="10"/>
-      <c r="H296" s="17"/>
+      <c r="H296" s="16"/>
       <c r="I296" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7852,7 +7853,7 @@
         <v>#N/A</v>
       </c>
       <c r="G297" s="10"/>
-      <c r="H297" s="17"/>
+      <c r="H297" s="16"/>
       <c r="I297" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7876,7 +7877,7 @@
         <v>#N/A</v>
       </c>
       <c r="G298" s="10"/>
-      <c r="H298" s="17"/>
+      <c r="H298" s="16"/>
       <c r="I298" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7900,7 +7901,7 @@
         <v>#N/A</v>
       </c>
       <c r="G299" s="10"/>
-      <c r="H299" s="17"/>
+      <c r="H299" s="16"/>
       <c r="I299" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7924,7 +7925,7 @@
         <v>#N/A</v>
       </c>
       <c r="G300" s="10"/>
-      <c r="H300" s="17"/>
+      <c r="H300" s="16"/>
       <c r="I300" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7948,7 +7949,7 @@
         <v>#N/A</v>
       </c>
       <c r="G301" s="10"/>
-      <c r="H301" s="17"/>
+      <c r="H301" s="16"/>
       <c r="I301" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7972,7 +7973,7 @@
         <v>#N/A</v>
       </c>
       <c r="G302" s="10"/>
-      <c r="H302" s="17"/>
+      <c r="H302" s="16"/>
       <c r="I302" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -7996,7 +7997,7 @@
         <v>#N/A</v>
       </c>
       <c r="G303" s="10"/>
-      <c r="H303" s="17"/>
+      <c r="H303" s="16"/>
       <c r="I303" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8020,7 +8021,7 @@
         <v>#N/A</v>
       </c>
       <c r="G304" s="10"/>
-      <c r="H304" s="17"/>
+      <c r="H304" s="16"/>
       <c r="I304" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8044,7 +8045,7 @@
         <v>#N/A</v>
       </c>
       <c r="G305" s="10"/>
-      <c r="H305" s="17"/>
+      <c r="H305" s="16"/>
       <c r="I305" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8068,7 +8069,7 @@
         <v>#N/A</v>
       </c>
       <c r="G306" s="10"/>
-      <c r="H306" s="17"/>
+      <c r="H306" s="16"/>
       <c r="I306" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8092,7 +8093,7 @@
         <v>#N/A</v>
       </c>
       <c r="G307" s="10"/>
-      <c r="H307" s="17"/>
+      <c r="H307" s="16"/>
       <c r="I307" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8116,7 +8117,7 @@
         <v>#N/A</v>
       </c>
       <c r="G308" s="10"/>
-      <c r="H308" s="17"/>
+      <c r="H308" s="16"/>
       <c r="I308" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8140,7 +8141,7 @@
         <v>#N/A</v>
       </c>
       <c r="G309" s="10"/>
-      <c r="H309" s="17"/>
+      <c r="H309" s="16"/>
       <c r="I309" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8164,7 +8165,7 @@
         <v>#N/A</v>
       </c>
       <c r="G310" s="10"/>
-      <c r="H310" s="17"/>
+      <c r="H310" s="16"/>
       <c r="I310" s="10" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
@@ -8172,10 +8173,10 @@
       <c r="J310" s="10"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H311" s="17"/>
+      <c r="H311" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Yr1oDB68Mhcj+iA4VyJVNDCu8FviVr3iO5YLjjKhLictro/7tHyWkOioWWWyrAczYGdpHww5wr9h4eUQOl2U3A==" saltValue="nLIMP2xWImcZnvpRq4/kYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Jh+eKDozn8JSBu0KIHX1M/PixmOReSy4FKBaA66gT4UY0iB/sMdvhqsSAb14+IL//C39Kncm1LC3ECHgX9nxKg==" saltValue="V4GYMc+2lzwr8etLNJinCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A310" xr:uid="{ECE28117-C8FA-4388-B6C8-4DC009C7D8F9}">
       <formula1>Lista_Anno</formula1>
@@ -8357,8 +8358,8 @@
       <c r="A11" s="6">
         <v>2016</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
@@ -8382,8 +8383,8 @@
       <c r="A12" s="6">
         <v>2017</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="F12" s="7" t="s">
         <v>14</v>
       </c>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versiòn plantillas\Versión borrado de meses y fechas SOLO SE DEJO AÑOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC69B16-0844-49A2-81F1-B95B02FE940B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F36C8D0-3C8D-4A4F-8DD1-52883916DABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -42,32 +42,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Dell</author>
-  </authors>
-  <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{B2FA7182-A5C5-44D1-8ACD-33F9E396FF7E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Año</t>
   </si>
@@ -82,9 +58,6 @@
   </si>
   <si>
     <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Mes de inicio</t>
   </si>
   <si>
     <t>Nº</t>
@@ -177,7 +150,7 @@
     <t>Etiqueta del equipo nuevo. Seleccione de lista desplegable.</t>
   </si>
   <si>
-    <t>Mes en que se compro el artefecto. Seleccione el desplegable.</t>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
   </si>
 </sst>
 </file>
@@ -208,14 +181,15 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -254,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,50 +251,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -351,31 +286,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -691,11 +617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
-  <dimension ref="A1:J311"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
+  <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,11 +634,9 @@
     <col min="6" max="6" width="15.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -720,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -737,122 +661,88 @@
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="15">
+        <f t="shared" ref="B4:B67" si="0">VLOOKUP(C4,Tabla_Capacidad,2,)</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>50</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_BAU,2,)</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F67" si="2">VLOOKUP(G4,Tabla_Iniciativa,2,)</f>
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="17">
-        <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_Capacidad,2,)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="17">
-        <v>50</v>
-      </c>
-      <c r="D3" s="17">
-        <f t="shared" ref="D3:D66" si="1">VLOOKUP(E3,Tabla_BAU,2,)</f>
-        <v>5</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="17">
-        <f t="shared" ref="F3:F66" si="2">VLOOKUP(G3,Tabla_Iniciativa,2,)</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="19">
+      <c r="G4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="16">
         <v>7000</v>
       </c>
-      <c r="I3" s="20">
-        <f t="shared" ref="I3:I66" si="3">VLOOKUP(J3,Tabla_Mes,2,)</f>
-        <v>6</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="e">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="e">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="e">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="e">
         <f t="shared" si="0"/>
@@ -869,14 +759,9 @@
         <v>#N/A</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="e">
         <f t="shared" si="0"/>
@@ -893,14 +778,9 @@
         <v>#N/A</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="e">
         <f t="shared" si="0"/>
@@ -917,14 +797,9 @@
         <v>#N/A</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="e">
         <f t="shared" si="0"/>
@@ -941,14 +816,9 @@
         <v>#N/A</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="e">
         <f t="shared" si="0"/>
@@ -965,14 +835,9 @@
         <v>#N/A</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="e">
         <f t="shared" si="0"/>
@@ -989,14 +854,9 @@
         <v>#N/A</v>
       </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1013,14 +873,9 @@
         <v>#N/A</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1037,14 +892,9 @@
         <v>#N/A</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1061,14 +911,9 @@
         <v>#N/A</v>
       </c>
       <c r="G14" s="10"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1085,14 +930,9 @@
         <v>#N/A</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1109,14 +949,9 @@
         <v>#N/A</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1133,14 +968,9 @@
         <v>#N/A</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1157,14 +987,9 @@
         <v>#N/A</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1181,14 +1006,9 @@
         <v>#N/A</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1205,14 +1025,9 @@
         <v>#N/A</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1229,14 +1044,9 @@
         <v>#N/A</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1253,14 +1063,9 @@
         <v>#N/A</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1277,14 +1082,9 @@
         <v>#N/A</v>
       </c>
       <c r="G23" s="10"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1301,14 +1101,9 @@
         <v>#N/A</v>
       </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1325,14 +1120,9 @@
         <v>#N/A</v>
       </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1349,14 +1139,9 @@
         <v>#N/A</v>
       </c>
       <c r="G26" s="10"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1373,14 +1158,9 @@
         <v>#N/A</v>
       </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1397,14 +1177,9 @@
         <v>#N/A</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1421,14 +1196,9 @@
         <v>#N/A</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1445,14 +1215,9 @@
         <v>#N/A</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1469,14 +1234,9 @@
         <v>#N/A</v>
       </c>
       <c r="G31" s="10"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1493,14 +1253,9 @@
         <v>#N/A</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1517,14 +1272,9 @@
         <v>#N/A</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1541,14 +1291,9 @@
         <v>#N/A</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1565,14 +1310,9 @@
         <v>#N/A</v>
       </c>
       <c r="G35" s="10"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1589,14 +1329,9 @@
         <v>#N/A</v>
       </c>
       <c r="G36" s="10"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1613,14 +1348,9 @@
         <v>#N/A</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1637,14 +1367,9 @@
         <v>#N/A</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1661,14 +1386,9 @@
         <v>#N/A</v>
       </c>
       <c r="G39" s="10"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1685,14 +1405,9 @@
         <v>#N/A</v>
       </c>
       <c r="G40" s="10"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1709,14 +1424,9 @@
         <v>#N/A</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1733,14 +1443,9 @@
         <v>#N/A</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J42" s="10"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1757,14 +1462,9 @@
         <v>#N/A</v>
       </c>
       <c r="G43" s="10"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1781,14 +1481,9 @@
         <v>#N/A</v>
       </c>
       <c r="G44" s="10"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1805,14 +1500,9 @@
         <v>#N/A</v>
       </c>
       <c r="G45" s="10"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1829,14 +1519,9 @@
         <v>#N/A</v>
       </c>
       <c r="G46" s="10"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1853,14 +1538,9 @@
         <v>#N/A</v>
       </c>
       <c r="G47" s="10"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1877,14 +1557,9 @@
         <v>#N/A</v>
       </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1901,14 +1576,9 @@
         <v>#N/A</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1925,14 +1595,9 @@
         <v>#N/A</v>
       </c>
       <c r="G50" s="10"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1949,14 +1614,9 @@
         <v>#N/A</v>
       </c>
       <c r="G51" s="10"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1973,14 +1633,9 @@
         <v>#N/A</v>
       </c>
       <c r="G52" s="10"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="e">
         <f t="shared" si="0"/>
@@ -1997,14 +1652,9 @@
         <v>#N/A</v>
       </c>
       <c r="G53" s="10"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2021,14 +1671,9 @@
         <v>#N/A</v>
       </c>
       <c r="G54" s="10"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2045,14 +1690,9 @@
         <v>#N/A</v>
       </c>
       <c r="G55" s="10"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2069,14 +1709,9 @@
         <v>#N/A</v>
       </c>
       <c r="G56" s="10"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J56" s="10"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2093,14 +1728,9 @@
         <v>#N/A</v>
       </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J57" s="10"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2117,14 +1747,9 @@
         <v>#N/A</v>
       </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J58" s="10"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2141,14 +1766,9 @@
         <v>#N/A</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J59" s="10"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2165,14 +1785,9 @@
         <v>#N/A</v>
       </c>
       <c r="G60" s="10"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J60" s="10"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2189,14 +1804,9 @@
         <v>#N/A</v>
       </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J61" s="10"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2213,14 +1823,9 @@
         <v>#N/A</v>
       </c>
       <c r="G62" s="10"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J62" s="10"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2237,14 +1842,9 @@
         <v>#N/A</v>
       </c>
       <c r="G63" s="10"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J63" s="10"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2261,14 +1861,9 @@
         <v>#N/A</v>
       </c>
       <c r="G64" s="10"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J64" s="10"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2285,14 +1880,9 @@
         <v>#N/A</v>
       </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J65" s="10"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="e">
         <f t="shared" si="0"/>
@@ -2309,5902 +1899,4695 @@
         <v>#N/A</v>
       </c>
       <c r="G66" s="10"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="10" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J66" s="10"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="e">
-        <f t="shared" ref="B67:B130" si="4">VLOOKUP(C67,Tabla_Capacidad,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="e">
-        <f t="shared" ref="D67:D130" si="5">VLOOKUP(E67,Tabla_BAU,2,)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="E67" s="10"/>
       <c r="F67" s="10" t="e">
-        <f t="shared" ref="F67:F130" si="6">VLOOKUP(G67,Tabla_Iniciativa,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="10" t="e">
-        <f t="shared" ref="I67:I130" si="7">VLOOKUP(J67,Tabla_Mes,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J67" s="10"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H67" s="14"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B68:B131" si="3">VLOOKUP(C68,Tabla_Capacidad,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D68:D131" si="4">VLOOKUP(E68,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F68:F131" si="5">VLOOKUP(G68,Tabla_Iniciativa,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G68" s="10"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J68" s="10"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H68" s="14"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G69" s="10"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J69" s="10"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G70" s="10"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J70" s="10"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H70" s="14"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G71" s="10"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J71" s="10"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G72" s="10"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J72" s="10"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H72" s="14"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G73" s="10"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J73" s="10"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H73" s="14"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G74" s="10"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J74" s="10"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H74" s="14"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G75" s="10"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J75" s="10"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H75" s="14"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G76" s="10"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J76" s="10"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G77" s="10"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J77" s="10"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H77" s="14"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G78" s="10"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J78" s="10"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H78" s="14"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G79" s="10"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J79" s="10"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H79" s="14"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G80" s="10"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J80" s="10"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G81" s="10"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J81" s="10"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G82" s="10"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J82" s="10"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H82" s="14"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G83" s="10"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J83" s="10"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H83" s="14"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G84" s="10"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J84" s="10"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H84" s="14"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G85" s="10"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J85" s="10"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H85" s="14"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G86" s="10"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J86" s="10"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H86" s="14"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G87" s="10"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J87" s="10"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H87" s="14"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G88" s="10"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J88" s="10"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H88" s="14"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G89" s="10"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J89" s="10"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H89" s="14"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G90" s="10"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J90" s="10"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H90" s="14"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G91" s="10"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J91" s="10"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H91" s="14"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G92" s="10"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J92" s="10"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H92" s="14"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G93" s="10"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J93" s="10"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H93" s="14"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G94" s="10"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J94" s="10"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H94" s="14"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G95" s="10"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J95" s="10"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H95" s="14"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G96" s="10"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J96" s="10"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H96" s="14"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G97" s="10"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J97" s="10"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G98" s="10"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J98" s="10"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G99" s="10"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J99" s="10"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H99" s="14"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G100" s="10"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J100" s="10"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H100" s="14"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G101" s="10"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J101" s="10"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G102" s="10"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J102" s="10"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G103" s="10"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J103" s="10"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H103" s="14"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G104" s="10"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J104" s="10"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H104" s="14"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G105" s="10"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J105" s="10"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H105" s="14"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G106" s="10"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J106" s="10"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H106" s="14"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G107" s="10"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J107" s="10"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H107" s="14"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G108" s="10"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J108" s="10"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H108" s="14"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G109" s="10"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J109" s="10"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H109" s="14"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G110" s="10"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J110" s="10"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H110" s="14"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G111" s="10"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J111" s="10"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H111" s="14"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G112" s="10"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J112" s="10"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H112" s="14"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G113" s="10"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J113" s="10"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H113" s="14"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G114" s="10"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J114" s="10"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H114" s="14"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G115" s="10"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J115" s="10"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H115" s="14"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G116" s="10"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J116" s="10"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H116" s="14"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G117" s="10"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J117" s="10"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H117" s="14"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G118" s="10"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J118" s="10"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H118" s="14"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E119" s="10"/>
       <c r="F119" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G119" s="10"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J119" s="10"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H119" s="14"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G120" s="10"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J120" s="10"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H120" s="14"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E121" s="10"/>
       <c r="F121" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G121" s="10"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J121" s="10"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H121" s="14"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G122" s="10"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J122" s="10"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H122" s="14"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G123" s="10"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J123" s="10"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H123" s="14"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G124" s="10"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J124" s="10"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H124" s="14"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G125" s="10"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J125" s="10"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H125" s="14"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G126" s="10"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J126" s="10"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H126" s="14"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G127" s="10"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J127" s="10"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H127" s="14"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G128" s="10"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J128" s="10"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H128" s="14"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E129" s="10"/>
       <c r="F129" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G129" s="10"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J129" s="10"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H129" s="14"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G130" s="10"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="10" t="e">
-        <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J130" s="10"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H130" s="14"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="e">
-        <f t="shared" ref="B131:B194" si="8">VLOOKUP(C131,Tabla_Capacidad,2,)</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10" t="e">
-        <f t="shared" ref="D131:D194" si="9">VLOOKUP(E131,Tabla_BAU,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10" t="e">
-        <f t="shared" ref="F131:F194" si="10">VLOOKUP(G131,Tabla_Iniciativa,2,)</f>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G131" s="10"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="10" t="e">
-        <f t="shared" ref="I131:I194" si="11">VLOOKUP(J131,Tabla_Mes,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J131" s="10"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H131" s="14"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B132:B195" si="6">VLOOKUP(C132,Tabla_Capacidad,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D132:D195" si="7">VLOOKUP(E132,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F132:F195" si="8">VLOOKUP(G132,Tabla_Iniciativa,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G132" s="10"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J132" s="10"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H132" s="14"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E133" s="10"/>
       <c r="F133" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G133" s="10"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J133" s="10"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H133" s="14"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G134" s="10"/>
-      <c r="H134" s="16"/>
-      <c r="I134" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J134" s="10"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H134" s="14"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G135" s="10"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J135" s="10"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H135" s="14"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G136" s="10"/>
-      <c r="H136" s="16"/>
-      <c r="I136" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J136" s="10"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H136" s="14"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G137" s="10"/>
-      <c r="H137" s="16"/>
-      <c r="I137" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J137" s="10"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H137" s="14"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G138" s="10"/>
-      <c r="H138" s="16"/>
-      <c r="I138" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J138" s="10"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H138" s="14"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G139" s="10"/>
-      <c r="H139" s="16"/>
-      <c r="I139" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J139" s="10"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H139" s="14"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G140" s="10"/>
-      <c r="H140" s="16"/>
-      <c r="I140" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J140" s="10"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H140" s="14"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E141" s="10"/>
       <c r="F141" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G141" s="10"/>
-      <c r="H141" s="16"/>
-      <c r="I141" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J141" s="10"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H141" s="14"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E142" s="10"/>
       <c r="F142" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G142" s="10"/>
-      <c r="H142" s="16"/>
-      <c r="I142" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J142" s="10"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H142" s="14"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E143" s="10"/>
       <c r="F143" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G143" s="10"/>
-      <c r="H143" s="16"/>
-      <c r="I143" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J143" s="10"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H143" s="14"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G144" s="10"/>
-      <c r="H144" s="16"/>
-      <c r="I144" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J144" s="10"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H144" s="14"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G145" s="10"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J145" s="10"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H145" s="14"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G146" s="10"/>
-      <c r="H146" s="16"/>
-      <c r="I146" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J146" s="10"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H146" s="14"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E147" s="10"/>
       <c r="F147" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G147" s="10"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J147" s="10"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H147" s="14"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G148" s="10"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J148" s="10"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H148" s="14"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E149" s="10"/>
       <c r="F149" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G149" s="10"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J149" s="10"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H149" s="14"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E150" s="10"/>
       <c r="F150" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G150" s="10"/>
-      <c r="H150" s="16"/>
-      <c r="I150" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J150" s="10"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H150" s="14"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E151" s="10"/>
       <c r="F151" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G151" s="10"/>
-      <c r="H151" s="16"/>
-      <c r="I151" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J151" s="10"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H151" s="14"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E152" s="10"/>
       <c r="F152" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G152" s="10"/>
-      <c r="H152" s="16"/>
-      <c r="I152" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J152" s="10"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H152" s="14"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E153" s="10"/>
       <c r="F153" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G153" s="10"/>
-      <c r="H153" s="16"/>
-      <c r="I153" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J153" s="10"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H153" s="14"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G154" s="10"/>
-      <c r="H154" s="16"/>
-      <c r="I154" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J154" s="10"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H154" s="14"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E155" s="10"/>
       <c r="F155" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G155" s="10"/>
-      <c r="H155" s="16"/>
-      <c r="I155" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J155" s="10"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H155" s="14"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G156" s="10"/>
-      <c r="H156" s="16"/>
-      <c r="I156" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J156" s="10"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H156" s="14"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G157" s="10"/>
-      <c r="H157" s="16"/>
-      <c r="I157" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J157" s="10"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H157" s="14"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G158" s="10"/>
-      <c r="H158" s="16"/>
-      <c r="I158" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J158" s="10"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H158" s="14"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G159" s="10"/>
-      <c r="H159" s="16"/>
-      <c r="I159" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J159" s="10"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H159" s="14"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G160" s="10"/>
-      <c r="H160" s="16"/>
-      <c r="I160" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J160" s="10"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H160" s="14"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E161" s="10"/>
       <c r="F161" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G161" s="10"/>
-      <c r="H161" s="16"/>
-      <c r="I161" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J161" s="10"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H161" s="14"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E162" s="10"/>
       <c r="F162" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G162" s="10"/>
-      <c r="H162" s="16"/>
-      <c r="I162" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J162" s="10"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H162" s="14"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E163" s="10"/>
       <c r="F163" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G163" s="10"/>
-      <c r="H163" s="16"/>
-      <c r="I163" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J163" s="10"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H163" s="14"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E164" s="10"/>
       <c r="F164" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G164" s="10"/>
-      <c r="H164" s="16"/>
-      <c r="I164" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J164" s="10"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H164" s="14"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G165" s="10"/>
-      <c r="H165" s="16"/>
-      <c r="I165" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J165" s="10"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H165" s="14"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G166" s="10"/>
-      <c r="H166" s="16"/>
-      <c r="I166" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J166" s="10"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H166" s="14"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G167" s="10"/>
-      <c r="H167" s="16"/>
-      <c r="I167" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J167" s="10"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H167" s="14"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G168" s="10"/>
-      <c r="H168" s="16"/>
-      <c r="I168" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J168" s="10"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H168" s="14"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E169" s="10"/>
       <c r="F169" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G169" s="10"/>
-      <c r="H169" s="16"/>
-      <c r="I169" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J169" s="10"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H169" s="14"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E170" s="10"/>
       <c r="F170" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G170" s="10"/>
-      <c r="H170" s="16"/>
-      <c r="I170" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J170" s="10"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H170" s="14"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G171" s="10"/>
-      <c r="H171" s="16"/>
-      <c r="I171" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J171" s="10"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H171" s="14"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G172" s="10"/>
-      <c r="H172" s="16"/>
-      <c r="I172" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J172" s="10"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H172" s="14"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G173" s="10"/>
-      <c r="H173" s="16"/>
-      <c r="I173" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J173" s="10"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H173" s="14"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G174" s="10"/>
-      <c r="H174" s="16"/>
-      <c r="I174" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J174" s="10"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H174" s="14"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G175" s="10"/>
-      <c r="H175" s="16"/>
-      <c r="I175" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J175" s="10"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H175" s="14"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G176" s="10"/>
-      <c r="H176" s="16"/>
-      <c r="I176" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J176" s="10"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H176" s="14"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G177" s="10"/>
-      <c r="H177" s="16"/>
-      <c r="I177" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J177" s="10"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H177" s="14"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G178" s="10"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J178" s="10"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H178" s="14"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G179" s="10"/>
-      <c r="H179" s="16"/>
-      <c r="I179" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J179" s="10"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H179" s="14"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G180" s="10"/>
-      <c r="H180" s="16"/>
-      <c r="I180" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J180" s="10"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H180" s="14"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C181" s="10"/>
       <c r="D181" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E181" s="10"/>
       <c r="F181" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G181" s="10"/>
-      <c r="H181" s="16"/>
-      <c r="I181" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J181" s="10"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H181" s="14"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E182" s="10"/>
       <c r="F182" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G182" s="10"/>
-      <c r="H182" s="16"/>
-      <c r="I182" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J182" s="10"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H182" s="14"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E183" s="10"/>
       <c r="F183" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G183" s="10"/>
-      <c r="H183" s="16"/>
-      <c r="I183" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J183" s="10"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H183" s="14"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G184" s="10"/>
-      <c r="H184" s="16"/>
-      <c r="I184" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J184" s="10"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H184" s="14"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E185" s="10"/>
       <c r="F185" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G185" s="10"/>
-      <c r="H185" s="16"/>
-      <c r="I185" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J185" s="10"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H185" s="14"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G186" s="10"/>
-      <c r="H186" s="16"/>
-      <c r="I186" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J186" s="10"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H186" s="14"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E187" s="10"/>
       <c r="F187" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G187" s="10"/>
-      <c r="H187" s="16"/>
-      <c r="I187" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J187" s="10"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H187" s="14"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G188" s="10"/>
-      <c r="H188" s="16"/>
-      <c r="I188" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J188" s="10"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H188" s="14"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E189" s="10"/>
       <c r="F189" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G189" s="10"/>
-      <c r="H189" s="16"/>
-      <c r="I189" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J189" s="10"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H189" s="14"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E190" s="10"/>
       <c r="F190" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G190" s="10"/>
-      <c r="H190" s="16"/>
-      <c r="I190" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J190" s="10"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H190" s="14"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E191" s="10"/>
       <c r="F191" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G191" s="10"/>
-      <c r="H191" s="16"/>
-      <c r="I191" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J191" s="10"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H191" s="14"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E192" s="10"/>
       <c r="F192" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G192" s="10"/>
-      <c r="H192" s="16"/>
-      <c r="I192" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J192" s="10"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H192" s="14"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E193" s="10"/>
       <c r="F193" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G193" s="10"/>
-      <c r="H193" s="16"/>
-      <c r="I193" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J193" s="10"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H193" s="14"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E194" s="10"/>
       <c r="F194" s="10" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G194" s="10"/>
-      <c r="H194" s="16"/>
-      <c r="I194" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J194" s="10"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H194" s="14"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="e">
-        <f t="shared" ref="B195:B258" si="12">VLOOKUP(C195,Tabla_Capacidad,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C195" s="10"/>
       <c r="D195" s="10" t="e">
-        <f t="shared" ref="D195:D258" si="13">VLOOKUP(E195,Tabla_BAU,2,)</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="E195" s="10"/>
       <c r="F195" s="10" t="e">
-        <f t="shared" ref="F195:F258" si="14">VLOOKUP(G195,Tabla_Iniciativa,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="G195" s="10"/>
-      <c r="H195" s="16"/>
-      <c r="I195" s="10" t="e">
-        <f t="shared" ref="I195:I258" si="15">VLOOKUP(J195,Tabla_Mes,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J195" s="10"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H195" s="14"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="B196:B259" si="9">VLOOKUP(C196,Tabla_Capacidad,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D196:D259" si="10">VLOOKUP(E196,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E196" s="10"/>
       <c r="F196" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F196:F259" si="11">VLOOKUP(G196,Tabla_Iniciativa,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G196" s="10"/>
-      <c r="H196" s="16"/>
-      <c r="I196" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J196" s="10"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H196" s="14"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C197" s="10"/>
       <c r="D197" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E197" s="10"/>
       <c r="F197" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G197" s="10"/>
-      <c r="H197" s="16"/>
-      <c r="I197" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J197" s="10"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H197" s="14"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E198" s="10"/>
       <c r="F198" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G198" s="10"/>
-      <c r="H198" s="16"/>
-      <c r="I198" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J198" s="10"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H198" s="14"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C199" s="10"/>
       <c r="D199" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G199" s="10"/>
-      <c r="H199" s="16"/>
-      <c r="I199" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J199" s="10"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H199" s="14"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E200" s="10"/>
       <c r="F200" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G200" s="10"/>
-      <c r="H200" s="16"/>
-      <c r="I200" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J200" s="10"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H200" s="14"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C201" s="10"/>
       <c r="D201" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E201" s="10"/>
       <c r="F201" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G201" s="10"/>
-      <c r="H201" s="16"/>
-      <c r="I201" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J201" s="10"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H201" s="14"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C202" s="10"/>
       <c r="D202" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E202" s="10"/>
       <c r="F202" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G202" s="10"/>
-      <c r="H202" s="16"/>
-      <c r="I202" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J202" s="10"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H202" s="14"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E203" s="10"/>
       <c r="F203" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G203" s="10"/>
-      <c r="H203" s="16"/>
-      <c r="I203" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J203" s="10"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H203" s="14"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C204" s="10"/>
       <c r="D204" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E204" s="10"/>
       <c r="F204" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G204" s="10"/>
-      <c r="H204" s="16"/>
-      <c r="I204" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J204" s="10"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H204" s="14"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E205" s="10"/>
       <c r="F205" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G205" s="10"/>
-      <c r="H205" s="16"/>
-      <c r="I205" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J205" s="10"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H205" s="14"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G206" s="10"/>
-      <c r="H206" s="16"/>
-      <c r="I206" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J206" s="10"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H206" s="14"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G207" s="10"/>
-      <c r="H207" s="16"/>
-      <c r="I207" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J207" s="10"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H207" s="14"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E208" s="10"/>
       <c r="F208" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G208" s="10"/>
-      <c r="H208" s="16"/>
-      <c r="I208" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J208" s="10"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H208" s="14"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E209" s="10"/>
       <c r="F209" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G209" s="10"/>
-      <c r="H209" s="16"/>
-      <c r="I209" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J209" s="10"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H209" s="14"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E210" s="10"/>
       <c r="F210" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G210" s="10"/>
-      <c r="H210" s="16"/>
-      <c r="I210" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J210" s="10"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H210" s="14"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E211" s="10"/>
       <c r="F211" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G211" s="10"/>
-      <c r="H211" s="16"/>
-      <c r="I211" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J211" s="10"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H211" s="14"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E212" s="10"/>
       <c r="F212" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G212" s="10"/>
-      <c r="H212" s="16"/>
-      <c r="I212" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J212" s="10"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H212" s="14"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E213" s="10"/>
       <c r="F213" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G213" s="10"/>
-      <c r="H213" s="16"/>
-      <c r="I213" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J213" s="10"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H213" s="14"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E214" s="10"/>
       <c r="F214" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G214" s="10"/>
-      <c r="H214" s="16"/>
-      <c r="I214" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J214" s="10"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H214" s="14"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E215" s="10"/>
       <c r="F215" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G215" s="10"/>
-      <c r="H215" s="16"/>
-      <c r="I215" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J215" s="10"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H215" s="14"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G216" s="10"/>
-      <c r="H216" s="16"/>
-      <c r="I216" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J216" s="10"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H216" s="14"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E217" s="10"/>
       <c r="F217" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G217" s="10"/>
-      <c r="H217" s="16"/>
-      <c r="I217" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J217" s="10"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H217" s="14"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E218" s="10"/>
       <c r="F218" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G218" s="10"/>
-      <c r="H218" s="16"/>
-      <c r="I218" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J218" s="10"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H218" s="14"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E219" s="10"/>
       <c r="F219" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G219" s="10"/>
-      <c r="H219" s="16"/>
-      <c r="I219" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J219" s="10"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H219" s="14"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E220" s="10"/>
       <c r="F220" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G220" s="10"/>
-      <c r="H220" s="16"/>
-      <c r="I220" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J220" s="10"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H220" s="14"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E221" s="10"/>
       <c r="F221" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G221" s="10"/>
-      <c r="H221" s="16"/>
-      <c r="I221" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J221" s="10"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H221" s="14"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C222" s="10"/>
       <c r="D222" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E222" s="10"/>
       <c r="F222" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G222" s="10"/>
-      <c r="H222" s="16"/>
-      <c r="I222" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J222" s="10"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H222" s="14"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E223" s="10"/>
       <c r="F223" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G223" s="10"/>
-      <c r="H223" s="16"/>
-      <c r="I223" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J223" s="10"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H223" s="14"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E224" s="10"/>
       <c r="F224" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G224" s="10"/>
-      <c r="H224" s="16"/>
-      <c r="I224" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J224" s="10"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H224" s="14"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E225" s="10"/>
       <c r="F225" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G225" s="10"/>
-      <c r="H225" s="16"/>
-      <c r="I225" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J225" s="10"/>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H225" s="14"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E226" s="10"/>
       <c r="F226" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G226" s="10"/>
-      <c r="H226" s="16"/>
-      <c r="I226" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J226" s="10"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H226" s="14"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E227" s="10"/>
       <c r="F227" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G227" s="10"/>
-      <c r="H227" s="16"/>
-      <c r="I227" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J227" s="10"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H227" s="14"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E228" s="10"/>
       <c r="F228" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G228" s="10"/>
-      <c r="H228" s="16"/>
-      <c r="I228" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J228" s="10"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H228" s="14"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E229" s="10"/>
       <c r="F229" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G229" s="10"/>
-      <c r="H229" s="16"/>
-      <c r="I229" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J229" s="10"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H229" s="14"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E230" s="10"/>
       <c r="F230" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G230" s="10"/>
-      <c r="H230" s="16"/>
-      <c r="I230" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J230" s="10"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H230" s="14"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E231" s="10"/>
       <c r="F231" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G231" s="10"/>
-      <c r="H231" s="16"/>
-      <c r="I231" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J231" s="10"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H231" s="14"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E232" s="10"/>
       <c r="F232" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G232" s="10"/>
-      <c r="H232" s="16"/>
-      <c r="I232" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J232" s="10"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H232" s="14"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C233" s="10"/>
       <c r="D233" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E233" s="10"/>
       <c r="F233" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G233" s="10"/>
-      <c r="H233" s="16"/>
-      <c r="I233" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J233" s="10"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H233" s="14"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E234" s="10"/>
       <c r="F234" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G234" s="10"/>
-      <c r="H234" s="16"/>
-      <c r="I234" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J234" s="10"/>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H234" s="14"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C235" s="10"/>
       <c r="D235" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E235" s="10"/>
       <c r="F235" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G235" s="10"/>
-      <c r="H235" s="16"/>
-      <c r="I235" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J235" s="10"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H235" s="14"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C236" s="10"/>
       <c r="D236" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E236" s="10"/>
       <c r="F236" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G236" s="10"/>
-      <c r="H236" s="16"/>
-      <c r="I236" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J236" s="10"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H236" s="14"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E237" s="10"/>
       <c r="F237" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G237" s="10"/>
-      <c r="H237" s="16"/>
-      <c r="I237" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J237" s="10"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H237" s="14"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E238" s="10"/>
       <c r="F238" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G238" s="10"/>
-      <c r="H238" s="16"/>
-      <c r="I238" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J238" s="10"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H238" s="14"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G239" s="10"/>
-      <c r="H239" s="16"/>
-      <c r="I239" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J239" s="10"/>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H239" s="14"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E240" s="10"/>
       <c r="F240" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G240" s="10"/>
-      <c r="H240" s="16"/>
-      <c r="I240" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J240" s="10"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H240" s="14"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E241" s="10"/>
       <c r="F241" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G241" s="10"/>
-      <c r="H241" s="16"/>
-      <c r="I241" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J241" s="10"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H241" s="14"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E242" s="10"/>
       <c r="F242" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G242" s="10"/>
-      <c r="H242" s="16"/>
-      <c r="I242" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J242" s="10"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H242" s="14"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E243" s="10"/>
       <c r="F243" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G243" s="10"/>
-      <c r="H243" s="16"/>
-      <c r="I243" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J243" s="10"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H243" s="14"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E244" s="10"/>
       <c r="F244" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G244" s="10"/>
-      <c r="H244" s="16"/>
-      <c r="I244" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J244" s="10"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H244" s="14"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E245" s="10"/>
       <c r="F245" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G245" s="10"/>
-      <c r="H245" s="16"/>
-      <c r="I245" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J245" s="10"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H245" s="14"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E246" s="10"/>
       <c r="F246" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G246" s="10"/>
-      <c r="H246" s="16"/>
-      <c r="I246" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J246" s="10"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H246" s="14"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E247" s="10"/>
       <c r="F247" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G247" s="10"/>
-      <c r="H247" s="16"/>
-      <c r="I247" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J247" s="10"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H247" s="14"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E248" s="10"/>
       <c r="F248" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G248" s="10"/>
-      <c r="H248" s="16"/>
-      <c r="I248" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J248" s="10"/>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H248" s="14"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E249" s="10"/>
       <c r="F249" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G249" s="10"/>
-      <c r="H249" s="16"/>
-      <c r="I249" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J249" s="10"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H249" s="14"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E250" s="10"/>
       <c r="F250" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G250" s="10"/>
-      <c r="H250" s="16"/>
-      <c r="I250" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J250" s="10"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H250" s="14"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C251" s="10"/>
       <c r="D251" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E251" s="10"/>
       <c r="F251" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G251" s="10"/>
-      <c r="H251" s="16"/>
-      <c r="I251" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J251" s="10"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H251" s="14"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C252" s="10"/>
       <c r="D252" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G252" s="10"/>
-      <c r="H252" s="16"/>
-      <c r="I252" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J252" s="10"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H252" s="14"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E253" s="10"/>
       <c r="F253" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G253" s="10"/>
-      <c r="H253" s="16"/>
-      <c r="I253" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J253" s="10"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H253" s="14"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E254" s="10"/>
       <c r="F254" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G254" s="10"/>
-      <c r="H254" s="16"/>
-      <c r="I254" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J254" s="10"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H254" s="14"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E255" s="10"/>
       <c r="F255" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G255" s="10"/>
-      <c r="H255" s="16"/>
-      <c r="I255" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J255" s="10"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H255" s="14"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E256" s="10"/>
       <c r="F256" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G256" s="10"/>
-      <c r="H256" s="16"/>
-      <c r="I256" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J256" s="10"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H256" s="14"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="10"/>
       <c r="B257" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E257" s="10"/>
       <c r="F257" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G257" s="10"/>
-      <c r="H257" s="16"/>
-      <c r="I257" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J257" s="10"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H257" s="14"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C258" s="10"/>
       <c r="D258" s="10" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E258" s="10"/>
       <c r="F258" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G258" s="10"/>
-      <c r="H258" s="16"/>
-      <c r="I258" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J258" s="10"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H258" s="14"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="e">
-        <f t="shared" ref="B259:B310" si="16">VLOOKUP(C259,Tabla_Capacidad,2,)</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="C259" s="10"/>
       <c r="D259" s="10" t="e">
-        <f t="shared" ref="D259:D310" si="17">VLOOKUP(E259,Tabla_BAU,2,)</f>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="E259" s="10"/>
       <c r="F259" s="10" t="e">
-        <f t="shared" ref="F259:F310" si="18">VLOOKUP(G259,Tabla_Iniciativa,2,)</f>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="G259" s="10"/>
-      <c r="H259" s="16"/>
-      <c r="I259" s="10" t="e">
-        <f t="shared" ref="I259:I310" si="19">VLOOKUP(J259,Tabla_Mes,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J259" s="10"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H259" s="14"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="10"/>
       <c r="B260" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B260:B311" si="12">VLOOKUP(C260,Tabla_Capacidad,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="D260:D311" si="13">VLOOKUP(E260,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="E260" s="10"/>
       <c r="F260" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="F260:F311" si="14">VLOOKUP(G260,Tabla_Iniciativa,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="G260" s="10"/>
-      <c r="H260" s="16"/>
-      <c r="I260" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J260" s="10"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H260" s="14"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="10"/>
       <c r="B261" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C261" s="10"/>
       <c r="D261" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E261" s="10"/>
       <c r="F261" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G261" s="10"/>
-      <c r="H261" s="16"/>
-      <c r="I261" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J261" s="10"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H261" s="14"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="10"/>
       <c r="B262" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E262" s="10"/>
       <c r="F262" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G262" s="10"/>
-      <c r="H262" s="16"/>
-      <c r="I262" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J262" s="10"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H262" s="14"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E263" s="10"/>
       <c r="F263" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G263" s="10"/>
-      <c r="H263" s="16"/>
-      <c r="I263" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J263" s="10"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H263" s="14"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E264" s="10"/>
       <c r="F264" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G264" s="10"/>
-      <c r="H264" s="16"/>
-      <c r="I264" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J264" s="10"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H264" s="14"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E265" s="10"/>
       <c r="F265" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G265" s="10"/>
-      <c r="H265" s="16"/>
-      <c r="I265" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J265" s="10"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H265" s="14"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E266" s="10"/>
       <c r="F266" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G266" s="10"/>
-      <c r="H266" s="16"/>
-      <c r="I266" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J266" s="10"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H266" s="14"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E267" s="10"/>
       <c r="F267" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G267" s="10"/>
-      <c r="H267" s="16"/>
-      <c r="I267" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J267" s="10"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H267" s="14"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E268" s="10"/>
       <c r="F268" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G268" s="10"/>
-      <c r="H268" s="16"/>
-      <c r="I268" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J268" s="10"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H268" s="14"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E269" s="10"/>
       <c r="F269" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G269" s="10"/>
-      <c r="H269" s="16"/>
-      <c r="I269" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J269" s="10"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H269" s="14"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E270" s="10"/>
       <c r="F270" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G270" s="10"/>
-      <c r="H270" s="16"/>
-      <c r="I270" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J270" s="10"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H270" s="14"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E271" s="10"/>
       <c r="F271" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G271" s="10"/>
-      <c r="H271" s="16"/>
-      <c r="I271" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J271" s="10"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H271" s="14"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E272" s="10"/>
       <c r="F272" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G272" s="10"/>
-      <c r="H272" s="16"/>
-      <c r="I272" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J272" s="10"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H272" s="14"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G273" s="10"/>
-      <c r="H273" s="16"/>
-      <c r="I273" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J273" s="10"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H273" s="14"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="10"/>
       <c r="B274" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C274" s="10"/>
       <c r="D274" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G274" s="10"/>
-      <c r="H274" s="16"/>
-      <c r="I274" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J274" s="10"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H274" s="14"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E275" s="10"/>
       <c r="F275" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G275" s="10"/>
-      <c r="H275" s="16"/>
-      <c r="I275" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J275" s="10"/>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H275" s="14"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="10"/>
       <c r="B276" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E276" s="10"/>
       <c r="F276" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G276" s="10"/>
-      <c r="H276" s="16"/>
-      <c r="I276" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J276" s="10"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H276" s="14"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C277" s="10"/>
       <c r="D277" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E277" s="10"/>
       <c r="F277" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G277" s="10"/>
-      <c r="H277" s="16"/>
-      <c r="I277" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J277" s="10"/>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H277" s="14"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C278" s="10"/>
       <c r="D278" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E278" s="10"/>
       <c r="F278" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G278" s="10"/>
-      <c r="H278" s="16"/>
-      <c r="I278" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J278" s="10"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H278" s="14"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C279" s="10"/>
       <c r="D279" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E279" s="10"/>
       <c r="F279" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G279" s="10"/>
-      <c r="H279" s="16"/>
-      <c r="I279" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J279" s="10"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H279" s="14"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C280" s="10"/>
       <c r="D280" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E280" s="10"/>
       <c r="F280" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G280" s="10"/>
-      <c r="H280" s="16"/>
-      <c r="I280" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J280" s="10"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H280" s="14"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C281" s="10"/>
       <c r="D281" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E281" s="10"/>
       <c r="F281" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G281" s="10"/>
-      <c r="H281" s="16"/>
-      <c r="I281" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J281" s="10"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H281" s="14"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C282" s="10"/>
       <c r="D282" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E282" s="10"/>
       <c r="F282" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G282" s="10"/>
-      <c r="H282" s="16"/>
-      <c r="I282" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J282" s="10"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H282" s="14"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C283" s="10"/>
       <c r="D283" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E283" s="10"/>
       <c r="F283" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G283" s="10"/>
-      <c r="H283" s="16"/>
-      <c r="I283" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J283" s="10"/>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H283" s="14"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C284" s="10"/>
       <c r="D284" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E284" s="10"/>
       <c r="F284" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G284" s="10"/>
-      <c r="H284" s="16"/>
-      <c r="I284" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J284" s="10"/>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H284" s="14"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C285" s="10"/>
       <c r="D285" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E285" s="10"/>
       <c r="F285" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G285" s="10"/>
-      <c r="H285" s="16"/>
-      <c r="I285" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J285" s="10"/>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H285" s="14"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C286" s="10"/>
       <c r="D286" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E286" s="10"/>
       <c r="F286" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G286" s="10"/>
-      <c r="H286" s="16"/>
-      <c r="I286" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J286" s="10"/>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H286" s="14"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C287" s="10"/>
       <c r="D287" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E287" s="10"/>
       <c r="F287" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G287" s="10"/>
-      <c r="H287" s="16"/>
-      <c r="I287" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J287" s="10"/>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H287" s="14"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="10"/>
       <c r="B288" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C288" s="10"/>
       <c r="D288" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E288" s="10"/>
       <c r="F288" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G288" s="10"/>
-      <c r="H288" s="16"/>
-      <c r="I288" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J288" s="10"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H288" s="14"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C289" s="10"/>
       <c r="D289" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E289" s="10"/>
       <c r="F289" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G289" s="10"/>
-      <c r="H289" s="16"/>
-      <c r="I289" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J289" s="10"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H289" s="14"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="10"/>
       <c r="B290" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C290" s="10"/>
       <c r="D290" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E290" s="10"/>
       <c r="F290" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G290" s="10"/>
-      <c r="H290" s="16"/>
-      <c r="I290" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J290" s="10"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H290" s="14"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C291" s="10"/>
       <c r="D291" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E291" s="10"/>
       <c r="F291" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G291" s="10"/>
-      <c r="H291" s="16"/>
-      <c r="I291" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J291" s="10"/>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H291" s="14"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="10"/>
       <c r="B292" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C292" s="10"/>
       <c r="D292" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E292" s="10"/>
       <c r="F292" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G292" s="10"/>
-      <c r="H292" s="16"/>
-      <c r="I292" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J292" s="10"/>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H292" s="14"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C293" s="10"/>
       <c r="D293" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E293" s="10"/>
       <c r="F293" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G293" s="10"/>
-      <c r="H293" s="16"/>
-      <c r="I293" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J293" s="10"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H293" s="14"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="10"/>
       <c r="B294" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C294" s="10"/>
       <c r="D294" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E294" s="10"/>
       <c r="F294" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G294" s="10"/>
-      <c r="H294" s="16"/>
-      <c r="I294" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J294" s="10"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H294" s="14"/>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C295" s="10"/>
       <c r="D295" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E295" s="10"/>
       <c r="F295" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G295" s="10"/>
-      <c r="H295" s="16"/>
-      <c r="I295" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J295" s="10"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H295" s="14"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="10"/>
       <c r="B296" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C296" s="10"/>
       <c r="D296" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E296" s="10"/>
       <c r="F296" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G296" s="10"/>
-      <c r="H296" s="16"/>
-      <c r="I296" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J296" s="10"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H296" s="14"/>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C297" s="10"/>
       <c r="D297" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E297" s="10"/>
       <c r="F297" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G297" s="10"/>
-      <c r="H297" s="16"/>
-      <c r="I297" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J297" s="10"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H297" s="14"/>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="10"/>
       <c r="B298" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C298" s="10"/>
       <c r="D298" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E298" s="10"/>
       <c r="F298" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G298" s="10"/>
-      <c r="H298" s="16"/>
-      <c r="I298" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J298" s="10"/>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H298" s="14"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C299" s="10"/>
       <c r="D299" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E299" s="10"/>
       <c r="F299" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G299" s="10"/>
-      <c r="H299" s="16"/>
-      <c r="I299" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J299" s="10"/>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H299" s="14"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C300" s="10"/>
       <c r="D300" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E300" s="10"/>
       <c r="F300" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G300" s="10"/>
-      <c r="H300" s="16"/>
-      <c r="I300" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J300" s="10"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H300" s="14"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C301" s="10"/>
       <c r="D301" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E301" s="10"/>
       <c r="F301" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G301" s="10"/>
-      <c r="H301" s="16"/>
-      <c r="I301" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J301" s="10"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H301" s="14"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C302" s="10"/>
       <c r="D302" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E302" s="10"/>
       <c r="F302" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G302" s="10"/>
-      <c r="H302" s="16"/>
-      <c r="I302" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J302" s="10"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H302" s="14"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C303" s="10"/>
       <c r="D303" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E303" s="10"/>
       <c r="F303" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G303" s="10"/>
-      <c r="H303" s="16"/>
-      <c r="I303" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J303" s="10"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H303" s="14"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C304" s="10"/>
       <c r="D304" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E304" s="10"/>
       <c r="F304" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G304" s="10"/>
-      <c r="H304" s="16"/>
-      <c r="I304" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J304" s="10"/>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H304" s="14"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C305" s="10"/>
       <c r="D305" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E305" s="10"/>
       <c r="F305" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G305" s="10"/>
-      <c r="H305" s="16"/>
-      <c r="I305" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J305" s="10"/>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H305" s="14"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C306" s="10"/>
       <c r="D306" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E306" s="10"/>
       <c r="F306" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G306" s="10"/>
-      <c r="H306" s="16"/>
-      <c r="I306" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J306" s="10"/>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H306" s="14"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E307" s="10"/>
       <c r="F307" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G307" s="10"/>
-      <c r="H307" s="16"/>
-      <c r="I307" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J307" s="10"/>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H307" s="14"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="10"/>
       <c r="B308" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E308" s="10"/>
       <c r="F308" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G308" s="10"/>
-      <c r="H308" s="16"/>
-      <c r="I308" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J308" s="10"/>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H308" s="14"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E309" s="10"/>
       <c r="F309" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G309" s="10"/>
-      <c r="H309" s="16"/>
-      <c r="I309" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J309" s="10"/>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H309" s="14"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="C310" s="10"/>
       <c r="D310" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="E310" s="10"/>
       <c r="F310" s="10" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="G310" s="10"/>
-      <c r="H310" s="16"/>
-      <c r="I310" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J310" s="10"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H311" s="16"/>
+      <c r="H310" s="14"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="10"/>
+      <c r="B311" s="10" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C311" s="10"/>
+      <c r="D311" s="10" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E311" s="10"/>
+      <c r="F311" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G311" s="10"/>
+      <c r="H311" s="14"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H312" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Jh+eKDozn8JSBu0KIHX1M/PixmOReSy4FKBaA66gT4UY0iB/sMdvhqsSAb14+IL//C39Kncm1LC3ECHgX9nxKg==" saltValue="V4GYMc+2lzwr8etLNJinCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A310" xr:uid="{ECE28117-C8FA-4388-B6C8-4DC009C7D8F9}">
+  <sheetProtection algorithmName="SHA-512" hashValue="mAbtxvsbCBCKeEZDRBT+nk1rzGMD3C1mRCbtTAm4FE97i57Dso6XTMAHr59YLwx4sUDHGdRE4LrVt7Wg2Q//jA==" saltValue="GJefKioER0aFYnRWn/ld8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A311" xr:uid="{ECE28117-C8FA-4388-B6C8-4DC009C7D8F9}">
       <formula1>Lista_Anno</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C310" xr:uid="{642E2D86-9281-47A6-B8E1-1658071793BB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C311" xr:uid="{642E2D86-9281-47A6-B8E1-1658071793BB}">
       <formula1>Lista_Capacidad</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E310" xr:uid="{A3F58BB7-E554-4CB9-968A-C3120B9A82C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E311" xr:uid="{A3F58BB7-E554-4CB9-968A-C3120B9A82C8}">
       <formula1>Lista_BAU</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G310" xr:uid="{098E79FC-BA28-4AB8-8657-77AEF846A28F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G311" xr:uid="{098E79FC-BA28-4AB8-8657-77AEF846A28F}">
       <formula1>Lista_Iniciativa</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J310" xr:uid="{AC70920E-0E36-4EBF-8B0F-FBF435C41EAD}">
-      <formula1>Lista_Mes</formula1>
-    </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="H3 H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25 H27 H29 H31 H33 H35 H37 H39 H41 H43 H45 H47 H49 H51 H53 H55 H57 H59 H61 H63 H65 H67 H69 H71 H73 H75 H77 H79 H81 H83 H85 H87 H89 H91 H93 H95 H97 H99 H101 H103 H105 H107 H109 H111 H113 H115 H117 H119 H121 H123 H125 H127 H129 H131 H133 H135 H137 H139 H141 H143 H145 H147 H149 H151 H153 H155 H157 H159 H161 H163 H165 H167 H169 H171 H173 H175 H177 H179 H181 H183 H185 H187 H189 H191 H193 H195 H197 H199 H201 H203 H205 H207 H209 H211 H213 H215 H217 H219 H221 H223 H225 H227 H229 H231 H233 H235 H237 H239 H241 H243 H245 H247 H249 H251 H253 H255 H257 H259 H261 H263 H265 H267 H269 H271 H273 H275 H277 H279 H281 H283 H285 H287 H289 H291 H293 H295 H297 H299 H301 H303 H305 H307 H309 H311" xr:uid="{F90B27F8-5E72-4979-BAC3-E56B33C04772}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26 H28 H30 H32 H34 H36 H38 H40 H42 H44 H46 H48 H50 H52 H54 H56 H58 H60 H62 H64 H66 H68 H70 H72 H74 H76 H78 H80 H82 H84 H86 H88 H90 H92 H94 H96 H98 H100 H102 H104 H106 H108 H110 H112 H114 H116 H118 H120 H122 H124 H126 H128 H130 H132 H134 H136 H138 H140 H142 H144 H146 H148 H150 H152 H154 H156 H158 H160 H162 H164 H166 H168 H170 H172 H174 H176 H178 H180 H182 H184 H186 H188 H190 H192 H194 H196 H198 H200 H202 H204 H206 H208 H210 H212 H214 H216 H218 H220 H222 H224 H226 H228 H230 H232 H234 H236 H238 H240 H242 H244 H246 H248 H250 H252 H254 H256 H258 H260 H262 H264 H266 H268 H270 H272 H274 H276 H278 H280 H282 H284 H286 H288 H290 H292 H294 H296 H298 H300 H302 H304 H306 H308 H310 H312" xr:uid="{F90B27F8-5E72-4979-BAC3-E56B33C04772}">
       <formula1>0</formula1>
       <formula2>9999999999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="H4 H6 H8 H10 H12 H14 H16 H18 H20 H22 H24 H26 H28 H30 H32 H34 H36 H38 H40 H42 H44 H46 H48 H50 H52 H54 H56 H58 H60 H62 H64 H66 H68 H70 H72 H74 H76 H78 H80 H82 H84 H86 H88 H90 H92 H94 H96 H98 H100 H102 H104 H106 H108 H110 H112 H114 H116 H118 H120 H122 H124 H126 H128 H130 H132 H134 H136 H138 H140 H142 H144 H146 H148 H150 H152 H154 H156 H158 H160 H162 H164 H166 H168 H170 H172 H174 H176 H178 H180 H182 H184 H186 H188 H190 H192 H194 H196 H198 H200 H202 H204 H206 H208 H210 H212 H214 H216 H218 H220 H222 H224 H226 H228 H230 H232 H234 H236 H238 H240 H242 H244 H246 H248 H250 H252 H254 H256 H258 H260 H262 H264 H266 H268 H270 H272 H274 H276 H278 H280 H282 H284 H286 H288 H290 H292 H294 H296 H298 H300 H302 H304 H306 H308 H310" xr:uid="{A8137F3D-1000-4328-89E7-8E1A6FDA1DF9}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="H5 H7 H9 H11 H13 H15 H17 H19 H21 H23 H25 H27 H29 H31 H33 H35 H37 H39 H41 H43 H45 H47 H49 H51 H53 H55 H57 H59 H61 H63 H65 H67 H69 H71 H73 H75 H77 H79 H81 H83 H85 H87 H89 H91 H93 H95 H97 H99 H101 H103 H105 H107 H109 H111 H113 H115 H117 H119 H121 H123 H125 H127 H129 H131 H133 H135 H137 H139 H141 H143 H145 H147 H149 H151 H153 H155 H157 H159 H161 H163 H165 H167 H169 H171 H173 H175 H177 H179 H181 H183 H185 H187 H189 H191 H193 H195 H197 H199 H201 H203 H205 H207 H209 H211 H213 H215 H217 H219 H221 H223 H225 H227 H229 H231 H233 H235 H237 H239 H241 H243 H245 H247 H249 H251 H253 H255 H257 H259 H261 H263 H265 H267 H269 H271 H273 H275 H277 H279 H281 H283 H285 H287 H289 H291 H293 H295 H297 H299 H301 H303 H305 H307 H309 H311" xr:uid="{A8137F3D-1000-4328-89E7-8E1A6FDA1DF9}">
       <formula1>0</formula1>
       <formula2>999999999999</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8243,28 +6626,28 @@
         <v>2012</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -8278,19 +6661,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -8307,19 +6690,19 @@
         <v>2</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" s="7">
         <v>2</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -8336,19 +6719,19 @@
         <v>3</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="7">
         <v>3</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -8361,19 +6744,19 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="7">
         <v>4</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -8386,19 +6769,19 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="7">
         <v>5</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -8409,19 +6792,19 @@
         <v>2018</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="7">
         <v>6</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -8432,19 +6815,19 @@
         <v>2019</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="7">
         <v>7</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="7">
         <v>7</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -8455,7 +6838,7 @@
         <v>2020</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -8466,7 +6849,7 @@
         <v>2021</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -8477,7 +6860,7 @@
         <v>2022</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -8488,7 +6871,7 @@
         <v>2023</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -8499,7 +6882,7 @@
         <v>2024</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -8540,7 +6923,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versiòn plantillas\Versión borrado de meses y fechas SOLO SE DEJO AÑOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F36C8D0-3C8D-4A4F-8DD1-52883916DABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7812A2-2848-4813-A9BC-726F7A6E8DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
   <sheets>
     <sheet name="Calentador de agua electrico" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Año</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Etiqueta BAU</t>
-  </si>
-  <si>
-    <t>Etiqueta Iniciativa</t>
   </si>
   <si>
     <t>Cantidad</t>
@@ -144,13 +141,19 @@
     <t>Capacidad del calentador de agua eléctrico. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Etiqueta del equipo anterior o reemplazado. Seleccione de lista desplegable.</t>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
   </si>
   <si>
-    <t>Etiqueta del equipo nuevo. Seleccione de lista desplegable.</t>
+    <t>Etiqueta de EE BAU</t>
   </si>
   <si>
-    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+    <t>Etiqueta de EE Acción</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE del equipo anterior o reemplazado. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE del equipo nuevo. Seleccione de la lista desplegable.</t>
   </si>
 </sst>
 </file>
@@ -298,11 +301,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
-  <dimension ref="A1:I312"/>
+  <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,54 +647,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -710,14 +713,14 @@
         <v>5</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" ref="F4:F67" si="2">VLOOKUP(G4,Tabla_Iniciativa,2,)</f>
         <v>1</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="16">
         <v>7000</v>
@@ -6560,7 +6563,7 @@
       <c r="H312" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mAbtxvsbCBCKeEZDRBT+nk1rzGMD3C1mRCbtTAm4FE97i57Dso6XTMAHr59YLwx4sUDHGdRE4LrVt7Wg2Q//jA==" saltValue="GJefKioER0aFYnRWn/ld8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OuURqBHdR3B2ifdHTAAY2EuI0x+MEnY5bzrxYrEqxE/5p9HSRwuKCCd5TYFImNL17AENa1hn+LJkt/lUgtAtjg==" saltValue="In6qsVyYapdNrcFGtzcwbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
@@ -6626,28 +6629,28 @@
         <v>2012</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -6661,19 +6664,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6690,19 +6693,19 @@
         <v>2</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="7">
         <v>2</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -6719,19 +6722,19 @@
         <v>3</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="7">
         <v>3</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -6744,19 +6747,19 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="7">
         <v>4</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -6769,19 +6772,19 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="7">
         <v>5</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -6792,19 +6795,19 @@
         <v>2018</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="7">
         <v>6</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -6815,19 +6818,19 @@
         <v>2019</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="7">
         <v>7</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="7">
         <v>7</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -6838,7 +6841,7 @@
         <v>2020</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -6849,7 +6852,7 @@
         <v>2021</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6860,7 +6863,7 @@
         <v>2022</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6871,7 +6874,7 @@
         <v>2023</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -6882,7 +6885,7 @@
         <v>2024</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6923,7 +6926,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_electrico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7812A2-2848-4813-A9BC-726F7A6E8DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD71404-2CCD-4DC9-A549-0033CCE36462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
   <sheets>
     <sheet name="Calentador de agua electrico" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -279,23 +279,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -306,6 +291,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +633,7 @@
   <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,34 +675,34 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -727,5843 +736,5843 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="e">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="e">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="e">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="e">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="e">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="e">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="e">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="e">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="e">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="e">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="e">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10" t="e">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="e">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="e">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="e">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="14"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="e">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="e">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="e">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="e">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="e">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="e">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="e">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="e">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="e">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="e">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="e">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="e">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="14"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="e">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="e">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="e">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="e">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="e">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="e">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="e">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="e">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="e">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="e">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10" t="e">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="e">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="14"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="e">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="e">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="e">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="e">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="e">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="e">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="14"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="e">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10" t="e">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="e">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="14"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="e">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10" t="e">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="e">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="14"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="e">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10" t="e">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="e">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="14"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="e">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="e">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="e">
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="e">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10" t="e">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="e">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="e">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10" t="e">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="e">
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="14"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="e">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10" t="e">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="e">
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="14"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="e">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10" t="e">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="e">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="14"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="e">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10" t="e">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="e">
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="14"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="e">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10" t="e">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="e">
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="14"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="e">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10" t="e">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10" t="e">
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="14"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="e">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="e">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="e">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="14"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10" t="e">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10" t="e">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="e">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="14"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10" t="e">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="e">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="e">
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="14"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10" t="e">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="e">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10" t="e">
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="14"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10" t="e">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="e">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="e">
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="14"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="e">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10" t="e">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="e">
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="14"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="e">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10" t="e">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10" t="e">
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="14"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10" t="e">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10" t="e">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10" t="e">
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="14"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10" t="e">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10" t="e">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="e">
+      <c r="E39" s="19"/>
+      <c r="F39" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="14"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10" t="e">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10" t="e">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10" t="e">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="14"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10" t="e">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10" t="e">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10" t="e">
+      <c r="E41" s="19"/>
+      <c r="F41" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="14"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10" t="e">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10" t="e">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10" t="e">
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="14"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10" t="e">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10" t="e">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10" t="e">
+      <c r="E43" s="19"/>
+      <c r="F43" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="14"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10" t="e">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10" t="e">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="e">
+      <c r="E44" s="19"/>
+      <c r="F44" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="14"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10" t="e">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10" t="e">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10" t="e">
+      <c r="E45" s="19"/>
+      <c r="F45" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="14"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10" t="e">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10" t="e">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10" t="e">
+      <c r="E46" s="19"/>
+      <c r="F46" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="14"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10" t="e">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10" t="e">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10" t="e">
+      <c r="E47" s="19"/>
+      <c r="F47" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="14"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10" t="e">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10" t="e">
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10" t="e">
+      <c r="E48" s="19"/>
+      <c r="F48" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="14"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10" t="e">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10" t="e">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10" t="e">
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="14"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10" t="e">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10" t="e">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10" t="e">
+      <c r="E50" s="19"/>
+      <c r="F50" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="14"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10" t="e">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10" t="e">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10" t="e">
+      <c r="E51" s="19"/>
+      <c r="F51" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="14"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10" t="e">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10" t="e">
+      <c r="C52" s="19"/>
+      <c r="D52" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10" t="e">
+      <c r="E52" s="19"/>
+      <c r="F52" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="14"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10" t="e">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10" t="e">
+      <c r="C53" s="19"/>
+      <c r="D53" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10" t="e">
+      <c r="E53" s="19"/>
+      <c r="F53" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="14"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10" t="e">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10" t="e">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10" t="e">
+      <c r="E54" s="19"/>
+      <c r="F54" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="14"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10" t="e">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10" t="e">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10" t="e">
+      <c r="E55" s="19"/>
+      <c r="F55" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="14"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="20"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10" t="e">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10" t="e">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10" t="e">
+      <c r="E56" s="19"/>
+      <c r="F56" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="14"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10" t="e">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10" t="e">
+      <c r="C57" s="19"/>
+      <c r="D57" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10" t="e">
+      <c r="E57" s="19"/>
+      <c r="F57" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="14"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10" t="e">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10" t="e">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10" t="e">
+      <c r="E58" s="19"/>
+      <c r="F58" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="14"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10" t="e">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10" t="e">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="e">
+      <c r="E59" s="19"/>
+      <c r="F59" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="14"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="20"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10" t="e">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10" t="e">
+      <c r="C60" s="19"/>
+      <c r="D60" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10" t="e">
+      <c r="E60" s="19"/>
+      <c r="F60" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="14"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="e">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10" t="e">
+      <c r="C61" s="19"/>
+      <c r="D61" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10" t="e">
+      <c r="E61" s="19"/>
+      <c r="F61" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="14"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10" t="e">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10" t="e">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10" t="e">
+      <c r="E62" s="19"/>
+      <c r="F62" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="14"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="e">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10" t="e">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10" t="e">
+      <c r="E63" s="19"/>
+      <c r="F63" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="14"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10" t="e">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10" t="e">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10" t="e">
+      <c r="E64" s="19"/>
+      <c r="F64" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="14"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="20"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10" t="e">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10" t="e">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10" t="e">
+      <c r="E65" s="19"/>
+      <c r="F65" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="14"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10" t="e">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10" t="e">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10" t="e">
+      <c r="E66" s="19"/>
+      <c r="F66" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="14"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="20"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10" t="e">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10" t="e">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10" t="e">
+      <c r="E67" s="19"/>
+      <c r="F67" s="19" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="14"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="20"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10" t="e">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19" t="e">
         <f t="shared" ref="B68:B131" si="3">VLOOKUP(C68,Tabla_Capacidad,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10" t="e">
+      <c r="C68" s="19"/>
+      <c r="D68" s="19" t="e">
         <f t="shared" ref="D68:D131" si="4">VLOOKUP(E68,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10" t="e">
+      <c r="E68" s="19"/>
+      <c r="F68" s="19" t="e">
         <f t="shared" ref="F68:F131" si="5">VLOOKUP(G68,Tabla_Iniciativa,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="14"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="20"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10" t="e">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10" t="e">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10" t="e">
+      <c r="E69" s="19"/>
+      <c r="F69" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="14"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="20"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10" t="e">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10" t="e">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10" t="e">
+      <c r="E70" s="19"/>
+      <c r="F70" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="14"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="20"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10" t="e">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10" t="e">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10" t="e">
+      <c r="E71" s="19"/>
+      <c r="F71" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="14"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="20"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10" t="e">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10" t="e">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10" t="e">
+      <c r="E72" s="19"/>
+      <c r="F72" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="14"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="20"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10" t="e">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10" t="e">
+      <c r="C73" s="19"/>
+      <c r="D73" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10" t="e">
+      <c r="E73" s="19"/>
+      <c r="F73" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="14"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="20"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10" t="e">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10" t="e">
+      <c r="C74" s="19"/>
+      <c r="D74" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10" t="e">
+      <c r="E74" s="19"/>
+      <c r="F74" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G74" s="10"/>
-      <c r="H74" s="14"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="20"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10" t="e">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10" t="e">
+      <c r="C75" s="19"/>
+      <c r="D75" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10" t="e">
+      <c r="E75" s="19"/>
+      <c r="F75" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="14"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="20"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10" t="e">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10" t="e">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10" t="e">
+      <c r="E76" s="19"/>
+      <c r="F76" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="14"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="20"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10" t="e">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10" t="e">
+      <c r="C77" s="19"/>
+      <c r="D77" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10" t="e">
+      <c r="E77" s="19"/>
+      <c r="F77" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="14"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="20"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10" t="e">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10" t="e">
+      <c r="C78" s="19"/>
+      <c r="D78" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10" t="e">
+      <c r="E78" s="19"/>
+      <c r="F78" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="14"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="20"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10" t="e">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10" t="e">
+      <c r="C79" s="19"/>
+      <c r="D79" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10" t="e">
+      <c r="E79" s="19"/>
+      <c r="F79" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="14"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="20"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10" t="e">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10" t="e">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10" t="e">
+      <c r="E80" s="19"/>
+      <c r="F80" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G80" s="10"/>
-      <c r="H80" s="14"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="20"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10" t="e">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10" t="e">
+      <c r="C81" s="19"/>
+      <c r="D81" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10" t="e">
+      <c r="E81" s="19"/>
+      <c r="F81" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G81" s="10"/>
-      <c r="H81" s="14"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="20"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10" t="e">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10" t="e">
+      <c r="C82" s="19"/>
+      <c r="D82" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10" t="e">
+      <c r="E82" s="19"/>
+      <c r="F82" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="14"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="20"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10" t="e">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10" t="e">
+      <c r="C83" s="19"/>
+      <c r="D83" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10" t="e">
+      <c r="E83" s="19"/>
+      <c r="F83" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G83" s="10"/>
-      <c r="H83" s="14"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="20"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10" t="e">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10" t="e">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10" t="e">
+      <c r="E84" s="19"/>
+      <c r="F84" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G84" s="10"/>
-      <c r="H84" s="14"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10" t="e">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10" t="e">
+      <c r="C85" s="19"/>
+      <c r="D85" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10" t="e">
+      <c r="E85" s="19"/>
+      <c r="F85" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="14"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="20"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10" t="e">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10" t="e">
+      <c r="C86" s="19"/>
+      <c r="D86" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10" t="e">
+      <c r="E86" s="19"/>
+      <c r="F86" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="14"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="20"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10" t="e">
+      <c r="A87" s="19"/>
+      <c r="B87" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10" t="e">
+      <c r="C87" s="19"/>
+      <c r="D87" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10" t="e">
+      <c r="E87" s="19"/>
+      <c r="F87" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G87" s="10"/>
-      <c r="H87" s="14"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="20"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10" t="e">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10" t="e">
+      <c r="C88" s="19"/>
+      <c r="D88" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10" t="e">
+      <c r="E88" s="19"/>
+      <c r="F88" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G88" s="10"/>
-      <c r="H88" s="14"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="20"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10" t="e">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10" t="e">
+      <c r="C89" s="19"/>
+      <c r="D89" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10" t="e">
+      <c r="E89" s="19"/>
+      <c r="F89" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G89" s="10"/>
-      <c r="H89" s="14"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="20"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10" t="e">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10" t="e">
+      <c r="C90" s="19"/>
+      <c r="D90" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10" t="e">
+      <c r="E90" s="19"/>
+      <c r="F90" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G90" s="10"/>
-      <c r="H90" s="14"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="20"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10" t="e">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10" t="e">
+      <c r="C91" s="19"/>
+      <c r="D91" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10" t="e">
+      <c r="E91" s="19"/>
+      <c r="F91" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G91" s="10"/>
-      <c r="H91" s="14"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="20"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10" t="e">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10" t="e">
+      <c r="C92" s="19"/>
+      <c r="D92" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10" t="e">
+      <c r="E92" s="19"/>
+      <c r="F92" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G92" s="10"/>
-      <c r="H92" s="14"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="20"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10" t="e">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10" t="e">
+      <c r="C93" s="19"/>
+      <c r="D93" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10" t="e">
+      <c r="E93" s="19"/>
+      <c r="F93" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G93" s="10"/>
-      <c r="H93" s="14"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="20"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10" t="e">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10" t="e">
+      <c r="C94" s="19"/>
+      <c r="D94" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10" t="e">
+      <c r="E94" s="19"/>
+      <c r="F94" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G94" s="10"/>
-      <c r="H94" s="14"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10" t="e">
+      <c r="A95" s="19"/>
+      <c r="B95" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10" t="e">
+      <c r="C95" s="19"/>
+      <c r="D95" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10" t="e">
+      <c r="E95" s="19"/>
+      <c r="F95" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G95" s="10"/>
-      <c r="H95" s="14"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="20"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10" t="e">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10" t="e">
+      <c r="C96" s="19"/>
+      <c r="D96" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10" t="e">
+      <c r="E96" s="19"/>
+      <c r="F96" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G96" s="10"/>
-      <c r="H96" s="14"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="20"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10" t="e">
+      <c r="A97" s="19"/>
+      <c r="B97" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10" t="e">
+      <c r="C97" s="19"/>
+      <c r="D97" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10" t="e">
+      <c r="E97" s="19"/>
+      <c r="F97" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G97" s="10"/>
-      <c r="H97" s="14"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="20"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10" t="e">
+      <c r="A98" s="19"/>
+      <c r="B98" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10" t="e">
+      <c r="C98" s="19"/>
+      <c r="D98" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10" t="e">
+      <c r="E98" s="19"/>
+      <c r="F98" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G98" s="10"/>
-      <c r="H98" s="14"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="20"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10" t="e">
+      <c r="A99" s="19"/>
+      <c r="B99" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10" t="e">
+      <c r="C99" s="19"/>
+      <c r="D99" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10" t="e">
+      <c r="E99" s="19"/>
+      <c r="F99" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G99" s="10"/>
-      <c r="H99" s="14"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="20"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10" t="e">
+      <c r="A100" s="19"/>
+      <c r="B100" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10" t="e">
+      <c r="C100" s="19"/>
+      <c r="D100" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10" t="e">
+      <c r="E100" s="19"/>
+      <c r="F100" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G100" s="10"/>
-      <c r="H100" s="14"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="20"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10" t="e">
+      <c r="A101" s="19"/>
+      <c r="B101" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10" t="e">
+      <c r="C101" s="19"/>
+      <c r="D101" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10" t="e">
+      <c r="E101" s="19"/>
+      <c r="F101" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="14"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="20"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10" t="e">
+      <c r="A102" s="19"/>
+      <c r="B102" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10" t="e">
+      <c r="C102" s="19"/>
+      <c r="D102" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10" t="e">
+      <c r="E102" s="19"/>
+      <c r="F102" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G102" s="10"/>
-      <c r="H102" s="14"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="20"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10" t="e">
+      <c r="A103" s="19"/>
+      <c r="B103" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10" t="e">
+      <c r="C103" s="19"/>
+      <c r="D103" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10" t="e">
+      <c r="E103" s="19"/>
+      <c r="F103" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G103" s="10"/>
-      <c r="H103" s="14"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="20"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10" t="e">
+      <c r="A104" s="19"/>
+      <c r="B104" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10" t="e">
+      <c r="C104" s="19"/>
+      <c r="D104" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10" t="e">
+      <c r="E104" s="19"/>
+      <c r="F104" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G104" s="10"/>
-      <c r="H104" s="14"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="20"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10" t="e">
+      <c r="A105" s="19"/>
+      <c r="B105" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10" t="e">
+      <c r="C105" s="19"/>
+      <c r="D105" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10" t="e">
+      <c r="E105" s="19"/>
+      <c r="F105" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G105" s="10"/>
-      <c r="H105" s="14"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="20"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10" t="e">
+      <c r="A106" s="19"/>
+      <c r="B106" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10" t="e">
+      <c r="C106" s="19"/>
+      <c r="D106" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10" t="e">
+      <c r="E106" s="19"/>
+      <c r="F106" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G106" s="10"/>
-      <c r="H106" s="14"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="20"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10" t="e">
+      <c r="A107" s="19"/>
+      <c r="B107" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10" t="e">
+      <c r="C107" s="19"/>
+      <c r="D107" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10" t="e">
+      <c r="E107" s="19"/>
+      <c r="F107" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G107" s="10"/>
-      <c r="H107" s="14"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="20"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10" t="e">
+      <c r="A108" s="19"/>
+      <c r="B108" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10" t="e">
+      <c r="C108" s="19"/>
+      <c r="D108" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10" t="e">
+      <c r="E108" s="19"/>
+      <c r="F108" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G108" s="10"/>
-      <c r="H108" s="14"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="20"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10" t="e">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10" t="e">
+      <c r="C109" s="19"/>
+      <c r="D109" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10" t="e">
+      <c r="E109" s="19"/>
+      <c r="F109" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G109" s="10"/>
-      <c r="H109" s="14"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="20"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10" t="e">
+      <c r="A110" s="19"/>
+      <c r="B110" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10" t="e">
+      <c r="C110" s="19"/>
+      <c r="D110" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10" t="e">
+      <c r="E110" s="19"/>
+      <c r="F110" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G110" s="10"/>
-      <c r="H110" s="14"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="20"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10" t="e">
+      <c r="A111" s="19"/>
+      <c r="B111" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10" t="e">
+      <c r="C111" s="19"/>
+      <c r="D111" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10" t="e">
+      <c r="E111" s="19"/>
+      <c r="F111" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G111" s="10"/>
-      <c r="H111" s="14"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="20"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10" t="e">
+      <c r="A112" s="19"/>
+      <c r="B112" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10" t="e">
+      <c r="C112" s="19"/>
+      <c r="D112" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10" t="e">
+      <c r="E112" s="19"/>
+      <c r="F112" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G112" s="10"/>
-      <c r="H112" s="14"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="20"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10" t="e">
+      <c r="A113" s="19"/>
+      <c r="B113" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10" t="e">
+      <c r="C113" s="19"/>
+      <c r="D113" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10" t="e">
+      <c r="E113" s="19"/>
+      <c r="F113" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G113" s="10"/>
-      <c r="H113" s="14"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="20"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10" t="e">
+      <c r="A114" s="19"/>
+      <c r="B114" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10" t="e">
+      <c r="C114" s="19"/>
+      <c r="D114" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10" t="e">
+      <c r="E114" s="19"/>
+      <c r="F114" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G114" s="10"/>
-      <c r="H114" s="14"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="20"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10" t="e">
+      <c r="A115" s="19"/>
+      <c r="B115" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10" t="e">
+      <c r="C115" s="19"/>
+      <c r="D115" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10" t="e">
+      <c r="E115" s="19"/>
+      <c r="F115" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G115" s="10"/>
-      <c r="H115" s="14"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="20"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10" t="e">
+      <c r="A116" s="19"/>
+      <c r="B116" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10" t="e">
+      <c r="C116" s="19"/>
+      <c r="D116" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10" t="e">
+      <c r="E116" s="19"/>
+      <c r="F116" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G116" s="10"/>
-      <c r="H116" s="14"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="20"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10" t="e">
+      <c r="A117" s="19"/>
+      <c r="B117" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10" t="e">
+      <c r="C117" s="19"/>
+      <c r="D117" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10" t="e">
+      <c r="E117" s="19"/>
+      <c r="F117" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G117" s="10"/>
-      <c r="H117" s="14"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="20"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10" t="e">
+      <c r="A118" s="19"/>
+      <c r="B118" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10" t="e">
+      <c r="C118" s="19"/>
+      <c r="D118" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10" t="e">
+      <c r="E118" s="19"/>
+      <c r="F118" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G118" s="10"/>
-      <c r="H118" s="14"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="20"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10" t="e">
+      <c r="A119" s="19"/>
+      <c r="B119" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10" t="e">
+      <c r="C119" s="19"/>
+      <c r="D119" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10" t="e">
+      <c r="E119" s="19"/>
+      <c r="F119" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G119" s="10"/>
-      <c r="H119" s="14"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="20"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10" t="e">
+      <c r="A120" s="19"/>
+      <c r="B120" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10" t="e">
+      <c r="C120" s="19"/>
+      <c r="D120" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10" t="e">
+      <c r="E120" s="19"/>
+      <c r="F120" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G120" s="10"/>
-      <c r="H120" s="14"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="20"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10" t="e">
+      <c r="A121" s="19"/>
+      <c r="B121" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10" t="e">
+      <c r="C121" s="19"/>
+      <c r="D121" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10" t="e">
+      <c r="E121" s="19"/>
+      <c r="F121" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G121" s="10"/>
-      <c r="H121" s="14"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="20"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10" t="e">
+      <c r="A122" s="19"/>
+      <c r="B122" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10" t="e">
+      <c r="C122" s="19"/>
+      <c r="D122" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10" t="e">
+      <c r="E122" s="19"/>
+      <c r="F122" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G122" s="10"/>
-      <c r="H122" s="14"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="20"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10" t="e">
+      <c r="A123" s="19"/>
+      <c r="B123" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10" t="e">
+      <c r="C123" s="19"/>
+      <c r="D123" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10" t="e">
+      <c r="E123" s="19"/>
+      <c r="F123" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G123" s="10"/>
-      <c r="H123" s="14"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="20"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10" t="e">
+      <c r="A124" s="19"/>
+      <c r="B124" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10" t="e">
+      <c r="C124" s="19"/>
+      <c r="D124" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10" t="e">
+      <c r="E124" s="19"/>
+      <c r="F124" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G124" s="10"/>
-      <c r="H124" s="14"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="20"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10" t="e">
+      <c r="A125" s="19"/>
+      <c r="B125" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10" t="e">
+      <c r="C125" s="19"/>
+      <c r="D125" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10" t="e">
+      <c r="E125" s="19"/>
+      <c r="F125" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G125" s="10"/>
-      <c r="H125" s="14"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="20"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10" t="e">
+      <c r="A126" s="19"/>
+      <c r="B126" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10" t="e">
+      <c r="C126" s="19"/>
+      <c r="D126" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10" t="e">
+      <c r="E126" s="19"/>
+      <c r="F126" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G126" s="10"/>
-      <c r="H126" s="14"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="20"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10" t="e">
+      <c r="A127" s="19"/>
+      <c r="B127" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10" t="e">
+      <c r="C127" s="19"/>
+      <c r="D127" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10" t="e">
+      <c r="E127" s="19"/>
+      <c r="F127" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G127" s="10"/>
-      <c r="H127" s="14"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="20"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10" t="e">
+      <c r="A128" s="19"/>
+      <c r="B128" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10" t="e">
+      <c r="C128" s="19"/>
+      <c r="D128" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10" t="e">
+      <c r="E128" s="19"/>
+      <c r="F128" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G128" s="10"/>
-      <c r="H128" s="14"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="20"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10" t="e">
+      <c r="A129" s="19"/>
+      <c r="B129" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10" t="e">
+      <c r="C129" s="19"/>
+      <c r="D129" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10" t="e">
+      <c r="E129" s="19"/>
+      <c r="F129" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G129" s="10"/>
-      <c r="H129" s="14"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="20"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10" t="e">
+      <c r="A130" s="19"/>
+      <c r="B130" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10" t="e">
+      <c r="C130" s="19"/>
+      <c r="D130" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10" t="e">
+      <c r="E130" s="19"/>
+      <c r="F130" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G130" s="10"/>
-      <c r="H130" s="14"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="20"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10" t="e">
+      <c r="A131" s="19"/>
+      <c r="B131" s="19" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10" t="e">
+      <c r="C131" s="19"/>
+      <c r="D131" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10" t="e">
+      <c r="E131" s="19"/>
+      <c r="F131" s="19" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="G131" s="10"/>
-      <c r="H131" s="14"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="20"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10" t="e">
+      <c r="A132" s="19"/>
+      <c r="B132" s="19" t="e">
         <f t="shared" ref="B132:B195" si="6">VLOOKUP(C132,Tabla_Capacidad,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10" t="e">
+      <c r="C132" s="19"/>
+      <c r="D132" s="19" t="e">
         <f t="shared" ref="D132:D195" si="7">VLOOKUP(E132,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10" t="e">
+      <c r="E132" s="19"/>
+      <c r="F132" s="19" t="e">
         <f t="shared" ref="F132:F195" si="8">VLOOKUP(G132,Tabla_Iniciativa,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G132" s="10"/>
-      <c r="H132" s="14"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="20"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10" t="e">
+      <c r="A133" s="19"/>
+      <c r="B133" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10" t="e">
+      <c r="C133" s="19"/>
+      <c r="D133" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10" t="e">
+      <c r="E133" s="19"/>
+      <c r="F133" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G133" s="10"/>
-      <c r="H133" s="14"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="20"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10" t="e">
+      <c r="A134" s="19"/>
+      <c r="B134" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10" t="e">
+      <c r="C134" s="19"/>
+      <c r="D134" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10" t="e">
+      <c r="E134" s="19"/>
+      <c r="F134" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G134" s="10"/>
-      <c r="H134" s="14"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="20"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10" t="e">
+      <c r="A135" s="19"/>
+      <c r="B135" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10" t="e">
+      <c r="C135" s="19"/>
+      <c r="D135" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10" t="e">
+      <c r="E135" s="19"/>
+      <c r="F135" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G135" s="10"/>
-      <c r="H135" s="14"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="20"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10" t="e">
+      <c r="A136" s="19"/>
+      <c r="B136" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10" t="e">
+      <c r="C136" s="19"/>
+      <c r="D136" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10" t="e">
+      <c r="E136" s="19"/>
+      <c r="F136" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G136" s="10"/>
-      <c r="H136" s="14"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="20"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10" t="e">
+      <c r="A137" s="19"/>
+      <c r="B137" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10" t="e">
+      <c r="C137" s="19"/>
+      <c r="D137" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10" t="e">
+      <c r="E137" s="19"/>
+      <c r="F137" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G137" s="10"/>
-      <c r="H137" s="14"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="20"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10" t="e">
+      <c r="A138" s="19"/>
+      <c r="B138" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10" t="e">
+      <c r="C138" s="19"/>
+      <c r="D138" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10" t="e">
+      <c r="E138" s="19"/>
+      <c r="F138" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G138" s="10"/>
-      <c r="H138" s="14"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="20"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10" t="e">
+      <c r="A139" s="19"/>
+      <c r="B139" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10" t="e">
+      <c r="C139" s="19"/>
+      <c r="D139" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10" t="e">
+      <c r="E139" s="19"/>
+      <c r="F139" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G139" s="10"/>
-      <c r="H139" s="14"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="20"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10" t="e">
+      <c r="A140" s="19"/>
+      <c r="B140" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10" t="e">
+      <c r="C140" s="19"/>
+      <c r="D140" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10" t="e">
+      <c r="E140" s="19"/>
+      <c r="F140" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G140" s="10"/>
-      <c r="H140" s="14"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="20"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10" t="e">
+      <c r="A141" s="19"/>
+      <c r="B141" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10" t="e">
+      <c r="C141" s="19"/>
+      <c r="D141" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10" t="e">
+      <c r="E141" s="19"/>
+      <c r="F141" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G141" s="10"/>
-      <c r="H141" s="14"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="20"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10" t="e">
+      <c r="A142" s="19"/>
+      <c r="B142" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10" t="e">
+      <c r="C142" s="19"/>
+      <c r="D142" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10" t="e">
+      <c r="E142" s="19"/>
+      <c r="F142" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G142" s="10"/>
-      <c r="H142" s="14"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="20"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10" t="e">
+      <c r="A143" s="19"/>
+      <c r="B143" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10" t="e">
+      <c r="C143" s="19"/>
+      <c r="D143" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10" t="e">
+      <c r="E143" s="19"/>
+      <c r="F143" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G143" s="10"/>
-      <c r="H143" s="14"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="20"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10" t="e">
+      <c r="A144" s="19"/>
+      <c r="B144" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10" t="e">
+      <c r="C144" s="19"/>
+      <c r="D144" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10" t="e">
+      <c r="E144" s="19"/>
+      <c r="F144" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G144" s="10"/>
-      <c r="H144" s="14"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="20"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10" t="e">
+      <c r="A145" s="19"/>
+      <c r="B145" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10" t="e">
+      <c r="C145" s="19"/>
+      <c r="D145" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10" t="e">
+      <c r="E145" s="19"/>
+      <c r="F145" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G145" s="10"/>
-      <c r="H145" s="14"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="20"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10" t="e">
+      <c r="A146" s="19"/>
+      <c r="B146" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10" t="e">
+      <c r="C146" s="19"/>
+      <c r="D146" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10" t="e">
+      <c r="E146" s="19"/>
+      <c r="F146" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G146" s="10"/>
-      <c r="H146" s="14"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="20"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10" t="e">
+      <c r="A147" s="19"/>
+      <c r="B147" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10" t="e">
+      <c r="C147" s="19"/>
+      <c r="D147" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10" t="e">
+      <c r="E147" s="19"/>
+      <c r="F147" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G147" s="10"/>
-      <c r="H147" s="14"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="20"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10" t="e">
+      <c r="A148" s="19"/>
+      <c r="B148" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10" t="e">
+      <c r="C148" s="19"/>
+      <c r="D148" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10" t="e">
+      <c r="E148" s="19"/>
+      <c r="F148" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G148" s="10"/>
-      <c r="H148" s="14"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="20"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10" t="e">
+      <c r="A149" s="19"/>
+      <c r="B149" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10" t="e">
+      <c r="C149" s="19"/>
+      <c r="D149" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10" t="e">
+      <c r="E149" s="19"/>
+      <c r="F149" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G149" s="10"/>
-      <c r="H149" s="14"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="20"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10" t="e">
+      <c r="A150" s="19"/>
+      <c r="B150" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10" t="e">
+      <c r="C150" s="19"/>
+      <c r="D150" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10" t="e">
+      <c r="E150" s="19"/>
+      <c r="F150" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G150" s="10"/>
-      <c r="H150" s="14"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="20"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10" t="e">
+      <c r="A151" s="19"/>
+      <c r="B151" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10" t="e">
+      <c r="C151" s="19"/>
+      <c r="D151" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10" t="e">
+      <c r="E151" s="19"/>
+      <c r="F151" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G151" s="10"/>
-      <c r="H151" s="14"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="20"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10" t="e">
+      <c r="A152" s="19"/>
+      <c r="B152" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10" t="e">
+      <c r="C152" s="19"/>
+      <c r="D152" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10" t="e">
+      <c r="E152" s="19"/>
+      <c r="F152" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G152" s="10"/>
-      <c r="H152" s="14"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="20"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10" t="e">
+      <c r="A153" s="19"/>
+      <c r="B153" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10" t="e">
+      <c r="C153" s="19"/>
+      <c r="D153" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10" t="e">
+      <c r="E153" s="19"/>
+      <c r="F153" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G153" s="10"/>
-      <c r="H153" s="14"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="20"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10" t="e">
+      <c r="A154" s="19"/>
+      <c r="B154" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10" t="e">
+      <c r="C154" s="19"/>
+      <c r="D154" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10" t="e">
+      <c r="E154" s="19"/>
+      <c r="F154" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G154" s="10"/>
-      <c r="H154" s="14"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="20"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10" t="e">
+      <c r="A155" s="19"/>
+      <c r="B155" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10" t="e">
+      <c r="C155" s="19"/>
+      <c r="D155" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10" t="e">
+      <c r="E155" s="19"/>
+      <c r="F155" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G155" s="10"/>
-      <c r="H155" s="14"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="20"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10" t="e">
+      <c r="A156" s="19"/>
+      <c r="B156" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10" t="e">
+      <c r="C156" s="19"/>
+      <c r="D156" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10" t="e">
+      <c r="E156" s="19"/>
+      <c r="F156" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G156" s="10"/>
-      <c r="H156" s="14"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="20"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10" t="e">
+      <c r="A157" s="19"/>
+      <c r="B157" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10" t="e">
+      <c r="C157" s="19"/>
+      <c r="D157" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10" t="e">
+      <c r="E157" s="19"/>
+      <c r="F157" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G157" s="10"/>
-      <c r="H157" s="14"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="20"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10" t="e">
+      <c r="A158" s="19"/>
+      <c r="B158" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10" t="e">
+      <c r="C158" s="19"/>
+      <c r="D158" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10" t="e">
+      <c r="E158" s="19"/>
+      <c r="F158" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G158" s="10"/>
-      <c r="H158" s="14"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="20"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10" t="e">
+      <c r="A159" s="19"/>
+      <c r="B159" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10" t="e">
+      <c r="C159" s="19"/>
+      <c r="D159" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10" t="e">
+      <c r="E159" s="19"/>
+      <c r="F159" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G159" s="10"/>
-      <c r="H159" s="14"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="20"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10" t="e">
+      <c r="A160" s="19"/>
+      <c r="B160" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10" t="e">
+      <c r="C160" s="19"/>
+      <c r="D160" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10" t="e">
+      <c r="E160" s="19"/>
+      <c r="F160" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G160" s="10"/>
-      <c r="H160" s="14"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="20"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
-      <c r="B161" s="10" t="e">
+      <c r="A161" s="19"/>
+      <c r="B161" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10" t="e">
+      <c r="C161" s="19"/>
+      <c r="D161" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10" t="e">
+      <c r="E161" s="19"/>
+      <c r="F161" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G161" s="10"/>
-      <c r="H161" s="14"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="20"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10" t="e">
+      <c r="A162" s="19"/>
+      <c r="B162" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10" t="e">
+      <c r="C162" s="19"/>
+      <c r="D162" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10" t="e">
+      <c r="E162" s="19"/>
+      <c r="F162" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G162" s="10"/>
-      <c r="H162" s="14"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="20"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10" t="e">
+      <c r="A163" s="19"/>
+      <c r="B163" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10" t="e">
+      <c r="C163" s="19"/>
+      <c r="D163" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10" t="e">
+      <c r="E163" s="19"/>
+      <c r="F163" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G163" s="10"/>
-      <c r="H163" s="14"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="20"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10" t="e">
+      <c r="A164" s="19"/>
+      <c r="B164" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10" t="e">
+      <c r="C164" s="19"/>
+      <c r="D164" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10" t="e">
+      <c r="E164" s="19"/>
+      <c r="F164" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G164" s="10"/>
-      <c r="H164" s="14"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="20"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
-      <c r="B165" s="10" t="e">
+      <c r="A165" s="19"/>
+      <c r="B165" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10" t="e">
+      <c r="C165" s="19"/>
+      <c r="D165" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10" t="e">
+      <c r="E165" s="19"/>
+      <c r="F165" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G165" s="10"/>
-      <c r="H165" s="14"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="20"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10" t="e">
+      <c r="A166" s="19"/>
+      <c r="B166" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10" t="e">
+      <c r="C166" s="19"/>
+      <c r="D166" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10" t="e">
+      <c r="E166" s="19"/>
+      <c r="F166" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G166" s="10"/>
-      <c r="H166" s="14"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="20"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10" t="e">
+      <c r="A167" s="19"/>
+      <c r="B167" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10" t="e">
+      <c r="C167" s="19"/>
+      <c r="D167" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10" t="e">
+      <c r="E167" s="19"/>
+      <c r="F167" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G167" s="10"/>
-      <c r="H167" s="14"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="20"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10" t="e">
+      <c r="A168" s="19"/>
+      <c r="B168" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10" t="e">
+      <c r="C168" s="19"/>
+      <c r="D168" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10" t="e">
+      <c r="E168" s="19"/>
+      <c r="F168" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G168" s="10"/>
-      <c r="H168" s="14"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="20"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10" t="e">
+      <c r="A169" s="19"/>
+      <c r="B169" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10" t="e">
+      <c r="C169" s="19"/>
+      <c r="D169" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10" t="e">
+      <c r="E169" s="19"/>
+      <c r="F169" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G169" s="10"/>
-      <c r="H169" s="14"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="20"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10" t="e">
+      <c r="A170" s="19"/>
+      <c r="B170" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10" t="e">
+      <c r="C170" s="19"/>
+      <c r="D170" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10" t="e">
+      <c r="E170" s="19"/>
+      <c r="F170" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G170" s="10"/>
-      <c r="H170" s="14"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="20"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10" t="e">
+      <c r="A171" s="19"/>
+      <c r="B171" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10" t="e">
+      <c r="C171" s="19"/>
+      <c r="D171" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10" t="e">
+      <c r="E171" s="19"/>
+      <c r="F171" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G171" s="10"/>
-      <c r="H171" s="14"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="20"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="10"/>
-      <c r="B172" s="10" t="e">
+      <c r="A172" s="19"/>
+      <c r="B172" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10" t="e">
+      <c r="C172" s="19"/>
+      <c r="D172" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10" t="e">
+      <c r="E172" s="19"/>
+      <c r="F172" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G172" s="10"/>
-      <c r="H172" s="14"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="20"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
-      <c r="B173" s="10" t="e">
+      <c r="A173" s="19"/>
+      <c r="B173" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10" t="e">
+      <c r="C173" s="19"/>
+      <c r="D173" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10" t="e">
+      <c r="E173" s="19"/>
+      <c r="F173" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G173" s="10"/>
-      <c r="H173" s="14"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="20"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="B174" s="10" t="e">
+      <c r="A174" s="19"/>
+      <c r="B174" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10" t="e">
+      <c r="C174" s="19"/>
+      <c r="D174" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10" t="e">
+      <c r="E174" s="19"/>
+      <c r="F174" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G174" s="10"/>
-      <c r="H174" s="14"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="20"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="10"/>
-      <c r="B175" s="10" t="e">
+      <c r="A175" s="19"/>
+      <c r="B175" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10" t="e">
+      <c r="C175" s="19"/>
+      <c r="D175" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10" t="e">
+      <c r="E175" s="19"/>
+      <c r="F175" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G175" s="10"/>
-      <c r="H175" s="14"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="20"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="10"/>
-      <c r="B176" s="10" t="e">
+      <c r="A176" s="19"/>
+      <c r="B176" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10" t="e">
+      <c r="C176" s="19"/>
+      <c r="D176" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10" t="e">
+      <c r="E176" s="19"/>
+      <c r="F176" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G176" s="10"/>
-      <c r="H176" s="14"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="20"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="10"/>
-      <c r="B177" s="10" t="e">
+      <c r="A177" s="19"/>
+      <c r="B177" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10" t="e">
+      <c r="C177" s="19"/>
+      <c r="D177" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10" t="e">
+      <c r="E177" s="19"/>
+      <c r="F177" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G177" s="10"/>
-      <c r="H177" s="14"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="20"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="10"/>
-      <c r="B178" s="10" t="e">
+      <c r="A178" s="19"/>
+      <c r="B178" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10" t="e">
+      <c r="C178" s="19"/>
+      <c r="D178" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10" t="e">
+      <c r="E178" s="19"/>
+      <c r="F178" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G178" s="10"/>
-      <c r="H178" s="14"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="20"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="10"/>
-      <c r="B179" s="10" t="e">
+      <c r="A179" s="19"/>
+      <c r="B179" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10" t="e">
+      <c r="C179" s="19"/>
+      <c r="D179" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10" t="e">
+      <c r="E179" s="19"/>
+      <c r="F179" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G179" s="10"/>
-      <c r="H179" s="14"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="20"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="10"/>
-      <c r="B180" s="10" t="e">
+      <c r="A180" s="19"/>
+      <c r="B180" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10" t="e">
+      <c r="C180" s="19"/>
+      <c r="D180" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10" t="e">
+      <c r="E180" s="19"/>
+      <c r="F180" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G180" s="10"/>
-      <c r="H180" s="14"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="20"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
-      <c r="B181" s="10" t="e">
+      <c r="A181" s="19"/>
+      <c r="B181" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10" t="e">
+      <c r="C181" s="19"/>
+      <c r="D181" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10" t="e">
+      <c r="E181" s="19"/>
+      <c r="F181" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G181" s="10"/>
-      <c r="H181" s="14"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="20"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="10"/>
-      <c r="B182" s="10" t="e">
+      <c r="A182" s="19"/>
+      <c r="B182" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10" t="e">
+      <c r="C182" s="19"/>
+      <c r="D182" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10" t="e">
+      <c r="E182" s="19"/>
+      <c r="F182" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G182" s="10"/>
-      <c r="H182" s="14"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="20"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
-      <c r="B183" s="10" t="e">
+      <c r="A183" s="19"/>
+      <c r="B183" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10" t="e">
+      <c r="C183" s="19"/>
+      <c r="D183" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10" t="e">
+      <c r="E183" s="19"/>
+      <c r="F183" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G183" s="10"/>
-      <c r="H183" s="14"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="20"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="10"/>
-      <c r="B184" s="10" t="e">
+      <c r="A184" s="19"/>
+      <c r="B184" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10" t="e">
+      <c r="C184" s="19"/>
+      <c r="D184" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10" t="e">
+      <c r="E184" s="19"/>
+      <c r="F184" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G184" s="10"/>
-      <c r="H184" s="14"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="20"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="10"/>
-      <c r="B185" s="10" t="e">
+      <c r="A185" s="19"/>
+      <c r="B185" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10" t="e">
+      <c r="C185" s="19"/>
+      <c r="D185" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10" t="e">
+      <c r="E185" s="19"/>
+      <c r="F185" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G185" s="10"/>
-      <c r="H185" s="14"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="20"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="10"/>
-      <c r="B186" s="10" t="e">
+      <c r="A186" s="19"/>
+      <c r="B186" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10" t="e">
+      <c r="C186" s="19"/>
+      <c r="D186" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10" t="e">
+      <c r="E186" s="19"/>
+      <c r="F186" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G186" s="10"/>
-      <c r="H186" s="14"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="20"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="10"/>
-      <c r="B187" s="10" t="e">
+      <c r="A187" s="19"/>
+      <c r="B187" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C187" s="10"/>
-      <c r="D187" s="10" t="e">
+      <c r="C187" s="19"/>
+      <c r="D187" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10" t="e">
+      <c r="E187" s="19"/>
+      <c r="F187" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G187" s="10"/>
-      <c r="H187" s="14"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="20"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" s="10" t="e">
+      <c r="A188" s="19"/>
+      <c r="B188" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10" t="e">
+      <c r="C188" s="19"/>
+      <c r="D188" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10" t="e">
+      <c r="E188" s="19"/>
+      <c r="F188" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G188" s="10"/>
-      <c r="H188" s="14"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="20"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
-      <c r="B189" s="10" t="e">
+      <c r="A189" s="19"/>
+      <c r="B189" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C189" s="10"/>
-      <c r="D189" s="10" t="e">
+      <c r="C189" s="19"/>
+      <c r="D189" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10" t="e">
+      <c r="E189" s="19"/>
+      <c r="F189" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G189" s="10"/>
-      <c r="H189" s="14"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="20"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
-      <c r="B190" s="10" t="e">
+      <c r="A190" s="19"/>
+      <c r="B190" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10" t="e">
+      <c r="C190" s="19"/>
+      <c r="D190" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10" t="e">
+      <c r="E190" s="19"/>
+      <c r="F190" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G190" s="10"/>
-      <c r="H190" s="14"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="20"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
-      <c r="B191" s="10" t="e">
+      <c r="A191" s="19"/>
+      <c r="B191" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10" t="e">
+      <c r="C191" s="19"/>
+      <c r="D191" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10" t="e">
+      <c r="E191" s="19"/>
+      <c r="F191" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G191" s="10"/>
-      <c r="H191" s="14"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="20"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
-      <c r="B192" s="10" t="e">
+      <c r="A192" s="19"/>
+      <c r="B192" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10" t="e">
+      <c r="C192" s="19"/>
+      <c r="D192" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10" t="e">
+      <c r="E192" s="19"/>
+      <c r="F192" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G192" s="10"/>
-      <c r="H192" s="14"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="20"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="10"/>
-      <c r="B193" s="10" t="e">
+      <c r="A193" s="19"/>
+      <c r="B193" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C193" s="10"/>
-      <c r="D193" s="10" t="e">
+      <c r="C193" s="19"/>
+      <c r="D193" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10" t="e">
+      <c r="E193" s="19"/>
+      <c r="F193" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G193" s="10"/>
-      <c r="H193" s="14"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="20"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="10"/>
-      <c r="B194" s="10" t="e">
+      <c r="A194" s="19"/>
+      <c r="B194" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C194" s="10"/>
-      <c r="D194" s="10" t="e">
+      <c r="C194" s="19"/>
+      <c r="D194" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10" t="e">
+      <c r="E194" s="19"/>
+      <c r="F194" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G194" s="10"/>
-      <c r="H194" s="14"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="20"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
-      <c r="B195" s="10" t="e">
+      <c r="A195" s="19"/>
+      <c r="B195" s="19" t="e">
         <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10" t="e">
+      <c r="C195" s="19"/>
+      <c r="D195" s="19" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10" t="e">
+      <c r="E195" s="19"/>
+      <c r="F195" s="19" t="e">
         <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
-      <c r="G195" s="10"/>
-      <c r="H195" s="14"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="20"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="10"/>
-      <c r="B196" s="10" t="e">
+      <c r="A196" s="19"/>
+      <c r="B196" s="19" t="e">
         <f t="shared" ref="B196:B259" si="9">VLOOKUP(C196,Tabla_Capacidad,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="C196" s="10"/>
-      <c r="D196" s="10" t="e">
+      <c r="C196" s="19"/>
+      <c r="D196" s="19" t="e">
         <f t="shared" ref="D196:D259" si="10">VLOOKUP(E196,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10" t="e">
+      <c r="E196" s="19"/>
+      <c r="F196" s="19" t="e">
         <f t="shared" ref="F196:F259" si="11">VLOOKUP(G196,Tabla_Iniciativa,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G196" s="10"/>
-      <c r="H196" s="14"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="20"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="10"/>
-      <c r="B197" s="10" t="e">
+      <c r="A197" s="19"/>
+      <c r="B197" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C197" s="10"/>
-      <c r="D197" s="10" t="e">
+      <c r="C197" s="19"/>
+      <c r="D197" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10" t="e">
+      <c r="E197" s="19"/>
+      <c r="F197" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G197" s="10"/>
-      <c r="H197" s="14"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="20"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="10"/>
-      <c r="B198" s="10" t="e">
+      <c r="A198" s="19"/>
+      <c r="B198" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10" t="e">
+      <c r="C198" s="19"/>
+      <c r="D198" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10" t="e">
+      <c r="E198" s="19"/>
+      <c r="F198" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G198" s="10"/>
-      <c r="H198" s="14"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="20"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="10"/>
-      <c r="B199" s="10" t="e">
+      <c r="A199" s="19"/>
+      <c r="B199" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10" t="e">
+      <c r="C199" s="19"/>
+      <c r="D199" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10" t="e">
+      <c r="E199" s="19"/>
+      <c r="F199" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G199" s="10"/>
-      <c r="H199" s="14"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="20"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="10"/>
-      <c r="B200" s="10" t="e">
+      <c r="A200" s="19"/>
+      <c r="B200" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10" t="e">
+      <c r="C200" s="19"/>
+      <c r="D200" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10" t="e">
+      <c r="E200" s="19"/>
+      <c r="F200" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G200" s="10"/>
-      <c r="H200" s="14"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="20"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="10"/>
-      <c r="B201" s="10" t="e">
+      <c r="A201" s="19"/>
+      <c r="B201" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C201" s="10"/>
-      <c r="D201" s="10" t="e">
+      <c r="C201" s="19"/>
+      <c r="D201" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10" t="e">
+      <c r="E201" s="19"/>
+      <c r="F201" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G201" s="10"/>
-      <c r="H201" s="14"/>
+      <c r="G201" s="19"/>
+      <c r="H201" s="20"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
-      <c r="B202" s="10" t="e">
+      <c r="A202" s="19"/>
+      <c r="B202" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10" t="e">
+      <c r="C202" s="19"/>
+      <c r="D202" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10" t="e">
+      <c r="E202" s="19"/>
+      <c r="F202" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G202" s="10"/>
-      <c r="H202" s="14"/>
+      <c r="G202" s="19"/>
+      <c r="H202" s="20"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="10"/>
-      <c r="B203" s="10" t="e">
+      <c r="A203" s="19"/>
+      <c r="B203" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10" t="e">
+      <c r="C203" s="19"/>
+      <c r="D203" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10" t="e">
+      <c r="E203" s="19"/>
+      <c r="F203" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G203" s="10"/>
-      <c r="H203" s="14"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="20"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
-      <c r="B204" s="10" t="e">
+      <c r="A204" s="19"/>
+      <c r="B204" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10" t="e">
+      <c r="C204" s="19"/>
+      <c r="D204" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10" t="e">
+      <c r="E204" s="19"/>
+      <c r="F204" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G204" s="10"/>
-      <c r="H204" s="14"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="20"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="10"/>
-      <c r="B205" s="10" t="e">
+      <c r="A205" s="19"/>
+      <c r="B205" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10" t="e">
+      <c r="C205" s="19"/>
+      <c r="D205" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10" t="e">
+      <c r="E205" s="19"/>
+      <c r="F205" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G205" s="10"/>
-      <c r="H205" s="14"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="20"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="10"/>
-      <c r="B206" s="10" t="e">
+      <c r="A206" s="19"/>
+      <c r="B206" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10" t="e">
+      <c r="C206" s="19"/>
+      <c r="D206" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10" t="e">
+      <c r="E206" s="19"/>
+      <c r="F206" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G206" s="10"/>
-      <c r="H206" s="14"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="20"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="10"/>
-      <c r="B207" s="10" t="e">
+      <c r="A207" s="19"/>
+      <c r="B207" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10" t="e">
+      <c r="C207" s="19"/>
+      <c r="D207" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10" t="e">
+      <c r="E207" s="19"/>
+      <c r="F207" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G207" s="10"/>
-      <c r="H207" s="14"/>
+      <c r="G207" s="19"/>
+      <c r="H207" s="20"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="10"/>
-      <c r="B208" s="10" t="e">
+      <c r="A208" s="19"/>
+      <c r="B208" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10" t="e">
+      <c r="C208" s="19"/>
+      <c r="D208" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10" t="e">
+      <c r="E208" s="19"/>
+      <c r="F208" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G208" s="10"/>
-      <c r="H208" s="14"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="20"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="10"/>
-      <c r="B209" s="10" t="e">
+      <c r="A209" s="19"/>
+      <c r="B209" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10" t="e">
+      <c r="C209" s="19"/>
+      <c r="D209" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10" t="e">
+      <c r="E209" s="19"/>
+      <c r="F209" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G209" s="10"/>
-      <c r="H209" s="14"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="20"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
-      <c r="B210" s="10" t="e">
+      <c r="A210" s="19"/>
+      <c r="B210" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10" t="e">
+      <c r="C210" s="19"/>
+      <c r="D210" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10" t="e">
+      <c r="E210" s="19"/>
+      <c r="F210" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G210" s="10"/>
-      <c r="H210" s="14"/>
+      <c r="G210" s="19"/>
+      <c r="H210" s="20"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="10"/>
-      <c r="B211" s="10" t="e">
+      <c r="A211" s="19"/>
+      <c r="B211" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10" t="e">
+      <c r="C211" s="19"/>
+      <c r="D211" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10" t="e">
+      <c r="E211" s="19"/>
+      <c r="F211" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G211" s="10"/>
-      <c r="H211" s="14"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="20"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="10"/>
-      <c r="B212" s="10" t="e">
+      <c r="A212" s="19"/>
+      <c r="B212" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10" t="e">
+      <c r="C212" s="19"/>
+      <c r="D212" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10" t="e">
+      <c r="E212" s="19"/>
+      <c r="F212" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G212" s="10"/>
-      <c r="H212" s="14"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="20"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="10"/>
-      <c r="B213" s="10" t="e">
+      <c r="A213" s="19"/>
+      <c r="B213" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10" t="e">
+      <c r="C213" s="19"/>
+      <c r="D213" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10" t="e">
+      <c r="E213" s="19"/>
+      <c r="F213" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G213" s="10"/>
-      <c r="H213" s="14"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="20"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="10"/>
-      <c r="B214" s="10" t="e">
+      <c r="A214" s="19"/>
+      <c r="B214" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10" t="e">
+      <c r="C214" s="19"/>
+      <c r="D214" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10" t="e">
+      <c r="E214" s="19"/>
+      <c r="F214" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G214" s="10"/>
-      <c r="H214" s="14"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="20"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="10"/>
-      <c r="B215" s="10" t="e">
+      <c r="A215" s="19"/>
+      <c r="B215" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10" t="e">
+      <c r="C215" s="19"/>
+      <c r="D215" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10" t="e">
+      <c r="E215" s="19"/>
+      <c r="F215" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G215" s="10"/>
-      <c r="H215" s="14"/>
+      <c r="G215" s="19"/>
+      <c r="H215" s="20"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="10"/>
-      <c r="B216" s="10" t="e">
+      <c r="A216" s="19"/>
+      <c r="B216" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10" t="e">
+      <c r="C216" s="19"/>
+      <c r="D216" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10" t="e">
+      <c r="E216" s="19"/>
+      <c r="F216" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G216" s="10"/>
-      <c r="H216" s="14"/>
+      <c r="G216" s="19"/>
+      <c r="H216" s="20"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10" t="e">
+      <c r="A217" s="19"/>
+      <c r="B217" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10" t="e">
+      <c r="C217" s="19"/>
+      <c r="D217" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10" t="e">
+      <c r="E217" s="19"/>
+      <c r="F217" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G217" s="10"/>
-      <c r="H217" s="14"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="20"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="10"/>
-      <c r="B218" s="10" t="e">
+      <c r="A218" s="19"/>
+      <c r="B218" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10" t="e">
+      <c r="C218" s="19"/>
+      <c r="D218" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10" t="e">
+      <c r="E218" s="19"/>
+      <c r="F218" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G218" s="10"/>
-      <c r="H218" s="14"/>
+      <c r="G218" s="19"/>
+      <c r="H218" s="20"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="10"/>
-      <c r="B219" s="10" t="e">
+      <c r="A219" s="19"/>
+      <c r="B219" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10" t="e">
+      <c r="C219" s="19"/>
+      <c r="D219" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10" t="e">
+      <c r="E219" s="19"/>
+      <c r="F219" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G219" s="10"/>
-      <c r="H219" s="14"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="20"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="10"/>
-      <c r="B220" s="10" t="e">
+      <c r="A220" s="19"/>
+      <c r="B220" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10" t="e">
+      <c r="C220" s="19"/>
+      <c r="D220" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10" t="e">
+      <c r="E220" s="19"/>
+      <c r="F220" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G220" s="10"/>
-      <c r="H220" s="14"/>
+      <c r="G220" s="19"/>
+      <c r="H220" s="20"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="10"/>
-      <c r="B221" s="10" t="e">
+      <c r="A221" s="19"/>
+      <c r="B221" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10" t="e">
+      <c r="C221" s="19"/>
+      <c r="D221" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E221" s="10"/>
-      <c r="F221" s="10" t="e">
+      <c r="E221" s="19"/>
+      <c r="F221" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G221" s="10"/>
-      <c r="H221" s="14"/>
+      <c r="G221" s="19"/>
+      <c r="H221" s="20"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
-      <c r="B222" s="10" t="e">
+      <c r="A222" s="19"/>
+      <c r="B222" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10" t="e">
+      <c r="C222" s="19"/>
+      <c r="D222" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10" t="e">
+      <c r="E222" s="19"/>
+      <c r="F222" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G222" s="10"/>
-      <c r="H222" s="14"/>
+      <c r="G222" s="19"/>
+      <c r="H222" s="20"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="10"/>
-      <c r="B223" s="10" t="e">
+      <c r="A223" s="19"/>
+      <c r="B223" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C223" s="10"/>
-      <c r="D223" s="10" t="e">
+      <c r="C223" s="19"/>
+      <c r="D223" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E223" s="10"/>
-      <c r="F223" s="10" t="e">
+      <c r="E223" s="19"/>
+      <c r="F223" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G223" s="10"/>
-      <c r="H223" s="14"/>
+      <c r="G223" s="19"/>
+      <c r="H223" s="20"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="10"/>
-      <c r="B224" s="10" t="e">
+      <c r="A224" s="19"/>
+      <c r="B224" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10" t="e">
+      <c r="C224" s="19"/>
+      <c r="D224" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E224" s="10"/>
-      <c r="F224" s="10" t="e">
+      <c r="E224" s="19"/>
+      <c r="F224" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G224" s="10"/>
-      <c r="H224" s="14"/>
+      <c r="G224" s="19"/>
+      <c r="H224" s="20"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="10"/>
-      <c r="B225" s="10" t="e">
+      <c r="A225" s="19"/>
+      <c r="B225" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10" t="e">
+      <c r="C225" s="19"/>
+      <c r="D225" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E225" s="10"/>
-      <c r="F225" s="10" t="e">
+      <c r="E225" s="19"/>
+      <c r="F225" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G225" s="10"/>
-      <c r="H225" s="14"/>
+      <c r="G225" s="19"/>
+      <c r="H225" s="20"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="10"/>
-      <c r="B226" s="10" t="e">
+      <c r="A226" s="19"/>
+      <c r="B226" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10" t="e">
+      <c r="C226" s="19"/>
+      <c r="D226" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10" t="e">
+      <c r="E226" s="19"/>
+      <c r="F226" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G226" s="10"/>
-      <c r="H226" s="14"/>
+      <c r="G226" s="19"/>
+      <c r="H226" s="20"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="10"/>
-      <c r="B227" s="10" t="e">
+      <c r="A227" s="19"/>
+      <c r="B227" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10" t="e">
+      <c r="C227" s="19"/>
+      <c r="D227" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E227" s="10"/>
-      <c r="F227" s="10" t="e">
+      <c r="E227" s="19"/>
+      <c r="F227" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G227" s="10"/>
-      <c r="H227" s="14"/>
+      <c r="G227" s="19"/>
+      <c r="H227" s="20"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="10"/>
-      <c r="B228" s="10" t="e">
+      <c r="A228" s="19"/>
+      <c r="B228" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10" t="e">
+      <c r="C228" s="19"/>
+      <c r="D228" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E228" s="10"/>
-      <c r="F228" s="10" t="e">
+      <c r="E228" s="19"/>
+      <c r="F228" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G228" s="10"/>
-      <c r="H228" s="14"/>
+      <c r="G228" s="19"/>
+      <c r="H228" s="20"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="10"/>
-      <c r="B229" s="10" t="e">
+      <c r="A229" s="19"/>
+      <c r="B229" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C229" s="10"/>
-      <c r="D229" s="10" t="e">
+      <c r="C229" s="19"/>
+      <c r="D229" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E229" s="10"/>
-      <c r="F229" s="10" t="e">
+      <c r="E229" s="19"/>
+      <c r="F229" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G229" s="10"/>
-      <c r="H229" s="14"/>
+      <c r="G229" s="19"/>
+      <c r="H229" s="20"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="10"/>
-      <c r="B230" s="10" t="e">
+      <c r="A230" s="19"/>
+      <c r="B230" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10" t="e">
+      <c r="C230" s="19"/>
+      <c r="D230" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E230" s="10"/>
-      <c r="F230" s="10" t="e">
+      <c r="E230" s="19"/>
+      <c r="F230" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G230" s="10"/>
-      <c r="H230" s="14"/>
+      <c r="G230" s="19"/>
+      <c r="H230" s="20"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="10"/>
-      <c r="B231" s="10" t="e">
+      <c r="A231" s="19"/>
+      <c r="B231" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10" t="e">
+      <c r="C231" s="19"/>
+      <c r="D231" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E231" s="10"/>
-      <c r="F231" s="10" t="e">
+      <c r="E231" s="19"/>
+      <c r="F231" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G231" s="10"/>
-      <c r="H231" s="14"/>
+      <c r="G231" s="19"/>
+      <c r="H231" s="20"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="10"/>
-      <c r="B232" s="10" t="e">
+      <c r="A232" s="19"/>
+      <c r="B232" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10" t="e">
+      <c r="C232" s="19"/>
+      <c r="D232" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E232" s="10"/>
-      <c r="F232" s="10" t="e">
+      <c r="E232" s="19"/>
+      <c r="F232" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G232" s="10"/>
-      <c r="H232" s="14"/>
+      <c r="G232" s="19"/>
+      <c r="H232" s="20"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="10"/>
-      <c r="B233" s="10" t="e">
+      <c r="A233" s="19"/>
+      <c r="B233" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C233" s="10"/>
-      <c r="D233" s="10" t="e">
+      <c r="C233" s="19"/>
+      <c r="D233" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E233" s="10"/>
-      <c r="F233" s="10" t="e">
+      <c r="E233" s="19"/>
+      <c r="F233" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G233" s="10"/>
-      <c r="H233" s="14"/>
+      <c r="G233" s="19"/>
+      <c r="H233" s="20"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="10"/>
-      <c r="B234" s="10" t="e">
+      <c r="A234" s="19"/>
+      <c r="B234" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C234" s="10"/>
-      <c r="D234" s="10" t="e">
+      <c r="C234" s="19"/>
+      <c r="D234" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E234" s="10"/>
-      <c r="F234" s="10" t="e">
+      <c r="E234" s="19"/>
+      <c r="F234" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G234" s="10"/>
-      <c r="H234" s="14"/>
+      <c r="G234" s="19"/>
+      <c r="H234" s="20"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
-      <c r="B235" s="10" t="e">
+      <c r="A235" s="19"/>
+      <c r="B235" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C235" s="10"/>
-      <c r="D235" s="10" t="e">
+      <c r="C235" s="19"/>
+      <c r="D235" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E235" s="10"/>
-      <c r="F235" s="10" t="e">
+      <c r="E235" s="19"/>
+      <c r="F235" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G235" s="10"/>
-      <c r="H235" s="14"/>
+      <c r="G235" s="19"/>
+      <c r="H235" s="20"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="10"/>
-      <c r="B236" s="10" t="e">
+      <c r="A236" s="19"/>
+      <c r="B236" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C236" s="10"/>
-      <c r="D236" s="10" t="e">
+      <c r="C236" s="19"/>
+      <c r="D236" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E236" s="10"/>
-      <c r="F236" s="10" t="e">
+      <c r="E236" s="19"/>
+      <c r="F236" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G236" s="10"/>
-      <c r="H236" s="14"/>
+      <c r="G236" s="19"/>
+      <c r="H236" s="20"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
-      <c r="B237" s="10" t="e">
+      <c r="A237" s="19"/>
+      <c r="B237" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C237" s="10"/>
-      <c r="D237" s="10" t="e">
+      <c r="C237" s="19"/>
+      <c r="D237" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E237" s="10"/>
-      <c r="F237" s="10" t="e">
+      <c r="E237" s="19"/>
+      <c r="F237" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G237" s="10"/>
-      <c r="H237" s="14"/>
+      <c r="G237" s="19"/>
+      <c r="H237" s="20"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="10"/>
-      <c r="B238" s="10" t="e">
+      <c r="A238" s="19"/>
+      <c r="B238" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10" t="e">
+      <c r="C238" s="19"/>
+      <c r="D238" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E238" s="10"/>
-      <c r="F238" s="10" t="e">
+      <c r="E238" s="19"/>
+      <c r="F238" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G238" s="10"/>
-      <c r="H238" s="14"/>
+      <c r="G238" s="19"/>
+      <c r="H238" s="20"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="10"/>
-      <c r="B239" s="10" t="e">
+      <c r="A239" s="19"/>
+      <c r="B239" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10" t="e">
+      <c r="C239" s="19"/>
+      <c r="D239" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E239" s="10"/>
-      <c r="F239" s="10" t="e">
+      <c r="E239" s="19"/>
+      <c r="F239" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G239" s="10"/>
-      <c r="H239" s="14"/>
+      <c r="G239" s="19"/>
+      <c r="H239" s="20"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="10"/>
-      <c r="B240" s="10" t="e">
+      <c r="A240" s="19"/>
+      <c r="B240" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C240" s="10"/>
-      <c r="D240" s="10" t="e">
+      <c r="C240" s="19"/>
+      <c r="D240" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E240" s="10"/>
-      <c r="F240" s="10" t="e">
+      <c r="E240" s="19"/>
+      <c r="F240" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G240" s="10"/>
-      <c r="H240" s="14"/>
+      <c r="G240" s="19"/>
+      <c r="H240" s="20"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="10"/>
-      <c r="B241" s="10" t="e">
+      <c r="A241" s="19"/>
+      <c r="B241" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C241" s="10"/>
-      <c r="D241" s="10" t="e">
+      <c r="C241" s="19"/>
+      <c r="D241" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E241" s="10"/>
-      <c r="F241" s="10" t="e">
+      <c r="E241" s="19"/>
+      <c r="F241" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G241" s="10"/>
-      <c r="H241" s="14"/>
+      <c r="G241" s="19"/>
+      <c r="H241" s="20"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="10"/>
-      <c r="B242" s="10" t="e">
+      <c r="A242" s="19"/>
+      <c r="B242" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C242" s="10"/>
-      <c r="D242" s="10" t="e">
+      <c r="C242" s="19"/>
+      <c r="D242" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E242" s="10"/>
-      <c r="F242" s="10" t="e">
+      <c r="E242" s="19"/>
+      <c r="F242" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G242" s="10"/>
-      <c r="H242" s="14"/>
+      <c r="G242" s="19"/>
+      <c r="H242" s="20"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="10"/>
-      <c r="B243" s="10" t="e">
+      <c r="A243" s="19"/>
+      <c r="B243" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10" t="e">
+      <c r="C243" s="19"/>
+      <c r="D243" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E243" s="10"/>
-      <c r="F243" s="10" t="e">
+      <c r="E243" s="19"/>
+      <c r="F243" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G243" s="10"/>
-      <c r="H243" s="14"/>
+      <c r="G243" s="19"/>
+      <c r="H243" s="20"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="10"/>
-      <c r="B244" s="10" t="e">
+      <c r="A244" s="19"/>
+      <c r="B244" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10" t="e">
+      <c r="C244" s="19"/>
+      <c r="D244" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E244" s="10"/>
-      <c r="F244" s="10" t="e">
+      <c r="E244" s="19"/>
+      <c r="F244" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G244" s="10"/>
-      <c r="H244" s="14"/>
+      <c r="G244" s="19"/>
+      <c r="H244" s="20"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="10"/>
-      <c r="B245" s="10" t="e">
+      <c r="A245" s="19"/>
+      <c r="B245" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C245" s="10"/>
-      <c r="D245" s="10" t="e">
+      <c r="C245" s="19"/>
+      <c r="D245" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E245" s="10"/>
-      <c r="F245" s="10" t="e">
+      <c r="E245" s="19"/>
+      <c r="F245" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G245" s="10"/>
-      <c r="H245" s="14"/>
+      <c r="G245" s="19"/>
+      <c r="H245" s="20"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="10"/>
-      <c r="B246" s="10" t="e">
+      <c r="A246" s="19"/>
+      <c r="B246" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C246" s="10"/>
-      <c r="D246" s="10" t="e">
+      <c r="C246" s="19"/>
+      <c r="D246" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E246" s="10"/>
-      <c r="F246" s="10" t="e">
+      <c r="E246" s="19"/>
+      <c r="F246" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G246" s="10"/>
-      <c r="H246" s="14"/>
+      <c r="G246" s="19"/>
+      <c r="H246" s="20"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="10"/>
-      <c r="B247" s="10" t="e">
+      <c r="A247" s="19"/>
+      <c r="B247" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C247" s="10"/>
-      <c r="D247" s="10" t="e">
+      <c r="C247" s="19"/>
+      <c r="D247" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E247" s="10"/>
-      <c r="F247" s="10" t="e">
+      <c r="E247" s="19"/>
+      <c r="F247" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G247" s="10"/>
-      <c r="H247" s="14"/>
+      <c r="G247" s="19"/>
+      <c r="H247" s="20"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="10"/>
-      <c r="B248" s="10" t="e">
+      <c r="A248" s="19"/>
+      <c r="B248" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C248" s="10"/>
-      <c r="D248" s="10" t="e">
+      <c r="C248" s="19"/>
+      <c r="D248" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E248" s="10"/>
-      <c r="F248" s="10" t="e">
+      <c r="E248" s="19"/>
+      <c r="F248" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G248" s="10"/>
-      <c r="H248" s="14"/>
+      <c r="G248" s="19"/>
+      <c r="H248" s="20"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="10"/>
-      <c r="B249" s="10" t="e">
+      <c r="A249" s="19"/>
+      <c r="B249" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C249" s="10"/>
-      <c r="D249" s="10" t="e">
+      <c r="C249" s="19"/>
+      <c r="D249" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E249" s="10"/>
-      <c r="F249" s="10" t="e">
+      <c r="E249" s="19"/>
+      <c r="F249" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G249" s="10"/>
-      <c r="H249" s="14"/>
+      <c r="G249" s="19"/>
+      <c r="H249" s="20"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="10"/>
-      <c r="B250" s="10" t="e">
+      <c r="A250" s="19"/>
+      <c r="B250" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C250" s="10"/>
-      <c r="D250" s="10" t="e">
+      <c r="C250" s="19"/>
+      <c r="D250" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E250" s="10"/>
-      <c r="F250" s="10" t="e">
+      <c r="E250" s="19"/>
+      <c r="F250" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G250" s="10"/>
-      <c r="H250" s="14"/>
+      <c r="G250" s="19"/>
+      <c r="H250" s="20"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="10"/>
-      <c r="B251" s="10" t="e">
+      <c r="A251" s="19"/>
+      <c r="B251" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C251" s="10"/>
-      <c r="D251" s="10" t="e">
+      <c r="C251" s="19"/>
+      <c r="D251" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E251" s="10"/>
-      <c r="F251" s="10" t="e">
+      <c r="E251" s="19"/>
+      <c r="F251" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G251" s="10"/>
-      <c r="H251" s="14"/>
+      <c r="G251" s="19"/>
+      <c r="H251" s="20"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="10"/>
-      <c r="B252" s="10" t="e">
+      <c r="A252" s="19"/>
+      <c r="B252" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C252" s="10"/>
-      <c r="D252" s="10" t="e">
+      <c r="C252" s="19"/>
+      <c r="D252" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E252" s="10"/>
-      <c r="F252" s="10" t="e">
+      <c r="E252" s="19"/>
+      <c r="F252" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G252" s="10"/>
-      <c r="H252" s="14"/>
+      <c r="G252" s="19"/>
+      <c r="H252" s="20"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="10"/>
-      <c r="B253" s="10" t="e">
+      <c r="A253" s="19"/>
+      <c r="B253" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10" t="e">
+      <c r="C253" s="19"/>
+      <c r="D253" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E253" s="10"/>
-      <c r="F253" s="10" t="e">
+      <c r="E253" s="19"/>
+      <c r="F253" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G253" s="10"/>
-      <c r="H253" s="14"/>
+      <c r="G253" s="19"/>
+      <c r="H253" s="20"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="10"/>
-      <c r="B254" s="10" t="e">
+      <c r="A254" s="19"/>
+      <c r="B254" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C254" s="10"/>
-      <c r="D254" s="10" t="e">
+      <c r="C254" s="19"/>
+      <c r="D254" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E254" s="10"/>
-      <c r="F254" s="10" t="e">
+      <c r="E254" s="19"/>
+      <c r="F254" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G254" s="10"/>
-      <c r="H254" s="14"/>
+      <c r="G254" s="19"/>
+      <c r="H254" s="20"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="10"/>
-      <c r="B255" s="10" t="e">
+      <c r="A255" s="19"/>
+      <c r="B255" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10" t="e">
+      <c r="C255" s="19"/>
+      <c r="D255" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E255" s="10"/>
-      <c r="F255" s="10" t="e">
+      <c r="E255" s="19"/>
+      <c r="F255" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G255" s="10"/>
-      <c r="H255" s="14"/>
+      <c r="G255" s="19"/>
+      <c r="H255" s="20"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="10"/>
-      <c r="B256" s="10" t="e">
+      <c r="A256" s="19"/>
+      <c r="B256" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C256" s="10"/>
-      <c r="D256" s="10" t="e">
+      <c r="C256" s="19"/>
+      <c r="D256" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E256" s="10"/>
-      <c r="F256" s="10" t="e">
+      <c r="E256" s="19"/>
+      <c r="F256" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G256" s="10"/>
-      <c r="H256" s="14"/>
+      <c r="G256" s="19"/>
+      <c r="H256" s="20"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="10"/>
-      <c r="B257" s="10" t="e">
+      <c r="A257" s="19"/>
+      <c r="B257" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C257" s="10"/>
-      <c r="D257" s="10" t="e">
+      <c r="C257" s="19"/>
+      <c r="D257" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E257" s="10"/>
-      <c r="F257" s="10" t="e">
+      <c r="E257" s="19"/>
+      <c r="F257" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G257" s="10"/>
-      <c r="H257" s="14"/>
+      <c r="G257" s="19"/>
+      <c r="H257" s="20"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="10"/>
-      <c r="B258" s="10" t="e">
+      <c r="A258" s="19"/>
+      <c r="B258" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C258" s="10"/>
-      <c r="D258" s="10" t="e">
+      <c r="C258" s="19"/>
+      <c r="D258" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E258" s="10"/>
-      <c r="F258" s="10" t="e">
+      <c r="E258" s="19"/>
+      <c r="F258" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G258" s="10"/>
-      <c r="H258" s="14"/>
+      <c r="G258" s="19"/>
+      <c r="H258" s="20"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="10"/>
-      <c r="B259" s="10" t="e">
+      <c r="A259" s="19"/>
+      <c r="B259" s="19" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="C259" s="10"/>
-      <c r="D259" s="10" t="e">
+      <c r="C259" s="19"/>
+      <c r="D259" s="19" t="e">
         <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="E259" s="10"/>
-      <c r="F259" s="10" t="e">
+      <c r="E259" s="19"/>
+      <c r="F259" s="19" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="G259" s="10"/>
-      <c r="H259" s="14"/>
+      <c r="G259" s="19"/>
+      <c r="H259" s="20"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
-      <c r="B260" s="10" t="e">
+      <c r="A260" s="19"/>
+      <c r="B260" s="19" t="e">
         <f t="shared" ref="B260:B311" si="12">VLOOKUP(C260,Tabla_Capacidad,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10" t="e">
+      <c r="C260" s="19"/>
+      <c r="D260" s="19" t="e">
         <f t="shared" ref="D260:D311" si="13">VLOOKUP(E260,Tabla_BAU,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="E260" s="10"/>
-      <c r="F260" s="10" t="e">
+      <c r="E260" s="19"/>
+      <c r="F260" s="19" t="e">
         <f t="shared" ref="F260:F311" si="14">VLOOKUP(G260,Tabla_Iniciativa,2,)</f>
         <v>#N/A</v>
       </c>
-      <c r="G260" s="10"/>
-      <c r="H260" s="14"/>
+      <c r="G260" s="19"/>
+      <c r="H260" s="20"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="10"/>
-      <c r="B261" s="10" t="e">
+      <c r="A261" s="19"/>
+      <c r="B261" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10" t="e">
+      <c r="C261" s="19"/>
+      <c r="D261" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10" t="e">
+      <c r="E261" s="19"/>
+      <c r="F261" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G261" s="10"/>
-      <c r="H261" s="14"/>
+      <c r="G261" s="19"/>
+      <c r="H261" s="20"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="10"/>
-      <c r="B262" s="10" t="e">
+      <c r="A262" s="19"/>
+      <c r="B262" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C262" s="10"/>
-      <c r="D262" s="10" t="e">
+      <c r="C262" s="19"/>
+      <c r="D262" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E262" s="10"/>
-      <c r="F262" s="10" t="e">
+      <c r="E262" s="19"/>
+      <c r="F262" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G262" s="10"/>
-      <c r="H262" s="14"/>
+      <c r="G262" s="19"/>
+      <c r="H262" s="20"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="10"/>
-      <c r="B263" s="10" t="e">
+      <c r="A263" s="19"/>
+      <c r="B263" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C263" s="10"/>
-      <c r="D263" s="10" t="e">
+      <c r="C263" s="19"/>
+      <c r="D263" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E263" s="10"/>
-      <c r="F263" s="10" t="e">
+      <c r="E263" s="19"/>
+      <c r="F263" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G263" s="10"/>
-      <c r="H263" s="14"/>
+      <c r="G263" s="19"/>
+      <c r="H263" s="20"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="10"/>
-      <c r="B264" s="10" t="e">
+      <c r="A264" s="19"/>
+      <c r="B264" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C264" s="10"/>
-      <c r="D264" s="10" t="e">
+      <c r="C264" s="19"/>
+      <c r="D264" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E264" s="10"/>
-      <c r="F264" s="10" t="e">
+      <c r="E264" s="19"/>
+      <c r="F264" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G264" s="10"/>
-      <c r="H264" s="14"/>
+      <c r="G264" s="19"/>
+      <c r="H264" s="20"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="10"/>
-      <c r="B265" s="10" t="e">
+      <c r="A265" s="19"/>
+      <c r="B265" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C265" s="10"/>
-      <c r="D265" s="10" t="e">
+      <c r="C265" s="19"/>
+      <c r="D265" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E265" s="10"/>
-      <c r="F265" s="10" t="e">
+      <c r="E265" s="19"/>
+      <c r="F265" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G265" s="10"/>
-      <c r="H265" s="14"/>
+      <c r="G265" s="19"/>
+      <c r="H265" s="20"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="10"/>
-      <c r="B266" s="10" t="e">
+      <c r="A266" s="19"/>
+      <c r="B266" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C266" s="10"/>
-      <c r="D266" s="10" t="e">
+      <c r="C266" s="19"/>
+      <c r="D266" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E266" s="10"/>
-      <c r="F266" s="10" t="e">
+      <c r="E266" s="19"/>
+      <c r="F266" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G266" s="10"/>
-      <c r="H266" s="14"/>
+      <c r="G266" s="19"/>
+      <c r="H266" s="20"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="10"/>
-      <c r="B267" s="10" t="e">
+      <c r="A267" s="19"/>
+      <c r="B267" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C267" s="10"/>
-      <c r="D267" s="10" t="e">
+      <c r="C267" s="19"/>
+      <c r="D267" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E267" s="10"/>
-      <c r="F267" s="10" t="e">
+      <c r="E267" s="19"/>
+      <c r="F267" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G267" s="10"/>
-      <c r="H267" s="14"/>
+      <c r="G267" s="19"/>
+      <c r="H267" s="20"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="10"/>
-      <c r="B268" s="10" t="e">
+      <c r="A268" s="19"/>
+      <c r="B268" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C268" s="10"/>
-      <c r="D268" s="10" t="e">
+      <c r="C268" s="19"/>
+      <c r="D268" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E268" s="10"/>
-      <c r="F268" s="10" t="e">
+      <c r="E268" s="19"/>
+      <c r="F268" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G268" s="10"/>
-      <c r="H268" s="14"/>
+      <c r="G268" s="19"/>
+      <c r="H268" s="20"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="10"/>
-      <c r="B269" s="10" t="e">
+      <c r="A269" s="19"/>
+      <c r="B269" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C269" s="10"/>
-      <c r="D269" s="10" t="e">
+      <c r="C269" s="19"/>
+      <c r="D269" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E269" s="10"/>
-      <c r="F269" s="10" t="e">
+      <c r="E269" s="19"/>
+      <c r="F269" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G269" s="10"/>
-      <c r="H269" s="14"/>
+      <c r="G269" s="19"/>
+      <c r="H269" s="20"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="10"/>
-      <c r="B270" s="10" t="e">
+      <c r="A270" s="19"/>
+      <c r="B270" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C270" s="10"/>
-      <c r="D270" s="10" t="e">
+      <c r="C270" s="19"/>
+      <c r="D270" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E270" s="10"/>
-      <c r="F270" s="10" t="e">
+      <c r="E270" s="19"/>
+      <c r="F270" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G270" s="10"/>
-      <c r="H270" s="14"/>
+      <c r="G270" s="19"/>
+      <c r="H270" s="20"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="10"/>
-      <c r="B271" s="10" t="e">
+      <c r="A271" s="19"/>
+      <c r="B271" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C271" s="10"/>
-      <c r="D271" s="10" t="e">
+      <c r="C271" s="19"/>
+      <c r="D271" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E271" s="10"/>
-      <c r="F271" s="10" t="e">
+      <c r="E271" s="19"/>
+      <c r="F271" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G271" s="10"/>
-      <c r="H271" s="14"/>
+      <c r="G271" s="19"/>
+      <c r="H271" s="20"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="10"/>
-      <c r="B272" s="10" t="e">
+      <c r="A272" s="19"/>
+      <c r="B272" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C272" s="10"/>
-      <c r="D272" s="10" t="e">
+      <c r="C272" s="19"/>
+      <c r="D272" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E272" s="10"/>
-      <c r="F272" s="10" t="e">
+      <c r="E272" s="19"/>
+      <c r="F272" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G272" s="10"/>
-      <c r="H272" s="14"/>
+      <c r="G272" s="19"/>
+      <c r="H272" s="20"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="10"/>
-      <c r="B273" s="10" t="e">
+      <c r="A273" s="19"/>
+      <c r="B273" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C273" s="10"/>
-      <c r="D273" s="10" t="e">
+      <c r="C273" s="19"/>
+      <c r="D273" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E273" s="10"/>
-      <c r="F273" s="10" t="e">
+      <c r="E273" s="19"/>
+      <c r="F273" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G273" s="10"/>
-      <c r="H273" s="14"/>
+      <c r="G273" s="19"/>
+      <c r="H273" s="20"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="10"/>
-      <c r="B274" s="10" t="e">
+      <c r="A274" s="19"/>
+      <c r="B274" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C274" s="10"/>
-      <c r="D274" s="10" t="e">
+      <c r="C274" s="19"/>
+      <c r="D274" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E274" s="10"/>
-      <c r="F274" s="10" t="e">
+      <c r="E274" s="19"/>
+      <c r="F274" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G274" s="10"/>
-      <c r="H274" s="14"/>
+      <c r="G274" s="19"/>
+      <c r="H274" s="20"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="10"/>
-      <c r="B275" s="10" t="e">
+      <c r="A275" s="19"/>
+      <c r="B275" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C275" s="10"/>
-      <c r="D275" s="10" t="e">
+      <c r="C275" s="19"/>
+      <c r="D275" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E275" s="10"/>
-      <c r="F275" s="10" t="e">
+      <c r="E275" s="19"/>
+      <c r="F275" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G275" s="10"/>
-      <c r="H275" s="14"/>
+      <c r="G275" s="19"/>
+      <c r="H275" s="20"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="10"/>
-      <c r="B276" s="10" t="e">
+      <c r="A276" s="19"/>
+      <c r="B276" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C276" s="10"/>
-      <c r="D276" s="10" t="e">
+      <c r="C276" s="19"/>
+      <c r="D276" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E276" s="10"/>
-      <c r="F276" s="10" t="e">
+      <c r="E276" s="19"/>
+      <c r="F276" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G276" s="10"/>
-      <c r="H276" s="14"/>
+      <c r="G276" s="19"/>
+      <c r="H276" s="20"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="10"/>
-      <c r="B277" s="10" t="e">
+      <c r="A277" s="19"/>
+      <c r="B277" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C277" s="10"/>
-      <c r="D277" s="10" t="e">
+      <c r="C277" s="19"/>
+      <c r="D277" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E277" s="10"/>
-      <c r="F277" s="10" t="e">
+      <c r="E277" s="19"/>
+      <c r="F277" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G277" s="10"/>
-      <c r="H277" s="14"/>
+      <c r="G277" s="19"/>
+      <c r="H277" s="20"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="10"/>
-      <c r="B278" s="10" t="e">
+      <c r="A278" s="19"/>
+      <c r="B278" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C278" s="10"/>
-      <c r="D278" s="10" t="e">
+      <c r="C278" s="19"/>
+      <c r="D278" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E278" s="10"/>
-      <c r="F278" s="10" t="e">
+      <c r="E278" s="19"/>
+      <c r="F278" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G278" s="10"/>
-      <c r="H278" s="14"/>
+      <c r="G278" s="19"/>
+      <c r="H278" s="20"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="10"/>
-      <c r="B279" s="10" t="e">
+      <c r="A279" s="19"/>
+      <c r="B279" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C279" s="10"/>
-      <c r="D279" s="10" t="e">
+      <c r="C279" s="19"/>
+      <c r="D279" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E279" s="10"/>
-      <c r="F279" s="10" t="e">
+      <c r="E279" s="19"/>
+      <c r="F279" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G279" s="10"/>
-      <c r="H279" s="14"/>
+      <c r="G279" s="19"/>
+      <c r="H279" s="20"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="10"/>
-      <c r="B280" s="10" t="e">
+      <c r="A280" s="19"/>
+      <c r="B280" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C280" s="10"/>
-      <c r="D280" s="10" t="e">
+      <c r="C280" s="19"/>
+      <c r="D280" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E280" s="10"/>
-      <c r="F280" s="10" t="e">
+      <c r="E280" s="19"/>
+      <c r="F280" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G280" s="10"/>
-      <c r="H280" s="14"/>
+      <c r="G280" s="19"/>
+      <c r="H280" s="20"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="10"/>
-      <c r="B281" s="10" t="e">
+      <c r="A281" s="19"/>
+      <c r="B281" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C281" s="10"/>
-      <c r="D281" s="10" t="e">
+      <c r="C281" s="19"/>
+      <c r="D281" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E281" s="10"/>
-      <c r="F281" s="10" t="e">
+      <c r="E281" s="19"/>
+      <c r="F281" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G281" s="10"/>
-      <c r="H281" s="14"/>
+      <c r="G281" s="19"/>
+      <c r="H281" s="20"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="10"/>
-      <c r="B282" s="10" t="e">
+      <c r="A282" s="19"/>
+      <c r="B282" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C282" s="10"/>
-      <c r="D282" s="10" t="e">
+      <c r="C282" s="19"/>
+      <c r="D282" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E282" s="10"/>
-      <c r="F282" s="10" t="e">
+      <c r="E282" s="19"/>
+      <c r="F282" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G282" s="10"/>
-      <c r="H282" s="14"/>
+      <c r="G282" s="19"/>
+      <c r="H282" s="20"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="10"/>
-      <c r="B283" s="10" t="e">
+      <c r="A283" s="19"/>
+      <c r="B283" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C283" s="10"/>
-      <c r="D283" s="10" t="e">
+      <c r="C283" s="19"/>
+      <c r="D283" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E283" s="10"/>
-      <c r="F283" s="10" t="e">
+      <c r="E283" s="19"/>
+      <c r="F283" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G283" s="10"/>
-      <c r="H283" s="14"/>
+      <c r="G283" s="19"/>
+      <c r="H283" s="20"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="10"/>
-      <c r="B284" s="10" t="e">
+      <c r="A284" s="19"/>
+      <c r="B284" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C284" s="10"/>
-      <c r="D284" s="10" t="e">
+      <c r="C284" s="19"/>
+      <c r="D284" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E284" s="10"/>
-      <c r="F284" s="10" t="e">
+      <c r="E284" s="19"/>
+      <c r="F284" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G284" s="10"/>
-      <c r="H284" s="14"/>
+      <c r="G284" s="19"/>
+      <c r="H284" s="20"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="10"/>
-      <c r="B285" s="10" t="e">
+      <c r="A285" s="19"/>
+      <c r="B285" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C285" s="10"/>
-      <c r="D285" s="10" t="e">
+      <c r="C285" s="19"/>
+      <c r="D285" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E285" s="10"/>
-      <c r="F285" s="10" t="e">
+      <c r="E285" s="19"/>
+      <c r="F285" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G285" s="10"/>
-      <c r="H285" s="14"/>
+      <c r="G285" s="19"/>
+      <c r="H285" s="20"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="10"/>
-      <c r="B286" s="10" t="e">
+      <c r="A286" s="19"/>
+      <c r="B286" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C286" s="10"/>
-      <c r="D286" s="10" t="e">
+      <c r="C286" s="19"/>
+      <c r="D286" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E286" s="10"/>
-      <c r="F286" s="10" t="e">
+      <c r="E286" s="19"/>
+      <c r="F286" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G286" s="10"/>
-      <c r="H286" s="14"/>
+      <c r="G286" s="19"/>
+      <c r="H286" s="20"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="10"/>
-      <c r="B287" s="10" t="e">
+      <c r="A287" s="19"/>
+      <c r="B287" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C287" s="10"/>
-      <c r="D287" s="10" t="e">
+      <c r="C287" s="19"/>
+      <c r="D287" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E287" s="10"/>
-      <c r="F287" s="10" t="e">
+      <c r="E287" s="19"/>
+      <c r="F287" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G287" s="10"/>
-      <c r="H287" s="14"/>
+      <c r="G287" s="19"/>
+      <c r="H287" s="20"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="10"/>
-      <c r="B288" s="10" t="e">
+      <c r="A288" s="19"/>
+      <c r="B288" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C288" s="10"/>
-      <c r="D288" s="10" t="e">
+      <c r="C288" s="19"/>
+      <c r="D288" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E288" s="10"/>
-      <c r="F288" s="10" t="e">
+      <c r="E288" s="19"/>
+      <c r="F288" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G288" s="10"/>
-      <c r="H288" s="14"/>
+      <c r="G288" s="19"/>
+      <c r="H288" s="20"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="10"/>
-      <c r="B289" s="10" t="e">
+      <c r="A289" s="19"/>
+      <c r="B289" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C289" s="10"/>
-      <c r="D289" s="10" t="e">
+      <c r="C289" s="19"/>
+      <c r="D289" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E289" s="10"/>
-      <c r="F289" s="10" t="e">
+      <c r="E289" s="19"/>
+      <c r="F289" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G289" s="10"/>
-      <c r="H289" s="14"/>
+      <c r="G289" s="19"/>
+      <c r="H289" s="20"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="10"/>
-      <c r="B290" s="10" t="e">
+      <c r="A290" s="19"/>
+      <c r="B290" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10" t="e">
+      <c r="C290" s="19"/>
+      <c r="D290" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E290" s="10"/>
-      <c r="F290" s="10" t="e">
+      <c r="E290" s="19"/>
+      <c r="F290" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G290" s="10"/>
-      <c r="H290" s="14"/>
+      <c r="G290" s="19"/>
+      <c r="H290" s="20"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="10"/>
-      <c r="B291" s="10" t="e">
+      <c r="A291" s="19"/>
+      <c r="B291" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10" t="e">
+      <c r="C291" s="19"/>
+      <c r="D291" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E291" s="10"/>
-      <c r="F291" s="10" t="e">
+      <c r="E291" s="19"/>
+      <c r="F291" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G291" s="10"/>
-      <c r="H291" s="14"/>
+      <c r="G291" s="19"/>
+      <c r="H291" s="20"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="10"/>
-      <c r="B292" s="10" t="e">
+      <c r="A292" s="19"/>
+      <c r="B292" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10" t="e">
+      <c r="C292" s="19"/>
+      <c r="D292" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E292" s="10"/>
-      <c r="F292" s="10" t="e">
+      <c r="E292" s="19"/>
+      <c r="F292" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G292" s="10"/>
-      <c r="H292" s="14"/>
+      <c r="G292" s="19"/>
+      <c r="H292" s="20"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="10"/>
-      <c r="B293" s="10" t="e">
+      <c r="A293" s="19"/>
+      <c r="B293" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C293" s="10"/>
-      <c r="D293" s="10" t="e">
+      <c r="C293" s="19"/>
+      <c r="D293" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E293" s="10"/>
-      <c r="F293" s="10" t="e">
+      <c r="E293" s="19"/>
+      <c r="F293" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G293" s="10"/>
-      <c r="H293" s="14"/>
+      <c r="G293" s="19"/>
+      <c r="H293" s="20"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="10"/>
-      <c r="B294" s="10" t="e">
+      <c r="A294" s="19"/>
+      <c r="B294" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C294" s="10"/>
-      <c r="D294" s="10" t="e">
+      <c r="C294" s="19"/>
+      <c r="D294" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E294" s="10"/>
-      <c r="F294" s="10" t="e">
+      <c r="E294" s="19"/>
+      <c r="F294" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G294" s="10"/>
-      <c r="H294" s="14"/>
+      <c r="G294" s="19"/>
+      <c r="H294" s="20"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="10"/>
-      <c r="B295" s="10" t="e">
+      <c r="A295" s="19"/>
+      <c r="B295" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C295" s="10"/>
-      <c r="D295" s="10" t="e">
+      <c r="C295" s="19"/>
+      <c r="D295" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E295" s="10"/>
-      <c r="F295" s="10" t="e">
+      <c r="E295" s="19"/>
+      <c r="F295" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G295" s="10"/>
-      <c r="H295" s="14"/>
+      <c r="G295" s="19"/>
+      <c r="H295" s="20"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="10"/>
-      <c r="B296" s="10" t="e">
+      <c r="A296" s="19"/>
+      <c r="B296" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10" t="e">
+      <c r="C296" s="19"/>
+      <c r="D296" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E296" s="10"/>
-      <c r="F296" s="10" t="e">
+      <c r="E296" s="19"/>
+      <c r="F296" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G296" s="10"/>
-      <c r="H296" s="14"/>
+      <c r="G296" s="19"/>
+      <c r="H296" s="20"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="10"/>
-      <c r="B297" s="10" t="e">
+      <c r="A297" s="19"/>
+      <c r="B297" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C297" s="10"/>
-      <c r="D297" s="10" t="e">
+      <c r="C297" s="19"/>
+      <c r="D297" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E297" s="10"/>
-      <c r="F297" s="10" t="e">
+      <c r="E297" s="19"/>
+      <c r="F297" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G297" s="10"/>
-      <c r="H297" s="14"/>
+      <c r="G297" s="19"/>
+      <c r="H297" s="20"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="10"/>
-      <c r="B298" s="10" t="e">
+      <c r="A298" s="19"/>
+      <c r="B298" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C298" s="10"/>
-      <c r="D298" s="10" t="e">
+      <c r="C298" s="19"/>
+      <c r="D298" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E298" s="10"/>
-      <c r="F298" s="10" t="e">
+      <c r="E298" s="19"/>
+      <c r="F298" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G298" s="10"/>
-      <c r="H298" s="14"/>
+      <c r="G298" s="19"/>
+      <c r="H298" s="20"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="10"/>
-      <c r="B299" s="10" t="e">
+      <c r="A299" s="19"/>
+      <c r="B299" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C299" s="10"/>
-      <c r="D299" s="10" t="e">
+      <c r="C299" s="19"/>
+      <c r="D299" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E299" s="10"/>
-      <c r="F299" s="10" t="e">
+      <c r="E299" s="19"/>
+      <c r="F299" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G299" s="10"/>
-      <c r="H299" s="14"/>
+      <c r="G299" s="19"/>
+      <c r="H299" s="20"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="10"/>
-      <c r="B300" s="10" t="e">
+      <c r="A300" s="19"/>
+      <c r="B300" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C300" s="10"/>
-      <c r="D300" s="10" t="e">
+      <c r="C300" s="19"/>
+      <c r="D300" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E300" s="10"/>
-      <c r="F300" s="10" t="e">
+      <c r="E300" s="19"/>
+      <c r="F300" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G300" s="10"/>
-      <c r="H300" s="14"/>
+      <c r="G300" s="19"/>
+      <c r="H300" s="20"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="10"/>
-      <c r="B301" s="10" t="e">
+      <c r="A301" s="19"/>
+      <c r="B301" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10" t="e">
+      <c r="C301" s="19"/>
+      <c r="D301" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E301" s="10"/>
-      <c r="F301" s="10" t="e">
+      <c r="E301" s="19"/>
+      <c r="F301" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G301" s="10"/>
-      <c r="H301" s="14"/>
+      <c r="G301" s="19"/>
+      <c r="H301" s="20"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="10"/>
-      <c r="B302" s="10" t="e">
+      <c r="A302" s="19"/>
+      <c r="B302" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10" t="e">
+      <c r="C302" s="19"/>
+      <c r="D302" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E302" s="10"/>
-      <c r="F302" s="10" t="e">
+      <c r="E302" s="19"/>
+      <c r="F302" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G302" s="10"/>
-      <c r="H302" s="14"/>
+      <c r="G302" s="19"/>
+      <c r="H302" s="20"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="10"/>
-      <c r="B303" s="10" t="e">
+      <c r="A303" s="19"/>
+      <c r="B303" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C303" s="10"/>
-      <c r="D303" s="10" t="e">
+      <c r="C303" s="19"/>
+      <c r="D303" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E303" s="10"/>
-      <c r="F303" s="10" t="e">
+      <c r="E303" s="19"/>
+      <c r="F303" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G303" s="10"/>
-      <c r="H303" s="14"/>
+      <c r="G303" s="19"/>
+      <c r="H303" s="20"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="10"/>
-      <c r="B304" s="10" t="e">
+      <c r="A304" s="19"/>
+      <c r="B304" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C304" s="10"/>
-      <c r="D304" s="10" t="e">
+      <c r="C304" s="19"/>
+      <c r="D304" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E304" s="10"/>
-      <c r="F304" s="10" t="e">
+      <c r="E304" s="19"/>
+      <c r="F304" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G304" s="10"/>
-      <c r="H304" s="14"/>
+      <c r="G304" s="19"/>
+      <c r="H304" s="20"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="10"/>
-      <c r="B305" s="10" t="e">
+      <c r="A305" s="19"/>
+      <c r="B305" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C305" s="10"/>
-      <c r="D305" s="10" t="e">
+      <c r="C305" s="19"/>
+      <c r="D305" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E305" s="10"/>
-      <c r="F305" s="10" t="e">
+      <c r="E305" s="19"/>
+      <c r="F305" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G305" s="10"/>
-      <c r="H305" s="14"/>
+      <c r="G305" s="19"/>
+      <c r="H305" s="20"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="10"/>
-      <c r="B306" s="10" t="e">
+      <c r="A306" s="19"/>
+      <c r="B306" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C306" s="10"/>
-      <c r="D306" s="10" t="e">
+      <c r="C306" s="19"/>
+      <c r="D306" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E306" s="10"/>
-      <c r="F306" s="10" t="e">
+      <c r="E306" s="19"/>
+      <c r="F306" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G306" s="10"/>
-      <c r="H306" s="14"/>
+      <c r="G306" s="19"/>
+      <c r="H306" s="20"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="10"/>
-      <c r="B307" s="10" t="e">
+      <c r="A307" s="19"/>
+      <c r="B307" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C307" s="10"/>
-      <c r="D307" s="10" t="e">
+      <c r="C307" s="19"/>
+      <c r="D307" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E307" s="10"/>
-      <c r="F307" s="10" t="e">
+      <c r="E307" s="19"/>
+      <c r="F307" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G307" s="10"/>
-      <c r="H307" s="14"/>
+      <c r="G307" s="19"/>
+      <c r="H307" s="20"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="10"/>
-      <c r="B308" s="10" t="e">
+      <c r="A308" s="19"/>
+      <c r="B308" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C308" s="10"/>
-      <c r="D308" s="10" t="e">
+      <c r="C308" s="19"/>
+      <c r="D308" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E308" s="10"/>
-      <c r="F308" s="10" t="e">
+      <c r="E308" s="19"/>
+      <c r="F308" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G308" s="10"/>
-      <c r="H308" s="14"/>
+      <c r="G308" s="19"/>
+      <c r="H308" s="20"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="10"/>
-      <c r="B309" s="10" t="e">
+      <c r="A309" s="19"/>
+      <c r="B309" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C309" s="10"/>
-      <c r="D309" s="10" t="e">
+      <c r="C309" s="19"/>
+      <c r="D309" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E309" s="10"/>
-      <c r="F309" s="10" t="e">
+      <c r="E309" s="19"/>
+      <c r="F309" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G309" s="10"/>
-      <c r="H309" s="14"/>
+      <c r="G309" s="19"/>
+      <c r="H309" s="20"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" s="10"/>
-      <c r="B310" s="10" t="e">
+      <c r="A310" s="19"/>
+      <c r="B310" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C310" s="10"/>
-      <c r="D310" s="10" t="e">
+      <c r="C310" s="19"/>
+      <c r="D310" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E310" s="10"/>
-      <c r="F310" s="10" t="e">
+      <c r="E310" s="19"/>
+      <c r="F310" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G310" s="10"/>
-      <c r="H310" s="14"/>
+      <c r="G310" s="19"/>
+      <c r="H310" s="20"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" s="10"/>
-      <c r="B311" s="10" t="e">
+      <c r="A311" s="19"/>
+      <c r="B311" s="19" t="e">
         <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="C311" s="10"/>
-      <c r="D311" s="10" t="e">
+      <c r="C311" s="19"/>
+      <c r="D311" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="E311" s="10"/>
-      <c r="F311" s="10" t="e">
+      <c r="E311" s="19"/>
+      <c r="F311" s="19" t="e">
         <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="G311" s="10"/>
-      <c r="H311" s="14"/>
+      <c r="G311" s="19"/>
+      <c r="H311" s="20"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H312" s="14"/>
+      <c r="H312" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OuURqBHdR3B2ifdHTAAY2EuI0x+MEnY5bzrxYrEqxE/5p9HSRwuKCCd5TYFImNL17AENa1hn+LJkt/lUgtAtjg==" saltValue="In6qsVyYapdNrcFGtzcwbQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q1rbNx+lXyYr5PnXBtJKM6Rp7aI7HPP1RG7uqi/y6quzhwQ6y57BU18JDsppP7K2xeKIcqRxk+FR0+3FKTB4Tw==" saltValue="qui6kN7koKv+oNf3uS3Z0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
@@ -6744,8 +6753,8 @@
       <c r="A11" s="6">
         <v>2016</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
@@ -6769,8 +6778,8 @@
       <c r="A12" s="6">
         <v>2017</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
